--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So if we are to have a consistent regional planning framework, that should be weighed in the balance as to whether they 're taken into ø account in North Yorkshire.; </t>
+          <t xml:space="preserve"> So if we are to have a consistent regional planning framework, that should be weighed in _the_ balance as to whether they 're taken into ø account in North Yorkshire.; </t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> all the time.; </t>
+          <t xml:space="preserve"> all _the_ time.; </t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Are there any questions on the sports pitches?; </t>
+          <t xml:space="preserve"> Are there any questions on _the_ sports pitches?; </t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> she knows how to do ø arrangements and all that but she 's got no business sense!; </t>
+          <t xml:space="preserve"> she knows how to do _ø_ arrangements and all that but she 's got no business sense!; </t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Du n no Du n no what that is, I mean oh we have n't got a clue, he 's not got a clue on ø car, do n't know where he 's got that bloody lot from, so besides ø other things that want checking for ø MOT, I think he wants them to check They do steering them for them so we ought to have somebody have a look at it we 've managed to drive Well that cost a lot, but a bloody well where 've you got that from then Ann?; </t>
+          <t xml:space="preserve"> Du n no Du n no what that is, I mean oh we have n't got a clue, he 's not got a clue on ø car, do n't know where he 's got that bloody lot from, so besides ø other things that want checking for ø MOT, I think he wants them to check They do steering them for them so we ought to have somebody have a look at it we 've managed to drive Well that cost a lot, but _a_ bloody well where 've you got that from then Ann?; </t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He was a founder member and ø later Chairman of the Scottish Council of the R Y A, played the leading role in the nineteen ninety one R Y A You ø World Youth Champions and is a past President of the then National Flying ø Fifteen Owners' Association.; </t>
+          <t xml:space="preserve"> He was a founder member and _ø_ later Chairman of the Scottish Council of the R Y A, played the leading role in the nineteen ninety one R Y A You ø World Youth Champions and is a past President of the then National Flying ø Fifteen Owners' Association.; </t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In in ø terms of going to a business yeah.; </t>
+          <t xml:space="preserve"> In in _ø_ terms of going to a business yeah.; </t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah I mean Rob was saying he watched a documentary on it the other night and he said even by kicking someone now, if you do n't have n't, is n't an accident it 's like kissing someone you Ooh Now it, now it, he says it 's getting quite serious now, cos apparently came up with erm these four cases where erm the people have lived an absolutely normal pure life Yeah and the only thing that they 've done is if you kiss somebody, kissing someone whatever you know, erm or someone 's dirty and that is the only thing they can put it down to Oh my god its quite frightening when it gets to yeah it is ø things like that Mum What my love?; </t>
+          <t xml:space="preserve"> Yeah I mean Rob was saying he watched a documentary on it the other night and he said even by kicking someone now, if you do n't have n't, is n't an accident it 's like kissing someone you Ooh Now it, now it, he says it 's getting quite serious now, cos apparently came up with erm these four cases where erm _the_ people have lived an absolutely normal pure life Yeah and the only thing that they 've done is if you kiss somebody, kissing someone whatever you know, erm or someone 's dirty and that is the only thing they can put it down to Oh my god its quite frightening when it gets to yeah it is ø things like that Mum What my love?; </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Our ø political allies in the Labour Party should spell out exactly what it means to work in an unsafe environment, and last but not least, we should push the message of the National Health and ø Safety Conference of ø last year, better safe than sorry.; </t>
+          <t xml:space="preserve"> Our ø political allies in the Labour Party should spell out exactly what it means to work in an unsafe environment, and last but not least, we should push the message of the National Health and _ø_ Safety Conference of ø last year, better safe than sorry.; </t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A pretend picnic?; </t>
+          <t xml:space="preserve"> _A_ pretend picnic?; </t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We 're gon na spend the day in London, go shopping Guess what my dad told me today?; </t>
+          <t xml:space="preserve"> We 're gon na spend _the_ day in London, go shopping Guess what my dad told me today?; </t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh no every er er ø ordinary customers.; </t>
+          <t xml:space="preserve"> Oh no _every_ er er ø ordinary customers.; </t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Do you want to pay at the counter?; </t>
+          <t xml:space="preserve"> Do you want to pay at _the_ counter?; </t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Scott then had the cheek to tell me What can I put, ø good luck?; </t>
+          <t xml:space="preserve"> Scott then had _the_ cheek to tell me What can I put, ø good luck?; </t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A former senior minister who has been through many spending rounds says we take them all much too seriously, they are merely a mating ritual, he says, adding, and a barren one at that, no offspring.; </t>
+          <t xml:space="preserve"> A former senior minister who has been through many spending rounds says we take them all much too seriously, they are merely a mating ritual, he says, adding, and _a_ barren one at that, no offspring.; </t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Some joker had it nailed to the floor.; </t>
+          <t xml:space="preserve"> Some joker had it nailed to _the_ floor.; </t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cos that would, that would be the hard part Mm?; </t>
+          <t xml:space="preserve"> Cos that would, that would be _the_ hard part Mm?; </t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shall I get a shall I?; </t>
+          <t xml:space="preserve"> Shall I get _a_ shall I?; </t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now coming back to the objective I say it leaves you on a high note then rather than the and that 's all I 'm gon na say tell them what you 're gon na tell them then tell them then tell them what you 've told them.; </t>
+          <t xml:space="preserve"> Now coming back to _the_ objective I say it leaves you on a high note then rather than the and that 's all I 'm gon na say tell them what you 're gon na tell them then tell them then tell them what you 've told them.; </t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's the thing.; </t>
+          <t xml:space="preserve"> That 's _the_ thing.; </t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> yeah, you 've got all the camp beds Ah they might have somebody to stay with them, have somebody to stay with them the only trouble this we need ø days and ø days and ø days and ø months or ø rain it 's lovely but it 's not doing us any good this Its too dry really, there 's going to be a real water shortage still Yes a real calamity too because once the things dry up, the trouble is the, the water gets seen this lady What she dresses in some of the strangest things, sometimes she dresses in ø sailor's uniforms and big white Really?; </t>
+          <t xml:space="preserve"> yeah, you 've got all the camp beds Ah they might have somebody to stay with them, have somebody to stay with them the only trouble this we need ø days and ø days and ø days and ø months or ø rain it 's lovely but it 's not doing us any good this Its too dry really, there 's going to be a real water shortage still Yes _a_ real calamity too because once the things dry up, the trouble is the, the water gets seen this lady What she dresses in some of the strangest things, sometimes she dresses in ø sailor's uniforms and big white Really?; </t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They You used to go and walk on the face in a morning an and you 'd rap on the face with your pick and ø buggers are green, ther they 're not ripe yet.; </t>
+          <t xml:space="preserve"> They You used to go and walk on the face in a morning an and you 'd rap on _the_ face with your pick and ø buggers are green, ther they 're not ripe yet.; </t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh no what an arsehole!; </t>
+          <t xml:space="preserve"> Oh no what _an_ arsehole!; </t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So the main elements for me were the thought process the cluster and the playback.; </t>
+          <t xml:space="preserve"> So the main elements for me were the thought process _the_ cluster and the playback.; </t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm so we walked in and out of ø carriages as he sought a pair of ø seats together and erm squashed down, he had me like penned into the window, like I 've got my bag and my umbrella in between ha, and I 'd already told him I was going out with someone.; </t>
+          <t xml:space="preserve"> Erm so we walked in and out of ø carriages as he sought a pair of _ø_ seats together and erm squashed down, he had me like penned into the window, like I 've got my bag and my umbrella in between ha, and I 'd already told him I was going out with someone.; </t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The bear necessities of ø life will come to you they 'll come to you.; </t>
+          <t xml:space="preserve"> The bear necessities of _ø_ life will come to you they 'll come to you.; </t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What ø time You only have to take a little bit off ai n't enough to go under your nose.; </t>
+          <t xml:space="preserve"> What ø time You only have to take _a_ little bit off ai n't enough to go under your nose.; </t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The boy dragon Joshua said Wait a minute.; </t>
+          <t xml:space="preserve"> The boy dragon Joshua said Wait _a_ minute.; </t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But the fundamental requirement must in the end, of any prestigious academic institution, to be a place where ø academic standards are maintained.; </t>
+          <t xml:space="preserve"> But the fundamental requirement must in _the_ end, of any prestigious academic institution, to be a place where ø academic standards are maintained.; </t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sometimes if you 've made a mistake and the parallel I 'm drawing is with the Jewish community in Jesus ø time.; </t>
+          <t xml:space="preserve"> Sometimes if you 've made a mistake and _the_ parallel I 'm drawing is with the Jewish community in Jesus ø time.; </t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I mean it seems a bit ironic in that how that what the Communist Party had been striving to eliminate for the past ø twenty years, they 're now going back to recreating ø differences in ø society, but the most fundamental change is that how ø feudalism has gone.; </t>
+          <t xml:space="preserve"> I mean it seems _a_ bit ironic in that how that what the Communist Party had been striving to eliminate for the past ø twenty years, they 're now going back to recreating ø differences in ø society, but the most fundamental change is that how ø feudalism has gone.; </t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So we 're ø suggestion criterion which make it quite clear that such a strategic site should not under any circumstances be located in the national parks, ø areas of ø outstanding natural beauty, ø heritage coast, ø greenbelt and other specially ø designated areas of ø countryside protection.; </t>
+          <t xml:space="preserve"> So we 're ø suggestion criterion which make it quite clear that such _a_ strategic site should not under any circumstances be located in the national parks, ø areas of ø outstanding natural beauty, ø heritage coast, ø greenbelt and other specially ø designated areas of ø countryside protection.; </t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Are you w so it gives you some idea, if you 're gon if you 're not gon na revise the whole syllabus, ø shame on you, erm then it gives you some indication of how to spend your revision wisely.; </t>
+          <t xml:space="preserve"> Are you w so it gives you some idea, if you 're gon if you 're not gon na revise _the_ whole syllabus, ø shame on you, erm then it gives you some indication of how to spend your revision wisely.; </t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Then that very night I got a phone call from this woman.; </t>
+          <t xml:space="preserve"> Then that very night I got _a_ phone call from this woman.; </t>
         </is>
       </c>
     </row>
@@ -2006,7 +2006,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And there is a division within the party is n't there, a real ø ideological divide within the party over how to deal with that, whether to raise ø taxes, whether to cut spending further?; </t>
+          <t xml:space="preserve"> And there is a division within _the_ party is n't there, a real ø ideological divide within the party over how to deal with that, whether to raise ø taxes, whether to cut spending further?; </t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Fucking habit that 's all it is, just a fucking habit.; </t>
+          <t xml:space="preserve"> ø Fucking habit that 's all it is, just _a_ fucking habit.; </t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But again, I emphasize, it must be sold in the right situation.; </t>
+          <t xml:space="preserve"> But again, I emphasize, it must be sold in _the_ right situation.; </t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And we would n't want to get the tape recorders wet would we?; </t>
+          <t xml:space="preserve"> And we would n't want to get _the_ tape recorders wet would we?; </t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No these did n't give me the feeling of being ø police.; </t>
+          <t xml:space="preserve"> No these did n't give me the feeling of being _ø_ police.; </t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But from a dis if I could just get a good you know one of these really warm days.; </t>
+          <t xml:space="preserve"> But from a dis if I could just get _a_ good you know one of these really warm days.; </t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's, it 's hard to, I think there is this erm ø farmland I would imagine a very very hard Yes.; </t>
+          <t xml:space="preserve"> It 's, it 's hard to, I think there is this erm ø farmland I would imagine _a_ very very hard Yes.; </t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's really a fire engine book.; </t>
+          <t xml:space="preserve"> It 's really _a_ fire engine book.; </t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Not since the er I do n't know.; </t>
+          <t xml:space="preserve"> Not since _the_ er I do n't know.; </t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The cost is going to be some three thousand four hundred million I think er t to the U K. That 's er e gone up by about ø thirteen percent four hundred million roughly, er over the original estimate.; </t>
+          <t xml:space="preserve"> _The_ cost is going to be some three thousand four hundred million I think er t to the U K. That 's er e gone up by about ø thirteen percent four hundred million roughly, er over the original estimate.; </t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The former Chairman and ø Accountant of Aylesbury ø Town Football Club have been committed for ø trial on ø tax fraud charges.; </t>
+          <t xml:space="preserve"> The former Chairman and ø Accountant of Aylesbury ø Town Football Club have been committed for ø trial on _ø_ tax fraud charges.; </t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> they leave it for half an hour.; </t>
+          <t xml:space="preserve"> they leave it for half _an_ hour.; </t>
         </is>
       </c>
     </row>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Projects such as Scone ø Park have shown that there can be ø alternative provision and that you can meet the needs of ø children and ø young people and respond to those in their own community and develop the investment in that community.; </t>
+          <t xml:space="preserve"> ø Projects such as Scone _ø_ Park have shown that there can be ø alternative provision and that you can meet the needs of ø children and ø young people and respond to those in their own community and develop the investment in that community.; </t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It is their view that such a measure will be very counter-productive.; </t>
+          <t xml:space="preserve"> It is their view that such _a_ measure will be very counter-productive.; </t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And I ca n't understand why the police do n't shift these vehicles.; </t>
+          <t xml:space="preserve"> And I ca n't understand why _the_ police do n't shift these vehicles.; </t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I 'll go No cos you said had a home run with D' ya know, d' ya know, d' ya know the home run and all that?; </t>
+          <t xml:space="preserve"> I 'll go No cos you said had a home run with D' ya know, d' ya know, d' ya know _the_ home run and all that?; </t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He lived down ø Gypsy Lane with his ø two sisters, he was a single man you see and my father and ø mother lived here and my, they not only mended ø shoes but they made them and er course naturally, you know, well of ø course Needham was n't as big as it is now but they made them for the best people, if that, if that 's the right, not the right expression say, but er but you know what I mean er and er and he, you know, all his life you see he did that and then ø one day he had a shock because his er, what would you call him ø colleague, he, he died suddenly in the night.; </t>
+          <t xml:space="preserve"> He lived down ø Gypsy Lane with his ø two sisters, he was _a_ single man you see and my father and ø mother lived here and my, they not only mended ø shoes but they made them and er course naturally, you know, well of ø course Needham was n't as big as it is now but they made them for the best people, if that, if that 's the right, not the right expression say, but er but you know what I mean er and er and he, you know, all his life you see he did that and then ø one day he had a shock because his er, what would you call him ø colleague, he, he died suddenly in the night.; </t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Go on ø hock the middle one then.; </t>
+          <t xml:space="preserve"> Go on ø hock _the_ middle one then.; </t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Was, I hope Lyons ø Maid turn up Like me to give them a ring?; </t>
+          <t xml:space="preserve"> Was, I hope Lyons ø Maid turn up Like me to give them _a_ ring?; </t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In ø other words, just on the eve of ø World War One.; </t>
+          <t xml:space="preserve"> In ø other words, just on the eve of _ø_ World War One.; </t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We also went down into the valley, into, we were on the edge of the Rift Valley, and there there were a different sort of ø people.; </t>
+          <t xml:space="preserve"> We also went down into the valley, into, we were on the edge of the Rift Valley, and there there were a different sort of _ø_ people.; </t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Has anybody had a wash?; </t>
+          <t xml:space="preserve"> Has anybody had _a_ wash?; </t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The old cock Blackie came and had his breakfast this morning Good.; </t>
+          <t xml:space="preserve"> _The_ old cock Blackie came and had his breakfast this morning Good.; </t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This is the Hopa, this German man.; </t>
+          <t xml:space="preserve"> This is _the_ Hopa, this German man.; </t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er, we 've been going for twenty ø six years er, and we now manage around about three ø thousand properties and are building er and selling around about seven ø hundred properties a year for, for ø rent and ø low cost home ownership.; </t>
+          <t xml:space="preserve"> Er, we 've been going for twenty _ø_ six years er, and we now manage around about three ø thousand properties and are building er and selling around about seven ø hundred properties a year for, for ø rent and ø low cost home ownership.; </t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Do you know what the stopping distance is for ø 4 miles an hour?; </t>
+          <t xml:space="preserve"> Do you know what the stopping distance is for _ø_ 4 miles an hour?; </t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cor yeah but it 's still a profit not a But erm ø loss in n it?; </t>
+          <t xml:space="preserve"> Cor yeah but it 's still a profit not _a_ But erm ø loss in n it?; </t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's when the engine seized solid because there was no oil in the engine.; </t>
+          <t xml:space="preserve"> That 's when the engine seized solid because there was _no_ oil in the engine.; </t>
         </is>
       </c>
     </row>
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's a lovely thing!; </t>
+          <t xml:space="preserve"> It 's _a_ lovely thing!; </t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Could n't remember the start.; </t>
+          <t xml:space="preserve"> Could n't remember _the_ start.; </t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How long does a game take, as a general rule David?; </t>
+          <t xml:space="preserve"> How long does _a_ game take, as a general rule David?; </t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And changing the washers usually does the trick.; </t>
+          <t xml:space="preserve"> And changing _the_ washers usually does the trick.; </t>
         </is>
       </c>
     </row>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah because there 's a lot, I mean ø cereals have got a lot of ø vitamins and ø iron in ai n't they?; </t>
+          <t xml:space="preserve"> Yeah because there 's a lot, I mean ø cereals have got a lot of ø vitamins and _ø_ iron in ai n't they?; </t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You get ø high levels of ø urban unemployment there so ø migration to the urban areas and not finding ø employment situation.; </t>
+          <t xml:space="preserve"> You get ø high levels of ø urban unemployment there so ø migration to the urban areas and not finding _ø_ employment situation.; </t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I I like a garden.; </t>
+          <t xml:space="preserve"> I I like _a_ garden.; </t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Rochelle Wilson compiled this report on Wednesday: ø Three tornadoes left a trail of ø devastation as they swept through the small town of ø Plainfield.; </t>
+          <t xml:space="preserve"> ø Rochelle Wilson compiled this report on Wednesday: ø Three tornadoes left a trail of ø devastation as they swept through _the_ small town of ø Plainfield.; </t>
         </is>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Lovely, now me, I 'm an ex-M A T S A ø member, I 'm in the security industry, at the moment I have n't got a section, so what am I a Bosnian, a Serbian or a Croatian I do n't know.; </t>
+          <t xml:space="preserve"> Lovely, now me, I 'm an ex-M A T S A ø member, I 'm in _the_ security industry, at the moment I have n't got a section, so what am I a Bosnian, a Serbian or a Croatian I do n't know.; </t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Apart from the fact that they have an enormous erm ø range of ø domestic attractions and ø destinations, everywhere from the Pacific ø north west to Florida and California, the Caribbean is on their doorstep, Hawaii is on their doorstep, Bermuda.; </t>
+          <t xml:space="preserve"> Apart from the fact that they have an enormous erm ø range of ø domestic attractions and _ø_ destinations, everywhere from the Pacific ø north west to Florida and California, the Caribbean is on their doorstep, Hawaii is on their doorstep, Bermuda.; </t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well if you will give the money to Albert!; </t>
+          <t xml:space="preserve"> Well if you will give _the_ money to Albert!; </t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I think the question follows Mr, why is ø County Council supporting a proposal which compared with the o ø other options before it, provides least ø relief?; </t>
+          <t xml:space="preserve"> I think the question follows Mr, why is ø County Council supporting _a_ proposal which compared with the o ø other options before it, provides least ø relief?; </t>
         </is>
       </c>
     </row>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I think Suzy's right, but I think though it 's not just the attitude of ø men we should be looking at, it 's also the attitude of ø women.; </t>
+          <t xml:space="preserve"> I think Suzy's right, but I think though it 's not just the attitude of ø men we should be looking at, it 's also _the_ attitude of ø women.; </t>
         </is>
       </c>
     </row>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er so er let's say that the ten percent rate applies, er ø mind you ø ten percent is a long way from where we are now, but it makes the figures easy to look at, so er let's say that he 's getting ø ten percent gross on his return on a building society, he 'd actually get seven and a half percent net, er so on his ten thousand he 's going to earn seven fifty.; </t>
+          <t xml:space="preserve"> Er so er let's say that the ten percent rate applies, er ø mind you ø ten percent is a long way from where we are now, but it makes the figures easy to look at, so er let's say that he 's getting _ø_ ten percent gross on his return on a building society, he 'd actually get seven and a half percent net, er so on his ten thousand he 's going to earn seven fifty.; </t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's not nice Do you like the Barbican?; </t>
+          <t xml:space="preserve"> It 's not nice Do you like _the_ Barbican?; </t>
         </is>
       </c>
     </row>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I can not see the flats becoming empty on a Friday, and the bulldozers moving in on the Sunday or the Monday.; </t>
+          <t xml:space="preserve"> I can not see _the_ flats becoming empty on a Friday, and the bulldozers moving in on the Sunday or the Monday.; </t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm, only the other day in the Transportation ø Department we were talking about ø drivers hours and er, it 's ø obvious implication there on ø road safety where the government are trying to relax the provisions, for what 's the European committee are trying to tighten them up.; </t>
+          <t xml:space="preserve"> Erm, only the other day in the Transportation ø Department we were talking about _ø_ drivers hours and er, it 's ø obvious implication there on ø road safety where the government are trying to relax the provisions, for what 's the European committee are trying to tighten them up.; </t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No the thing is I mean like Z Z Z Zed 's, Zed 's, Zed 's not just a boyfriend to me because he 's a real good friend of mine as well.; </t>
+          <t xml:space="preserve"> No _the_ thing is I mean like Z Z Z Zed 's, Zed 's, Zed 's not just a boyfriend to me because he 's a real good friend of mine as well.; </t>
         </is>
       </c>
     </row>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes I have to carry them all over the place.; </t>
+          <t xml:space="preserve"> Yes I have to carry them all over _the_ place.; </t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now erm in the main the most the people who go and talk, if they talk genuinely to their their ø other half or I always say ø partner instead of, nowadays that 's politically correct I think, erm then they so they 're they 're a lot of the times they 're talked out of it.; </t>
+          <t xml:space="preserve"> Now erm in the main the most _the_ people who go and talk, if they talk genuinely to their their ø other half or I always say ø partner instead of, nowadays that 's politically correct I think, erm then they so they 're they 're a lot of the times they 're talked out of it.; </t>
         </is>
       </c>
     </row>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now, in ø effect, that 's moving directly against the direction that we want to go in, we want to make ø greater use of ø domiciliary er, ø initiatives for ø young people, you have another paper on your agenda about ø teen care, which is showing what can be achieved with the most difficult youngsters.; </t>
+          <t xml:space="preserve"> Now, in ø effect, that 's moving directly against the direction that we want to go in, we want to make ø greater use of ø domiciliary er, ø initiatives for ø young people, you have another paper on your agenda about _ø_ teen care, which is showing what can be achieved with the most difficult youngsters.; </t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But who actually appoints ø people to the Regional Health Authority?; </t>
+          <t xml:space="preserve"> But who actually appoints _ø_ people to the Regional Health Authority?; </t>
         </is>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He 'd away just at the start of the war.; </t>
+          <t xml:space="preserve"> He 'd away just at _the_ start of the war.; </t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er find a dog!; </t>
+          <t xml:space="preserve"> Er find _a_ dog!; </t>
         </is>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er ther there we did, we had a tutor sister who used to give us all our lectures.; </t>
+          <t xml:space="preserve"> Er ther there we did, we had _a_ tutor sister who used to give us all our lectures.; </t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I can go and get a run of ø business cards done at some point.; </t>
+          <t xml:space="preserve"> I can go and get _a_ run of ø business cards done at some point.; </t>
         </is>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> that 's what I said to Ron, I mean I 've never known I ca n't remember the last time I when I used to work for Colin for ø ten years trying to get a holiday out of Colin was like trying to get ø blood!; </t>
+          <t xml:space="preserve"> that 's what I said to Ron, I mean I 've never known I ca n't remember the last time I when I used to work for Colin for ø ten years trying to get _a_ holiday out of Colin was like trying to get ø blood!; </t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If we move to ø oil well our oil business obviously operates in a cycle different to our publishing businesses and er, at the end of the first half it had ø record sales and ø profits ø fifteen percent ahead in ø dollar terms ø ten percent ahead in, in ø sterling terms which may surprise you slightly, but I think James probably will talk about that later.; </t>
+          <t xml:space="preserve"> If we move to ø oil well our oil business obviously operates in a cycle different to our publishing businesses and er, at the end of the first half it had ø record sales and ø profits ø fifteen percent ahead in ø dollar terms _ø_ ten percent ahead in, in ø sterling terms which may surprise you slightly, but I think James probably will talk about that later.; </t>
         </is>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm and I told you how the extroverts would behave.; </t>
+          <t xml:space="preserve"> Erm and I told you how _the_ extroverts would behave.; </t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But I still enjoyed it the second time.; </t>
+          <t xml:space="preserve"> But I still enjoyed it _the_ second time.; </t>
         </is>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I 'm calling of the C E C. Whilst is coming to the rostrum, just make the point colleagues that it 's nearly ø ten years since G C H Q and a massive demonstration is planned when that particular date occurs and we 're gon na be very much involved in it.; </t>
+          <t xml:space="preserve"> I 'm calling of the C E C. Whilst is coming to the rostrum, just make the point colleagues that it 's nearly ø ten years since G C H Q and _a_ massive demonstration is planned when that particular date occurs and we 're gon na be very much involved in it.; </t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They 'll give you a fire if it 's cold the other day when Tony was here with his mum they had a fan heater Oh.; </t>
+          <t xml:space="preserve"> They 'll give you _a_ fire if it 's cold the other day when Tony was here with his mum they had a fan heater Oh.; </t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Go on, oh ø sugar I heard that Come on you ø reds Come on ø Good catch Yeah Here they go ha ran ø foot style come on ee bloody good on the post, go on Mickey, go on they 're not special he 's a bit or rough Oh no I do n't know, ø rubbish You warm enough Neil?; </t>
+          <t xml:space="preserve"> Go on, oh ø sugar I heard that Come on you ø reds Come on ø Good catch Yeah Here they go ha ran ø foot style come on ee bloody good on the post, go on Mickey, go on they 're not special he 's _a_ bit or rough Oh no I do n't know, ø rubbish You warm enough Neil?; </t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> du n no how you can read that without ø glasses, I ca n't I thought it was I thought it was er he was in Mary Poppins and The Falklands again I think you said it was on ø channel four that will be, in the morning if you look at, look at ø channel ø four programme and get your glasses cos if you miss it Monday ø night you said you could have it two o'clock P M would that be in the morning?; </t>
+          <t xml:space="preserve"> du n no how you can read that without ø glasses, I ca n't I thought it was I thought it was er he was in Mary Poppins and The Falklands again I think you said it was on ø channel four that will be, in the morning if you look at, look at _ø_ channel ø four programme and get your glasses cos if you miss it Monday ø night you said you could have it two o'clock P M would that be in the morning?; </t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Remember we used to have a prisoner group did n't we, when I first came so that the What ø groups, yeah ø groups for ø particular things on, on the, you know like ø campaigns or ø prisoners there were ø special groups dealing only with this those, they met on there own, not there were n't any Schools groups.; </t>
+          <t xml:space="preserve"> Remember we used to have a prisoner group did n't we, when I first came so that _the_ What ø groups, yeah ø groups for ø particular things on, on the, you know like ø campaigns or ø prisoners there were ø special groups dealing only with this those, they met on there own, not there were n't any Schools groups.; </t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So who she leave the baby with?; </t>
+          <t xml:space="preserve"> So who she leave _the_ baby with?; </t>
         </is>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stop touching me in the knee Derek!; </t>
+          <t xml:space="preserve"> Stop touching me in _the_ knee Derek!; </t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And you can have a picnic upstairs.; </t>
+          <t xml:space="preserve"> And you can have _a_ picnic upstairs.; </t>
         </is>
       </c>
     </row>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Can we just end with a a short story about the job that I used to do before I did this one.; </t>
+          <t xml:space="preserve"> Can we just end with _a_ a short story about the job that I used to do before I did this one.; </t>
         </is>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Today Mr Davis is happy with the results and runs a cafe at Worcester.; </t>
+          <t xml:space="preserve"> Today Mr Davis is happy with _the_ results and runs a cafe at Worcester.; </t>
         </is>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm there 's a new element here, you 've never heard of it before let's say ø Carbon fif Well we do get a copy of the periodic table in the exams.; </t>
+          <t xml:space="preserve"> Erm there 's a new element here, you 've never heard of it before let's say ø Carbon fif Well we do get a copy of _the_ periodic table in the exams.; </t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But, I believe that the root cause of ano, is is a is a deep-seated unhappiness in the individual.; </t>
+          <t xml:space="preserve"> But, I believe that the root cause of ano, is is _a_ is a deep-seated unhappiness in the individual.; </t>
         </is>
       </c>
     </row>
@@ -5156,7 +5156,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You either know this or you do n't and when when you hear what the answer is you 're think, oh yes.; </t>
+          <t xml:space="preserve"> You either know this or you do n't and when when you hear what _the_ answer is you 're think, oh yes.; </t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Do you have many memories of well, the men in the house, coming home from the pit, and talking about the conditions?; </t>
+          <t xml:space="preserve"> Do you have many memories of well, the men in the house, coming home from the pit, and talking about _the_ conditions?; </t>
         </is>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Where 's th where 's the potting tabs tramp?; </t>
+          <t xml:space="preserve"> Where 's th where 's _the_ potting tabs tramp?; </t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm, the analogy is the filing cabinets.; </t>
+          <t xml:space="preserve"> Erm, _the_ analogy is the filing cabinets.; </t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er so you 're not Are you bothered ø one way or the other, or not?; </t>
+          <t xml:space="preserve"> Er so you 're not Are you bothered ø one way or _the_ other, or not?; </t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And er they used to catch er ø pheasants and er what else, the pheasants and ø Poultry.; </t>
+          <t xml:space="preserve"> And er they used to catch er ø pheasants and er what else, _the_ pheasants and ø Poultry.; </t>
         </is>
       </c>
     </row>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They do n't listen, and I get the blame.; </t>
+          <t xml:space="preserve"> They do n't listen, and I get _the_ blame.; </t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Come on, you walk on the seat!; </t>
+          <t xml:space="preserve"> Come on, you walk on _the_ seat!; </t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And he tells him the story and he goes and the man threw me out of the taxi.; </t>
+          <t xml:space="preserve"> And he tells him _the_ story and he goes and the man threw me out of the taxi.; </t>
         </is>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The girls flowed back Potty from ø Mademoiselle as if they were ø water.; </t>
+          <t xml:space="preserve"> _The_ girls flowed back Potty from ø Mademoiselle as if they were ø water.; </t>
         </is>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t xml:space="preserve"> She washed the floor thorough and was pleased that she 'd done so.; </t>
+          <t xml:space="preserve"> She washed _the_ floor thorough and was pleased that she 'd done so.; </t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t xml:space="preserve"> to the post office.; </t>
+          <t xml:space="preserve"> to _the_ post office.; </t>
         </is>
       </c>
     </row>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's not a cost effect on us.; </t>
+          <t xml:space="preserve"> It 's not _a_ cost effect on us.; </t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You could say a fourth it does n't matter it 's the same thing.; </t>
+          <t xml:space="preserve"> You could say a fourth it does n't matter it 's _the_ same thing.; </t>
         </is>
       </c>
     </row>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We hope very much it will be useful, but as I tried to stress at the beginning, we very much see the problems of ø developing countries, which we in the Institute are working on, as ø part of the problems of what 's going wrong in the world at the moment, in which we in Britain very much have a stake too.; </t>
+          <t xml:space="preserve"> We hope very much it will be useful, but as I tried to stress at the beginning, we very much see the problems of ø developing countries, which we in the Institute are working on, as ø part of the problems of what 's going wrong in the world at _the_ moment, in which we in Britain very much have a stake too.; </t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And all medical staff at each site knew what ø data was being collected before the audit started.; </t>
+          <t xml:space="preserve"> And all medical staff at each site knew what ø data was being collected before _the_ audit started.; </t>
         </is>
       </c>
     </row>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh a lubricant.; </t>
+          <t xml:space="preserve"> Oh _a_ lubricant.; </t>
         </is>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It was the culmination.; </t>
+          <t xml:space="preserve"> It was _the_ culmination.; </t>
         </is>
       </c>
     </row>
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I I I think certainly erm you 're you 're just at the age, er did we discuss this magic forty plus No we did n't.; </t>
+          <t xml:space="preserve"> I I I think certainly erm you 're you 're just at _the_ age, er did we discuss this magic forty plus No we did n't.; </t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There 's nothing longer than a six.; </t>
+          <t xml:space="preserve"> There 's nothing longer than _a_ six.; </t>
         </is>
       </c>
     </row>
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That there would be ø areas within those sectors which would be suitable for a new a new settlement.; </t>
+          <t xml:space="preserve"> That there would be ø areas within those sectors which would be suitable for _a_ new a new settlement.; </t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and that 'd give you the number of ø men.; </t>
+          <t xml:space="preserve"> and that 'd give you _the_ number of ø men.; </t>
         </is>
       </c>
     </row>
@@ -6146,7 +6146,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t xml:space="preserve"> To take a quick look now at the current conditions and in ø fact you 'll see the extension of ø gas prices, ø rig counts etcetera into this year on the charts that you 'll be given with a pack after this meeting.; </t>
+          <t xml:space="preserve"> To take a quick look now at the current conditions and in ø fact you 'll see the extension of ø gas prices, ø rig counts etcetera into this year on the charts that you 'll be given with _a_ pack after this meeting.; </t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's what I usually get, the four mind you, there 's a cheaper one still, there but you want one of one of them.; </t>
+          <t xml:space="preserve"> That 's what I usually get, _the_ four mind you, there 's a cheaper one still, there but you want one of one of them.; </t>
         </is>
       </c>
     </row>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's merely the the perils and ø pitfalls of ø investment.; </t>
+          <t xml:space="preserve"> It 's merely the _the_ perils and ø pitfalls of ø investment.; </t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Freight and ø Transport Association wants the E C to step in after ø French lorry drivers put up ø blockades in ø retaliation at ø protests by their ø Spanish counterparts over ø fuel prices.; </t>
+          <t xml:space="preserve"> The Freight and ø Transport Association wants the E C to step in after ø French lorry drivers put up _ø_ blockades in ø retaliation at ø protests by their ø Spanish counterparts over ø fuel prices.; </t>
         </is>
       </c>
     </row>
@@ -6326,7 +6326,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Or whether you 've had to wait for an hour in the rain for the bus to come along, whether you 're in a good mood or a bad mood.; </t>
+          <t xml:space="preserve"> Or whether you 've had to wait for _an_ hour in the rain for the bus to come along, whether you 're in a good mood or a bad mood.; </t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t xml:space="preserve"> with the bin.; </t>
+          <t xml:space="preserve"> with _the_ bin.; </t>
         </is>
       </c>
     </row>
@@ -6416,7 +6416,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There you can see the staging, and that is where the er ø wagons came in along here.; </t>
+          <t xml:space="preserve"> There you can see _the_ staging, and that is where the er ø wagons came in along here.; </t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I do n't know whether the psychiatrists would have agreed with him.; </t>
+          <t xml:space="preserve"> I do n't know whether _the_ psychiatrists would have agreed with him.; </t>
         </is>
       </c>
     </row>
@@ -6506,7 +6506,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But I mean, going back to the fact it 's my one and ø only watch, I should think Susannah has had eight or ø ten watches.; </t>
+          <t xml:space="preserve"> But I mean, going back to the fact it 's my one and _ø_ only watch, I should think Susannah has had eight or ø ten watches.; </t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t xml:space="preserve">, I wonder if they 'll be able to say doubtful no a bit monkey pardon?; </t>
+          <t xml:space="preserve">, I wonder if they 'll be able to say doubtful no _a_ bit monkey pardon?; </t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No, not ø pins, erm veers and veers are n't a problem.; </t>
+          <t xml:space="preserve"> No, not _ø_ pins, erm veers and veers are n't a problem.; </t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A Was he a Stronsay ø man?; </t>
+          <t xml:space="preserve"> A Was he a Stronsay _ø_ man?; </t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So, Freud says, trying to build ø morality on the basis of ø religion, is like trying to build a house on ø sand, because the foundations wo n't hold.; </t>
+          <t xml:space="preserve"> So, Freud says, trying to build _ø_ morality on the basis of ø religion, is like trying to build a house on ø sand, because the foundations wo n't hold.; </t>
         </is>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t xml:space="preserve"> To press for the provision of ø suitable houses for ø old people at ø rents they can afford.; </t>
+          <t xml:space="preserve"> To press for _the_ provision of ø suitable houses for ø old people at ø rents they can afford.; </t>
         </is>
       </c>
     </row>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, well I 'd been out to the bin and er, he was just ø sort of erm by the ground by the bin bags the wood round the corner and er then he was ø sort of coming and he was like dying to come and have a stroke but Yeah.; </t>
+          <t xml:space="preserve"> Yeah, well I 'd been out to the bin and er, he was just ø sort of erm by the ground by the bin bags the wood round the corner and er then he was _ø_ sort of coming and he was like dying to come and have a stroke but Yeah.; </t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I think the most immediate one in that 's it 's on the control of the party, are those er ø wards that have a focus leaflet.; </t>
+          <t xml:space="preserve"> I think the most immediate one in that 's it 's on _the_ control of the party, are those er ø wards that have a focus leaflet.; </t>
         </is>
       </c>
     </row>
@@ -6866,7 +6866,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So there is a recognition there that by the very nature of these erm ø proposals that they 're not going to be in ø accordance with one or perhaps more policies in the structure plan.; </t>
+          <t xml:space="preserve"> So there is _a_ recognition there that by the very nature of these erm ø proposals that they 're not going to be in ø accordance with one or perhaps more policies in the structure plan.; </t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There 's a woman in there she said oh give it to him.; </t>
+          <t xml:space="preserve"> There 's _a_ woman in there she said oh give it to him.; </t>
         </is>
       </c>
     </row>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes, we did have a strong profits recovery in the second half, greatly helped by ø oil services and U S ø educational publishing.; </t>
+          <t xml:space="preserve"> Yes, we did have a strong profits recovery in the second half, greatly helped by ø oil services and U S _ø_ educational publishing.; </t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I worked for a month then I went to the dyers and ø cleaners and I came home to Ipswich in the, on the Easter time and I started ø work as a turnboy on the dredger at Ipswich at thirty ø five shillings a week for fi sixty six and a half hours a week, starting from Monday ø morning at six o'clock to six o'clock Monday ø night.; </t>
+          <t xml:space="preserve"> I worked for a month then I went to the dyers and ø cleaners and I came home to Ipswich in the, on the Easter time and I started ø work as a turnboy on the dredger at Ipswich at thirty ø five shillings _a_ week for fi sixty six and a half hours a week, starting from Monday ø morning at six o'clock to six o'clock Monday ø night.; </t>
         </is>
       </c>
     </row>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I think because I was so inexperienced in the sixties, er I do n't think I could have coped with doing ø two things.; </t>
+          <t xml:space="preserve"> I think because I was so inexperienced in _the_ sixties, er I do n't think I could have coped with doing ø two things.; </t>
         </is>
       </c>
     </row>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm I 've also erm put down the side of ø year one the actual percent of the cost for each of them.; </t>
+          <t xml:space="preserve"> Erm I 've also erm put down the side of ø year one _the_ actual percent of the cost for each of them.; </t>
         </is>
       </c>
     </row>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And what it actually means if you see them like that it actually means that there are ø two beats in a bar and they 're ø dotted beats Oh right.; </t>
+          <t xml:space="preserve"> And what it actually means if you see them like that it actually means that there are ø two beats in a bar and they 're _ø_ dotted beats Oh right.; </t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All on the grass see?; </t>
+          <t xml:space="preserve"> All on _the_ grass see?; </t>
         </is>
       </c>
     </row>
@@ -7226,7 +7226,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But it, certainly as you read through the New Testament, the acts of the apostles, it certainly is the norm for those who received the Holy Spirit, that they spoke in ø other tongues.; </t>
+          <t xml:space="preserve"> But it, certainly as you read through the New Testament, the acts of the apostles, it certainly is the norm for those who received _the_ Holy Spirit, that they spoke in ø other tongues.; </t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the actual flats gon na be coming down.; </t>
+          <t xml:space="preserve"> _the_ actual flats gon na be coming down.; </t>
         </is>
       </c>
     </row>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And that 's the sort of ø decision we make er here.; </t>
+          <t xml:space="preserve"> And that 's the sort of _ø_ decision we make er here.; </t>
         </is>
       </c>
     </row>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Seek the Lord while he may be found, ø call upon him while he is near, let the wicked forsake his way and the unrighteous man is ø thoughts and let them return to the Lord, for what 's gon na happen, for he will of ø compassion on him and to our God for he will abundantly pardon those words were very quoted from ø Acts, ø chapter sixteen, when that Philippine jailer said ø Lord what must I do, ø sir what must I do to be saved and there Paul ø timac believe on the Lord Jesus Christ and thou shalt be saved this is God's way by ø repentance in ø faith that 's presented in Jesus, he is the only saviour, not your works, not my works, not our ø good deeds, not our ø religious observances, he is the only saviour, did he not say himself I am the way the truth and the life, nobody comes to the father but by me.; </t>
+          <t xml:space="preserve"> Seek the Lord while he may be found, ø call upon him while he is near, let the wicked forsake his way and the unrighteous man is ø thoughts and let them return to the Lord, for what 's gon na happen, for he will of ø compassion on him and to our God for he will abundantly pardon those words were very quoted from ø Acts, ø chapter sixteen, when that Philippine jailer said ø Lord what must I do, ø sir what must I do to be saved and there Paul ø timac believe on the Lord Jesus Christ and thou shalt be saved this is God's way by ø repentance in ø faith that 's presented in Jesus, he is the only saviour, not your works, not my works, not our ø good deeds, not our ø religious observances, he is the only saviour, did he not say himself I am _the_ way the truth and the life, nobody comes to the father but by me.; </t>
         </is>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Is it that she, she 's, she 's, she 's wondering what will happen to her family or ø children if they go abroad, or is she thinking that each country in the Community, perhaps having some special erm ø excellence of its own, ought to be shedding this example among the others so that we all raise ourselves to a common, ø higher level?; </t>
+          <t xml:space="preserve"> Is it that she, she 's, she 's, she 's wondering what will happen to her family or ø children if they go abroad, or is she thinking that each country in the Community, perhaps having some special erm _ø_ excellence of its own, ought to be shedding this example among the others so that we all raise ourselves to a common, ø higher level?; </t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's, I mean that 's what they said to this What about the car?; </t>
+          <t xml:space="preserve"> That 's, I mean that 's what they said to this What about _the_ car?; </t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But it 's certainly a nice place to live.; </t>
+          <t xml:space="preserve"> But it 's certainly _a_ nice place to live.; </t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That light rain will soon clear away tomorrow ø morning and it 'll brighten up for a time.; </t>
+          <t xml:space="preserve"> That light rain will soon clear away tomorrow _ø_ morning and it 'll brighten up for a time.; </t>
         </is>
       </c>
     </row>
@@ -7586,7 +7586,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's like a clearinghouse for all, all applications to all universities in, in the United Kingdom.; </t>
+          <t xml:space="preserve"> It 's like _a_ clearinghouse for all, all applications to all universities in, in the United Kingdom.; </t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Y, so ø change in Y over ø change in X so Mm.; </t>
+          <t xml:space="preserve"> _The_ Y, so ø change in Y over ø change in X so Mm.; </t>
         </is>
       </c>
     </row>
@@ -7676,7 +7676,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And we, our ø little machine here has calculated it that that 's ø forty miles an hour.; </t>
+          <t xml:space="preserve"> And we, our ø little machine here has calculated it that that 's ø forty miles _an_ hour.; </t>
         </is>
       </c>
     </row>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In ø fact they go a little bit past the start.; </t>
+          <t xml:space="preserve"> In ø fact they go _a_ little bit past the start.; </t>
         </is>
       </c>
     </row>
@@ -7766,7 +7766,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t xml:space="preserve"> exactly the same thing.; </t>
+          <t xml:space="preserve"> exactly _the_ same thing.; </t>
         </is>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You know she works for a choir school?; </t>
+          <t xml:space="preserve"> You know she works for _a_ choir school?; </t>
         </is>
       </c>
     </row>
@@ -7856,7 +7856,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When I fill a book in about ø recordings and that how do you put have you got a regional accent?; </t>
+          <t xml:space="preserve"> When I fill a book in about ø recordings and that how do you put have you got _a_ regional accent?; </t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Andrew double U. Andrew-wa He 's been a bit er ø green has n't he, I think.; </t>
+          <t xml:space="preserve"> Andrew double U. Andrew-wa He 's been a bit er _ø_ green has n't he, I think.; </t>
         </is>
       </c>
     </row>
@@ -7946,7 +7946,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S Yeah I wo I would basically put ø money on it being a problem with the the addressing.; </t>
+          <t xml:space="preserve"> S Yeah I wo I would basically put ø money on it being a problem with _the_ the addressing.; </t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm but I think it 'll be a nice party and the music will be brilliant.; </t>
+          <t xml:space="preserve"> Erm but I think it 'll be a nice party and _the_ music will be brilliant.; </t>
         </is>
       </c>
     </row>
@@ -8036,7 +8036,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have a look at the, I think that 's what we 've done ø last time.; </t>
+          <t xml:space="preserve"> Have _a_ look at the, I think that 's what we 've done ø last time.; </t>
         </is>
       </c>
     </row>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I 've just got ta rub something out in the book.; </t>
+          <t xml:space="preserve"> I 've just got ta rub something out in _the_ book.; </t>
         </is>
       </c>
     </row>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Could go out, well the next then there 's a queue a mile long.; </t>
+          <t xml:space="preserve"> Could go out, well the next then there 's a queue _a_ mile long.; </t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's just Well yes, well they 're ø actors, cos it 's a real film in n it?; </t>
+          <t xml:space="preserve"> It 's just Well yes, well they 're _ø_ actors, cos it 's a real film in n it?; </t>
         </is>
       </c>
     </row>
@@ -8216,7 +8216,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Flower I do n't know what a calyx is, I just thought ø petal fitted in, I mean I do n't know.; </t>
+          <t xml:space="preserve"> ø Flower I do n't know what a calyx is, I just thought _ø_ petal fitted in, I mean I do n't know.; </t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah but the top two went through you see.; </t>
+          <t xml:space="preserve"> Yeah but _the_ top two went through you see.; </t>
         </is>
       </c>
     </row>
@@ -8306,7 +8306,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We had the others.; </t>
+          <t xml:space="preserve"> We had _the_ others.; </t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A lot, plenty of ø firms out there 'll do it you know.; </t>
+          <t xml:space="preserve"> A lot, plenty of _ø_ firms out there 'll do it you know.; </t>
         </is>
       </c>
     </row>
@@ -8396,7 +8396,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Soccer it 's claimed is still a long way off finding a cure for ø violence.; </t>
+          <t xml:space="preserve"> ø Soccer it 's claimed is still _a_ long way off finding a cure for ø violence.; </t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well the thing is if you have got a tummy virus like that you 're ø best bet is not eat anything No!; </t>
+          <t xml:space="preserve"> Well the thing is if you have got _a_ tummy virus like that you 're ø best bet is not eat anything No!; </t>
         </is>
       </c>
     </row>
@@ -8486,7 +8486,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How long does it take to the nearest hour for ø snails to bonk?; </t>
+          <t xml:space="preserve"> How long does it take to _the_ nearest hour for ø snails to bonk?; </t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t xml:space="preserve"> mm Well, that 's the week of John ø drama project the twenty fourth of March which done with That 's ø North Notts then?; </t>
+          <t xml:space="preserve"> mm Well, that 's the week of John _ø_ drama project the twenty fourth of March which done with That 's ø North Notts then?; </t>
         </is>
       </c>
     </row>
@@ -8576,7 +8576,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, but he 's the right kind of ø height.; </t>
+          <t xml:space="preserve"> Yeah, but he 's _the_ right kind of ø height.; </t>
         </is>
       </c>
     </row>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm our marketing has been targeted on a geographical basis er on three ø main areas.; </t>
+          <t xml:space="preserve"> Erm our marketing has been targeted on a geographical basis er on three _ø_ main areas.; </t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t xml:space="preserve"> to do a ginger, I I 've eaten ø ginger of that kind Oh you eat it.; </t>
+          <t xml:space="preserve"> to do a ginger, I I 've eaten _ø_ ginger of that kind Oh you eat it.; </t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well you can get a new one just two hundred odd ca n't you?; </t>
+          <t xml:space="preserve"> Well you can get _a_ new one just two hundred odd ca n't you?; </t>
         </is>
       </c>
     </row>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But when you 've been, Italian, German, French, and now you have the African league, you know, and you think there must be more too it than this!; </t>
+          <t xml:space="preserve"> But when you 've been, Italian, German, French, and now you have _the_ African league, you know, and you think there must be more too it than this!; </t>
         </is>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So often, we have ø faith in a miracle, in the supernatural, rather than having ø faith in the Christ of the supernatural.; </t>
+          <t xml:space="preserve"> So often, we have ø faith in a miracle, in the supernatural, rather than having ø faith in _the_ Christ of the supernatural.; </t>
         </is>
       </c>
     </row>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I mean, I 'm definitely a feminist, but I 'm not a man hater, but I mean I think everyone 's looking for the new term and Mm.; </t>
+          <t xml:space="preserve"> I mean, I 'm definitely a feminist, but I 'm not a man hater, but I mean I think everyone 's looking for _the_ new term and Mm.; </t>
         </is>
       </c>
     </row>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Helping bring their ø compulsory competitive tendering and ø privatization plans to a halt up and down the country.; </t>
+          <t xml:space="preserve"> _ø_ Helping bring their ø compulsory competitive tendering and ø privatization plans to a halt up and down the country.; </t>
         </is>
       </c>
     </row>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A midget?; </t>
+          <t xml:space="preserve"> _A_ midget?; </t>
         </is>
       </c>
     </row>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Some businessmen say they 're losing ø trade as a result because ø people are getting bored with ø Christmas weeks before it arrives.; </t>
+          <t xml:space="preserve"> Some businessmen say they 're losing ø trade as _a_ result because ø people are getting bored with ø Christmas weeks before it arrives.; </t>
         </is>
       </c>
     </row>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It blurred so much and in the blurring we have discovered our own vulnerabilities.; </t>
+          <t xml:space="preserve"> It blurred so much and in _the_ blurring we have discovered our own vulnerabilities.; </t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Made the meal yes.; </t>
+          <t xml:space="preserve"> Made _the_ meal yes.; </t>
         </is>
       </c>
     </row>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t xml:space="preserve"> occupy the rest of your class Yeah.; </t>
+          <t xml:space="preserve"> occupy _the_ rest of your class Yeah.; </t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We were extraordinarily disappointed at first about the delay but a cancellation would be just about too much to bear.; </t>
+          <t xml:space="preserve"> We were extraordinarily disappointed at first about the delay but _a_ cancellation would be just about too much to bear.; </t>
         </is>
       </c>
     </row>
@@ -9206,7 +9206,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The German one is not round Monte Casino I thought it was.; </t>
+          <t xml:space="preserve"> _The_ German one is not round Monte Casino I thought it was.; </t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's just the way I feel Yeah I know it 's sad is n't it?; </t>
+          <t xml:space="preserve"> That 's just _the_ way I feel Yeah I know it 's sad is n't it?; </t>
         </is>
       </c>
     </row>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er, no he 's got no previous convictions for ø armed robbery.; </t>
+          <t xml:space="preserve"> Er, no he 's got no previous convictions for _ø_ armed robbery.; </t>
         </is>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A very brief one I 'm pleased to say.; </t>
+          <t xml:space="preserve"> _A_ very brief one I 'm pleased to say.; </t>
         </is>
       </c>
     </row>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He was like a zombie.; </t>
+          <t xml:space="preserve"> He was like _a_ zombie.; </t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well Let's let's slow it down a bit.; </t>
+          <t xml:space="preserve"> Well Let's let's slow it down _a_ bit.; </t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's the other side of ø fox hunting, which I think we do n't hear.; </t>
+          <t xml:space="preserve"> That 's _the_ other side of ø fox hunting, which I think we do n't hear.; </t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Unflushed toilets are already setting off ø censor-operated devices in the Environment Ministry building and some of Singapore's ø open air sewage centres.; </t>
+          <t xml:space="preserve"> ø Unflushed toilets are already setting off ø censor-operated devices in _the_ Environment Ministry building and some of Singapore's ø open air sewage centres.; </t>
         </is>
       </c>
     </row>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The problems is that you do n't know what documents you need for your enquiry.; </t>
+          <t xml:space="preserve"> _The_ problems is that you do n't know what documents you need for your enquiry.; </t>
         </is>
       </c>
     </row>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm And if a if although I mean there may be a er an argument in ø terms of ø lowest costing for reviewing generally how many investigators we do need, and Yes?; </t>
+          <t xml:space="preserve"> Erm And if a if although I mean there may be a er an argument in ø terms of _ø_ lowest costing for reviewing generally how many investigators we do need, and Yes?; </t>
         </is>
       </c>
     </row>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Do n't let's just say ø drugs are bad, because for every one that has a bad time, and some people have a terrible time, you say some people die, I accept that.; </t>
+          <t xml:space="preserve"> Do n't let's just say ø drugs are bad, because for every one that has a bad time, and some people have _a_ terrible time, you say some people die, I accept that.; </t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er on ø appointment, like ø other recruits, I had to serve the first month on ø night duty.; </t>
+          <t xml:space="preserve"> Er on ø appointment, like _ø_ other recruits, I had to serve the first month on ø night duty.; </t>
         </is>
       </c>
     </row>
@@ -9746,7 +9746,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t xml:space="preserve"> yeah, but I doubt The Sun come all got it no, right there 're probably thinking, maybe the Evening Standard I doubt, I doubt them two something like ø Evening Standard or perhaps it would be a good The Times or The Guardian yeah something interesting like that but not, not ø posh ones I 'd like to see a media oh I 'd like to read the studies journalist where or they go and ø critic on ø films I 'd like to d' ya know when they go and er ø watch films something like Barry Norman, that 'd be ø wicked job no I do n't like that sort of ø job what do you wan na do go to ø places like you know the alternative, do you wan na be er ø inside journalist or an outside one?; </t>
+          <t xml:space="preserve"> yeah, but I doubt The Sun come all got it no, right there 're probably thinking, maybe the Evening Standard I doubt, I doubt them two something like ø Evening Standard or perhaps it would be a good The Times or The Guardian yeah something interesting like that but not, not ø posh ones I 'd like to see a media oh I 'd like to read the studies journalist where or they go and _ø_ critic on ø films I 'd like to d' ya know when they go and er ø watch films something like Barry Norman, that 'd be ø wicked job no I do n't like that sort of ø job what do you wan na do go to ø places like you know the alternative, do you wan na be er ø inside journalist or an outside one?; </t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah that is a debt against the policy but it would be so hard to administer Yeah, oh we wo n't keep that up will we?; </t>
+          <t xml:space="preserve"> Yeah that is a debt against _the_ policy but it would be so hard to administer Yeah, oh we wo n't keep that up will we?; </t>
         </is>
       </c>
     </row>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Focusing in on ø social services, the points that I wanted to make to start er, to you were first of all the complexity of the community care situation, and you have a separate paper on that which Mr will be going through you, going through with you in ø detail.; </t>
+          <t xml:space="preserve"> Focusing in on ø social services, the points that I wanted to make to start er, to you were first of all the complexity of _the_ community care situation, and you have a separate paper on that which Mr will be going through you, going through with you in ø detail.; </t>
         </is>
       </c>
     </row>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How d how do we make sure that the number on the bottom is the same?; </t>
+          <t xml:space="preserve"> How d how do we make sure that the number on _the_ bottom is the same?; </t>
         </is>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And and can the clerk look into the details when this, I think.; </t>
+          <t xml:space="preserve"> And and can the clerk look into _the_ details when this, I think.; </t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well that 's what I 'm saying I 'll put him in the bed, but he wo n't sleep in the bed, he can sleep with me.; </t>
+          <t xml:space="preserve"> Well that 's what I 'm saying I 'll put him in _the_ bed, but he wo n't sleep in the bed, he can sleep with me.; </t>
         </is>
       </c>
     </row>
@@ -10016,7 +10016,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This is not an enterprise that can be completed in a few months.; </t>
+          <t xml:space="preserve"> This is not _an_ enterprise that can be completed in a few months.; </t>
         </is>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the person who 's offering you the game, and he knows the odds.; </t>
+          <t xml:space="preserve"> the person who 's offering you the game, and he knows _the_ odds.; </t>
         </is>
       </c>
     </row>
@@ -10106,7 +10106,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Or it might say ø hand wash only and the customer puts it in a washing machine.; </t>
+          <t xml:space="preserve"> Or it might say ø hand wash only and the customer puts it in _a_ washing machine.; </t>
         </is>
       </c>
     </row>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When you spoke about the colour shades Yes erm, the coloured pleated shades that came from Yes can you remember the, the colours that they were in?; </t>
+          <t xml:space="preserve"> When you spoke about the colour shades Yes erm, _the_ coloured pleated shades that came from Yes can you remember the, the colours that they were in?; </t>
         </is>
       </c>
     </row>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t xml:space="preserve"> where the money goes.; </t>
+          <t xml:space="preserve"> where _the_ money goes.; </t>
         </is>
       </c>
     </row>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a marker, yeah.; </t>
+          <t xml:space="preserve"> _a_ marker, yeah.; </t>
         </is>
       </c>
     </row>
@@ -10286,7 +10286,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And I shut her in the coal Comes out as black as she do.; </t>
+          <t xml:space="preserve"> And I shut her in _the_ coal Comes out as black as she do.; </t>
         </is>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t xml:space="preserve"> you know perhaps she 's mellowed now, I mean the last time she went on with it, about it, was probably over a year ago, but she 's still going on about it definitely a year ago not just What to ø mum and ø dad or to you?; </t>
+          <t xml:space="preserve"> you know perhaps she 's mellowed now, I mean the last time she went on with it, about it, was probably over a year ago, but she 's still going on about it definitely a year ago not just What to ø mum and _ø_ dad or to you?; </t>
         </is>
       </c>
     </row>
@@ -10376,7 +10376,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well it 's the T ø words here, that 's what I used in there.; </t>
+          <t xml:space="preserve"> Well it 's the T _ø_ words here, that 's what I used in there.; </t>
         </is>
       </c>
     </row>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes one of the er ø sad things about Harlow ø youth theatre which many of you will remember er was ø sole run so successfully by Roger over a number of ø years.; </t>
+          <t xml:space="preserve"> Yes one of the er ø sad things about Harlow ø youth theatre which many of you will remember er was ø sole run so successfully by Roger over a number of _ø_ years.; </t>
         </is>
       </c>
     </row>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er, er, and nobody seemed to bother then, the the place had opened up, it had become westernised, it was prosperous, it was green, er wherever you went you were very welcome, ø people tried to speak ø English, ø people tried to communicate.; </t>
+          <t xml:space="preserve"> Er, er, and nobody seemed to bother then, _the_ the place had opened up, it had become westernised, it was prosperous, it was green, er wherever you went you were very welcome, ø people tried to speak ø English, ø people tried to communicate.; </t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How long would you leave your stooks in the field?; </t>
+          <t xml:space="preserve"> How long would you leave your stooks in _the_ field?; </t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A and just in ø case it er should become an issue can you now produce the originals of both collators cards?; </t>
+          <t xml:space="preserve"> A and just in ø case it er should become _an_ issue can you now produce the originals of both collators cards?; </t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well I, I, as I say, I did follow it up and in ø fact, I even went to a committee where I sat and spoke to the er the police face to ø face and they made all sorts of ø promises but nothing materialized.; </t>
+          <t xml:space="preserve"> Well I, I, as I say, I did follow it up and in ø fact, I even went to a committee where I sat and spoke to the er _the_ police face to ø face and they made all sorts of ø promises but nothing materialized.; </t>
         </is>
       </c>
     </row>
@@ -10646,7 +10646,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t xml:space="preserve"> One starts with a C, and the other with an A. Well you might be right.; </t>
+          <t xml:space="preserve"> One starts with a C, and _the_ other with an A. Well you might be right.; </t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A good move again by Shrewsbury.; </t>
+          <t xml:space="preserve"> _A_ good move again by Shrewsbury.; </t>
         </is>
       </c>
     </row>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You know I do n't like do n't After you Lloyd come here every day get it right.; </t>
+          <t xml:space="preserve"> You know I do n't like do n't After you Lloyd come here _every_ day get it right.; </t>
         </is>
       </c>
     </row>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t xml:space="preserve"> From what I can recall he just said he was concerned for the safety of the occupiers.; </t>
+          <t xml:space="preserve"> From what I can recall he just said he was concerned for the safety of _the_ occupiers.; </t>
         </is>
       </c>
     </row>
@@ -10826,7 +10826,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t xml:space="preserve"> are you sure it was n't Chris as a baby?; </t>
+          <t xml:space="preserve"> are you sure it was n't Chris as _a_ baby?; </t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh no oh no wait a minute, no Yeah, you realize do you it 's what it, what 's wrong.; </t>
+          <t xml:space="preserve"> Oh no oh no wait _a_ minute, no Yeah, you realize do you it 's what it, what 's wrong.; </t>
         </is>
       </c>
     </row>
@@ -10916,7 +10916,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Only it 's just lucky that he 's got a lot!; </t>
+          <t xml:space="preserve"> Only it 's just lucky that he 's got _a_ lot!; </t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Are you going to give it a try though?; </t>
+          <t xml:space="preserve"> Are you going to give it _a_ try though?; </t>
         </is>
       </c>
     </row>
@@ -11006,7 +11006,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It is an attempt to ask you to consider to maintain the sort of ø progress that we have been making erm in ø past years, but it 's a problem is not going to go away.; </t>
+          <t xml:space="preserve"> It is an attempt to ask you to consider to maintain _the_ sort of ø progress that we have been making erm in ø past years, but it 's a problem is not going to go away.; </t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Actually Terry, do you have a blank sheet with just the dates?; </t>
+          <t xml:space="preserve"> Actually Terry, do you have a blank sheet with just _the_ dates?; </t>
         </is>
       </c>
     </row>
@@ -11096,7 +11096,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I says Well I 've got a van and it 's too light at the back.; </t>
+          <t xml:space="preserve"> I says Well I 've got _a_ van and it 's too light at the back.; </t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh no, well I mean something that called out ev once a fortnight do n't you?; </t>
+          <t xml:space="preserve"> Oh no, well I mean something that called out ev once _a_ fortnight do n't you?; </t>
         </is>
       </c>
     </row>
@@ -11186,7 +11186,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm he is obviously aware that er by not having the vehicle taxed, it 's going to cost him considerably more than if he had er taxed the vehicle at the right, correct and ø proper time.; </t>
+          <t xml:space="preserve"> Erm he is obviously aware that er by not having the vehicle taxed, it 's going to cost him considerably more than if he had er taxed _the_ vehicle at the right, correct and ø proper time.; </t>
         </is>
       </c>
     </row>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The motorways through Oxfordshire and ø west Buckinghamshire are quite er busy this evening, the M25 Buckinghamshire ø section at ø clockwise junction 15 to 16 the M4/M40 interchange has very ø heavy slow traffic on it at the moment, it would be best to avoid that section if you can er to avoid fairly ø major delays this evening.; </t>
+          <t xml:space="preserve"> The motorways through Oxfordshire and ø west Buckinghamshire are quite er busy this evening, the M25 Buckinghamshire ø section at ø clockwise junction 15 to 16 the M4/M40 interchange has very ø heavy slow traffic on it at _the_ moment, it would be best to avoid that section if you can er to avoid fairly ø major delays this evening.; </t>
         </is>
       </c>
     </row>
@@ -11276,7 +11276,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's a quarter past six.; </t>
+          <t xml:space="preserve"> It 's _a_ quarter past six.; </t>
         </is>
       </c>
     </row>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's a little a little fresh Cajun music from New Orleans from the and I can say that er that 's why I 'm playing it really.; </t>
+          <t xml:space="preserve"> It 's a little _a_ little fresh Cajun music from New Orleans from the and I can say that er that 's why I 'm playing it really.; </t>
         </is>
       </c>
     </row>
@@ -11366,7 +11366,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t xml:space="preserve"> got off a Muggy?; </t>
+          <t xml:space="preserve"> got off _a_ Muggy?; </t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There 's no other way said Jesus.; </t>
+          <t xml:space="preserve"> There 's _no_ other way said Jesus.; </t>
         </is>
       </c>
     </row>
@@ -11456,7 +11456,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We 're targeted at making a modest Yeah.; </t>
+          <t xml:space="preserve"> We 're targeted at making _a_ modest Yeah.; </t>
         </is>
       </c>
     </row>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We are actually talking of ø events which happened over half a century ago.; </t>
+          <t xml:space="preserve"> We are actually talking of _ø_ events which happened over half a century ago.; </t>
         </is>
       </c>
     </row>
@@ -11546,7 +11546,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I thought this sort of ø thing would be something the Green Party nationally should decide that whether in ø principle we ought to ø affiliate with.; </t>
+          <t xml:space="preserve"> I thought this sort of _ø_ thing would be something the Green Party nationally should decide that whether in ø principle we ought to ø affiliate with.; </t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t xml:space="preserve"> in a wheelchair now.; </t>
+          <t xml:space="preserve"> in _a_ wheelchair now.; </t>
         </is>
       </c>
     </row>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the erm ø Lancy's is one of the places they were thinking of, upstairs.; </t>
+          <t xml:space="preserve"> _the_ erm ø Lancy's is one of the places they were thinking of, upstairs.; </t>
         </is>
       </c>
     </row>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well he 's a bit scared though and we assured him there 's no violence and Ha!; </t>
+          <t xml:space="preserve"> Well he 's _a_ bit scared though and we assured him there 's no violence and Ha!; </t>
         </is>
       </c>
     </row>
@@ -11726,7 +11726,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm who was a a mathematician, a very brilliant mathematician.; </t>
+          <t xml:space="preserve"> Erm who was _a_ a mathematician, a very brilliant mathematician.; </t>
         </is>
       </c>
     </row>
@@ -11771,7 +11771,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They 're the only times really and as with the I B M the I B M ø people 's the company I B M said if it 's more than a page is it really worth sending it out.; </t>
+          <t xml:space="preserve"> They 're the only times really and as with the I B M the I B M ø people 's the company I B M said if it 's more than _a_ page is it really worth sending it out.; </t>
         </is>
       </c>
     </row>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That was hot, yes and th in between there used to be that 's where your furnace used to go in and come back and up out the chimney and that they put them the in there to heat the water quick you see and yet they ought to be, they had to be sliced out with a what they call a slice, cos they used to get furred up and we used to give them nineteen and ø sixpence for that to fill the boiler up again, we had t used to have take Pinmill and they used to have to come up to get ø fresh water into the anchor boat and we used to pump it up by ø hand, into the boiler.; </t>
+          <t xml:space="preserve"> That was hot, yes and th in between there used to be that 's where your furnace used to go in and come back and up out the chimney and that they put them the in there to heat the water quick you see and yet they ought to be, they had to be sliced out with a what they call _a_ slice, cos they used to get furred up and we used to give them nineteen and ø sixpence for that to fill the boiler up again, we had t used to have take Pinmill and they used to have to come up to get ø fresh water into the anchor boat and we used to pump it up by ø hand, into the boiler.; </t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cos you 're filling up the weeder bin and I want well anyway, we we 've got to get sorted out ø compost for it.; </t>
+          <t xml:space="preserve"> Cos you 're filling up _the_ weeder bin and I want well anyway, we we 've got to get sorted out ø compost for it.; </t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I mean everyone was really charged up, there were a lot of— nobody got some sleep.; </t>
+          <t xml:space="preserve"> I mean everyone was really charged up, there were _a_ lot of— nobody got some sleep.; </t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Okay Suzanne, now you had to slacken off the halyard to let me tie that ø last knot so if you could tighten it up again that will pull the sail up to the top of the mast.; </t>
+          <t xml:space="preserve"> Okay Suzanne, now you had to slacken off the halyard to let me tie that _ø_ last knot so if you could tighten it up again that will pull the sail up to the top of the mast.; </t>
         </is>
       </c>
     </row>
@@ -11996,7 +11996,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It seems to me that the discussion right now is that we are all seeing all men hate all women!; </t>
+          <t xml:space="preserve"> It seems to me that _the_ discussion right now is that we are all seeing all men hate all women!; </t>
         </is>
       </c>
     </row>
@@ -12041,7 +12041,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And we used to ha, we used to come down here some some evenings a gang of us remember I used to look ever so small Yeah.; </t>
+          <t xml:space="preserve"> And we used to ha, we used to come down here some some evenings _a_ gang of us remember I used to look ever so small Yeah.; </t>
         </is>
       </c>
     </row>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But nonetheless, I think we as ø county councillors can be proud of the fact that we have set a spending target for ø committees, we are prepared to allow the officers to manage their departments inside the targets that have been set, and that does mean that they have to look at er, what they 're spending and create ø priorities, and and I as a councillor am not in the least bit impressed by ø arguments that ø paper clips have increased by five and a half percent this year, and that felt l er pe felt ø line erm, ø pens have gone up by seventeen and a half percent, I think that 's largely ø irrelevant consideration, we 're not in the business of ø projecting budget, we 're in the business of providing ø money to deliver ø high quality services to the people of Wiltshire.; </t>
+          <t xml:space="preserve"> But nonetheless, I think we as ø county councillors can be proud of the fact that we have set a spending target for ø committees, we are prepared to allow the officers to manage their departments inside the targets that have been set, and that does mean that they have to look at er, what they 're spending and create ø priorities, and and I as a councillor am not in the least bit impressed by ø arguments that ø paper clips have increased by five and a half percent this year, and that felt l er pe felt ø line erm, _ø_ pens have gone up by seventeen and a half percent, I think that 's largely ø irrelevant consideration, we 're not in the business of ø projecting budget, we 're in the business of providing ø money to deliver ø high quality services to the people of Wiltshire.; </t>
         </is>
       </c>
     </row>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well that 's what they use in the library so that 's a I 'll make sure the library ones are correct on mine, alright?; </t>
+          <t xml:space="preserve"> Well that 's what they use in the library so that 's a I 'll make sure _the_ library ones are correct on mine, alright?; </t>
         </is>
       </c>
     </row>
@@ -12176,7 +12176,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Lot number twenty ø one Lot twenty one the Japanese cloisonne there we are, we 've got one of them showing one of them showing for you, for a hundred pounds, one ø hundred pounds and ten, twenty, one hundred and ø twenty pounds at a hundred and ø twenty pounds, you all finished now, at one twen one thirty, forty one fifty, sixty one sixty against you, coming in?; </t>
+          <t xml:space="preserve"> ø Lot number twenty _ø_ one Lot twenty one the Japanese cloisonne there we are, we 've got one of them showing one of them showing for you, for a hundred pounds, one ø hundred pounds and ten, twenty, one hundred and ø twenty pounds at a hundred and ø twenty pounds, you all finished now, at one twen one thirty, forty one fifty, sixty one sixty against you, coming in?; </t>
         </is>
       </c>
     </row>
@@ -12206,7 +12206,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I am in ø fact a self-employed business advisor, ø management consultant Mm.; </t>
+          <t xml:space="preserve"> I am in ø fact _a_ self-employed business advisor, ø management consultant Mm.; </t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, he had to sing it like that and then, then there 's, there 's only two of them, you know and erm, the, er, other, the other one, he 's a black man yeah, and he goes who 's that big gorilla in the back and he 's pointing to me.; </t>
+          <t xml:space="preserve"> Yeah, he had to sing it like that and then, then there 's, there 's only two of them, you know and erm, _the_, er, other, the other one, he 's a black man yeah, and he goes who 's that big gorilla in the back and he 's pointing to me.; </t>
         </is>
       </c>
     </row>
@@ -12296,7 +12296,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You got a pound?; </t>
+          <t xml:space="preserve"> You got _a_ pound?; </t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are a snob.; </t>
+          <t xml:space="preserve"> You are _a_ snob.; </t>
         </is>
       </c>
     </row>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Speaking too fast, so you have to say, I 'm sorry can you repeat that, which makes you feel like an idiot because you did n't pick it up ø first time, that 's awful, yes I know, I know that one!; </t>
+          <t xml:space="preserve"> Speaking too fast, so you have to say, I 'm sorry can you repeat that, which makes you feel like _an_ idiot because you did n't pick it up ø first time, that 's awful, yes I know, I know that one!; </t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No back door.; </t>
+          <t xml:space="preserve"> _No_ back door.; </t>
         </is>
       </c>
     </row>
@@ -12476,7 +12476,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah Yeah There 's no there 's no snow here Mhm?; </t>
+          <t xml:space="preserve"> Yeah Yeah There 's no there 's _no_ snow here Mhm?; </t>
         </is>
       </c>
     </row>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø tough luck if you want to go out, right so I 've got this, ø butter, ø sugar, ø flour eggs, ø salt, ø lemon juice, I have n't got any I 'm not getting much revision done here ø mother no, well you can do some later, I thought I had a bottle of ø lemon juice in the fridge, not the fridge Robert loves Cadbury's cream eggs I noticed ø last night, yesterday he had one and he said can I have another cream egg, so I said alright, cos there was a box of six, which means he 's had two out the six, he said to me this morning, got any more cream eggs so I said not for you, you 've got one for Martin, so I said yes, I 'll have his then ø cheek he did, I 'll have his then, I said no you wo n't, but I like them, I know, but you ca n't have Martin's, as Martin will cry, I buy him another one he 's absolutely mad on ø cream eggs, you never liked them when you were at his age, you do n't really like them much now do ya?; </t>
+          <t xml:space="preserve"> ø tough luck if you want to go out, right so I 've got this, ø butter, ø sugar, ø flour eggs, ø salt, ø lemon juice, I have n't got any I 'm not getting much revision done here ø mother no, well you can do some later, I thought I had a bottle of ø lemon juice in the fridge, not the fridge Robert loves Cadbury's cream eggs I noticed ø last night, yesterday he had one and he said can I have another cream egg, so I said alright, cos there was a box of six, which means he 's had two out _the_ six, he said to me this morning, got any more cream eggs so I said not for you, you 've got one for Martin, so I said yes, I 'll have his then ø cheek he did, I 'll have his then, I said no you wo n't, but I like them, I know, but you ca n't have Martin's, as Martin will cry, I buy him another one he 's absolutely mad on ø cream eggs, you never liked them when you were at his age, you do n't really like them much now do ya?; </t>
         </is>
       </c>
     </row>
@@ -12566,7 +12566,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You have a, a great rep, ø reputation in Hull ø Truck as well for, for being very entertaining as a, as a, as a company.; </t>
+          <t xml:space="preserve"> You have _a_, a great rep, ø reputation in Hull ø Truck as well for, for being very entertaining as a, as a, as a company.; </t>
         </is>
       </c>
     </row>
@@ -12611,7 +12611,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The fourth root.; </t>
+          <t xml:space="preserve"> _The_ fourth root.; </t>
         </is>
       </c>
     </row>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No I missed it, there was no beasts in the field I came down.; </t>
+          <t xml:space="preserve"> No I missed it, there was no beasts in _the_ field I came down.; </t>
         </is>
       </c>
     </row>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø balcony, the organised is worthy of the Albert ø Hall.; </t>
+          <t xml:space="preserve"> ø balcony, the organised is worthy of _the_ Albert ø Hall.; </t>
         </is>
       </c>
     </row>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It is ø one thing to draw ø money from the public in ø terms of ø council tax and it 's another thing to spend it in the way you intend to do it.; </t>
+          <t xml:space="preserve"> It is ø one thing to draw ø money from the public in ø terms of _ø_ council tax and it 's another thing to spend it in the way you intend to do it.; </t>
         </is>
       </c>
     </row>
@@ -12791,7 +12791,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It is it 's dirty, there 's no other word for it.; </t>
+          <t xml:space="preserve"> It is it 's dirty, there 's _no_ other word for it.; </t>
         </is>
       </c>
     </row>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So Well that 'll be a bit simpler wo n't it?; </t>
+          <t xml:space="preserve"> So Well that 'll be _a_ bit simpler wo n't it?; </t>
         </is>
       </c>
     </row>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There 's an assumption by some politicians that just because there is this immense change taking ø place in Eastern Europe, that this is ø victory for ø Western capitalism erm, I think there might be some of who might be a bit cautious about that victory and might believe that er there is still much that needs to be shared and understood and it is n't as simple as perhaps some political figures might suggest it could be.; </t>
+          <t xml:space="preserve"> There 's an assumption by some politicians that just because there is this immense change taking ø place in Eastern Europe, that this is _ø_ victory for ø Western capitalism erm, I think there might be some of who might be a bit cautious about that victory and might believe that er there is still much that needs to be shared and understood and it is n't as simple as perhaps some political figures might suggest it could be.; </t>
         </is>
       </c>
     </row>
@@ -12926,7 +12926,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Then you had about ø ten days at ø sea and you had oh three ø big meals a day included all in this.; </t>
+          <t xml:space="preserve"> Then you had about ø ten days at ø sea and you had oh three ø big meals _a_ day included all in this.; </t>
         </is>
       </c>
     </row>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We then went on to Sydenham and Lewisham and looked that, and erm the general feeling was the Walter Segal ø houses were not of a sufficiently high standard to be satisfactory for ø people on our housing waiting list.; </t>
+          <t xml:space="preserve"> We then went on to Sydenham and Lewisham and looked that, and erm _the_ general feeling was the Walter Segal ø houses were not of a sufficiently high standard to be satisfactory for ø people on our housing waiting list.; </t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No orange!; </t>
+          <t xml:space="preserve"> _No_ orange!; </t>
         </is>
       </c>
     </row>
@@ -13061,7 +13061,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A cat.; </t>
+          <t xml:space="preserve"> _A_ cat.; </t>
         </is>
       </c>
     </row>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That, that is the the questions which we 've raised ø councillor over the contingency plan and also the three point ø five percent as opposed to.; </t>
+          <t xml:space="preserve"> That, that is the the questions which we 've raised ø councillor over _the_ contingency plan and also the three point ø five percent as opposed to.; </t>
         </is>
       </c>
     </row>
@@ -13151,7 +13151,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm Cos I I got a watch and it says five past twelve, but it 's more than that!; </t>
+          <t xml:space="preserve"> Erm Cos I I got _a_ watch and it says five past twelve, but it 's more than that!; </t>
         </is>
       </c>
     </row>
@@ -13196,7 +13196,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I can hear the Car wash!; </t>
+          <t xml:space="preserve"> I can hear _the_ Car wash!; </t>
         </is>
       </c>
     </row>
@@ -13241,7 +13241,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Occasionally you 'd get er ø hiccups you know where you ca n't get down there because the ground is boggy and it takes a little longer, and that sort of ø thing but the availability of ø water is, is, is pre-planned and given to you.; </t>
+          <t xml:space="preserve"> Occasionally you 'd get er _ø_ hiccups you know where you ca n't get down there because the ground is boggy and it takes a little longer, and that sort of ø thing but the availability of ø water is, is, is pre-planned and given to you.; </t>
         </is>
       </c>
     </row>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and and the erm the bank loan the mortgage would then pay the mortgage I 've got.; </t>
+          <t xml:space="preserve"> and and the erm _the_ bank loan the mortgage would then pay the mortgage I 've got.; </t>
         </is>
       </c>
     </row>
@@ -13331,7 +13331,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Forty per cent is insignificant, the sixty per cent was still owned by the man and his company, and somebody in the organisation, I know this sounds fairly tall, had said go and get this company to do this, because it works for us, ø Commercial Union.; </t>
+          <t xml:space="preserve"> Forty per cent is insignificant, _the_ sixty per cent was still owned by the man and his company, and somebody in the organisation, I know this sounds fairly tall, had said go and get this company to do this, because it works for us, ø Commercial Union.; </t>
         </is>
       </c>
     </row>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t xml:space="preserve"> then he works the hours required.; </t>
+          <t xml:space="preserve"> then he works _the_ hours required.; </t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Where 's the blue?; </t>
+          <t xml:space="preserve"> Where 's _the_ blue?; </t>
         </is>
       </c>
     </row>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The equations they will give you in the book are in that one.; </t>
+          <t xml:space="preserve"> The equations they will give you in _the_ book are in that one.; </t>
         </is>
       </c>
     </row>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How much is the spaghetti John?; </t>
+          <t xml:space="preserve"> How much is _the_ spaghetti John?; </t>
         </is>
       </c>
     </row>
@@ -13556,7 +13556,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If you look at the Chairman, here this afternoon, sixty four, twenty ø nine percent will survive.; </t>
+          <t xml:space="preserve"> If you look at _the_ Chairman, here this afternoon, sixty four, twenty ø nine percent will survive.; </t>
         </is>
       </c>
     </row>
@@ -13601,7 +13601,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø British Rail employees and ø managers will borrow ø cash, so the Government hopes, in ø order to buy ø profitable services, like the East Coast mainline from their employers.; </t>
+          <t xml:space="preserve"> ø British Rail employees and ø managers will borrow ø cash, so _the_ Government hopes, in ø order to buy ø profitable services, like the East Coast mainline from their employers.; </t>
         </is>
       </c>
     </row>
@@ -13646,7 +13646,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The seats were fantastic!; </t>
+          <t xml:space="preserve"> _The_ seats were fantastic!; </t>
         </is>
       </c>
     </row>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's the phone number at right?; </t>
+          <t xml:space="preserve"> That 's _the_ phone number at right?; </t>
         </is>
       </c>
     </row>
@@ -13736,7 +13736,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No P for ø page even.; </t>
+          <t xml:space="preserve"> No P for _ø_ page even.; </t>
         </is>
       </c>
     </row>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Can you hold that for a mo?; </t>
+          <t xml:space="preserve"> Can you hold that for _a_ mo?; </t>
         </is>
       </c>
     </row>
@@ -13826,7 +13826,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well you 're talking about that concert and what are you and Rhiannon going to do for the whole of the summer when you finish in June?; </t>
+          <t xml:space="preserve"> Well you 're talking about that concert and what are you and Rhiannon going to do for _the_ whole of the summer when you finish in June?; </t>
         </is>
       </c>
     </row>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How do we find out what the purpose is?; </t>
+          <t xml:space="preserve"> How do we find out what _the_ purpose is?; </t>
         </is>
       </c>
     </row>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now that 's the kind of ø information that is absolutely vital for them to understand, in ø fact for us— I mean I myself am from the Third World— to understand what the problems are, but which can only be achieved with ø centres in the developed countries that are prepared to make this into a working programme erm for the benefit of both, because in very many cases improving erm the lot of the Third World on the question of ø revenue from ø commodities will also improve their position, or the British or the American, or the European consumer, by eliminating ø intermediaries and so on and so forth.; </t>
+          <t xml:space="preserve"> Now that 's the kind of ø information that is absolutely vital for them to understand, in ø fact for us— I mean I myself am from the Third World— to understand what the problems are, but which can only be achieved with ø centres in the developed countries that are prepared to make this into a working programme erm for the benefit of both, because in very many cases improving erm the lot of the Third World on the question of ø revenue from ø commodities will also improve their position, or the British or the American, or _the_ European consumer, by eliminating ø intermediaries and so on and so forth.; </t>
         </is>
       </c>
     </row>
@@ -13961,7 +13961,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So I was I I had my house full all through the war.; </t>
+          <t xml:space="preserve"> So I was I I had my house full all through _the_ war.; </t>
         </is>
       </c>
     </row>
@@ -14006,7 +14006,7 @@
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That is something the planning committee ca n't look at.; </t>
+          <t xml:space="preserve"> That is something _the_ planning committee ca n't look at.; </t>
         </is>
       </c>
     </row>
@@ -14051,7 +14051,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Their bodies have been found in a secluded house with a shotgun lying nearby, and ø detectives are trying to piece together how they died.; </t>
+          <t xml:space="preserve"> Their bodies have been found in a secluded house with a shotgun lying nearby, and _ø_ detectives are trying to piece together how they died.; </t>
         </is>
       </c>
     </row>
@@ -14096,7 +14096,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But we went home and I remember going in the room, I opened the door and oh it 's lovely and warm in here!; </t>
+          <t xml:space="preserve"> But we went home and I remember going in _the_ room, I opened the door and oh it 's lovely and warm in here!; </t>
         </is>
       </c>
     </row>
@@ -14141,7 +14141,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, correct And we need two, three, four, five We only ø need five six, seven including him Well depending on how many of them, we have n't Oh right, no, you said to order for Leek and Caernarfon Oh beg your pardon, right, sorry okay, alright, Well so if you just go for the two you 're a fleet driver are n't you Will?; </t>
+          <t xml:space="preserve"> Yeah, correct And we need two, three, four, five We only ø need five six, seven including him Well depending on how many of them, we have n't Oh right, no, you said to order for Leek and Caernarfon Oh beg your pardon, right, sorry okay, alright, Well so if you just go for _the_ two you 're a fleet driver are n't you Will?; </t>
         </is>
       </c>
     </row>
@@ -14186,7 +14186,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t xml:space="preserve"> T to shift the gear, cos he wants a couple And obviously, they 'll have to still give the deposit.; </t>
+          <t xml:space="preserve"> T to shift the gear, cos he wants _a_ couple And obviously, they 'll have to still give the deposit.; </t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It, it was one of those chips and ju they just asked me a minute.; </t>
+          <t xml:space="preserve"> It, it was one of those chips and ju they just asked me _a_ minute.; </t>
         </is>
       </c>
     </row>
@@ -14276,7 +14276,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Where are the Brownies?; </t>
+          <t xml:space="preserve"> Where are _the_ Brownies?; </t>
         </is>
       </c>
     </row>
@@ -14321,7 +14321,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No they they were paid from the people that employed them.; </t>
+          <t xml:space="preserve"> No they they were paid from _the_ people that employed them.; </t>
         </is>
       </c>
     </row>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Is it a sensible planning strategy to take all this land between the city boundary and the inner boundary of the greenbelt, in what is the current structure plan period, I wonder?; </t>
+          <t xml:space="preserve"> Is it a sensible planning strategy to take all this land between _the_ city boundary and the inner boundary of the greenbelt, in what is the current structure plan period, I wonder?; </t>
         </is>
       </c>
     </row>
@@ -14411,7 +14411,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Two times in a minus direction.; </t>
+          <t xml:space="preserve"> ø Two times in _a_ minus direction.; </t>
         </is>
       </c>
     </row>
@@ -14456,7 +14456,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh well I 'll look at the telly then.; </t>
+          <t xml:space="preserve"> Oh well I 'll look at _the_ telly then.; </t>
         </is>
       </c>
     </row>
@@ -14501,7 +14501,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We used to get up seven o'clock in the morning you know.; </t>
+          <t xml:space="preserve"> We used to get up seven o'clock in _the_ morning you know.; </t>
         </is>
       </c>
     </row>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So when you 're ø practising bail application, and I 'll talk about that in a moment, think about what you 're going to do, how you 're going to stand.; </t>
+          <t xml:space="preserve"> So when you 're _ø_ practising bail application, and I 'll talk about that in a moment, think about what you 're going to do, how you 're going to stand.; </t>
         </is>
       </c>
     </row>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No the kind of ø candles we have in here.; </t>
+          <t xml:space="preserve"> No _the_ kind of ø candles we have in here.; </t>
         </is>
       </c>
     </row>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Be it industrial, domestic or social it is a major cause of ø neighbour disputes.; </t>
+          <t xml:space="preserve"> Be it industrial, domestic or social it is _a_ major cause of ø neighbour disputes.; </t>
         </is>
       </c>
     </row>
@@ -14681,7 +14681,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I know, but it 'll be a day washed.; </t>
+          <t xml:space="preserve"> I know, but it 'll be _a_ day washed.; </t>
         </is>
       </c>
     </row>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Think they go round travelling then like ø travelling salesman or something Well I do n't know they 've got a place down at ø Markets ai n't they?; </t>
+          <t xml:space="preserve"> Think they go round travelling then like ø travelling salesman or something Well I do n't know they 've got _a_ place down at ø Markets ai n't they?; </t>
         </is>
       </c>
     </row>
@@ -14771,7 +14771,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So if if the cadres had taken the law and 's ø speech there should n't 've been the sorts of ø problems that, that we came up against.; </t>
+          <t xml:space="preserve"> So if if the cadres had taken the law and 's ø speech there should n't 've been _the_ sorts of ø problems that, that we came up against.; </t>
         </is>
       </c>
     </row>
@@ -14816,7 +14816,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You 're happy with the sixth are n't you.; </t>
+          <t xml:space="preserve"> You 're happy with _the_ sixth are n't you.; </t>
         </is>
       </c>
     </row>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Seventy, seventy five eighty, eighty five ninety at the back I 'm offered ø ninety pounds, I shall sell at ninety, it 's yours ø sir at ø ninety pounds ø ninety pounds, ø gentleman left back and that 's for eight five three.; </t>
+          <t xml:space="preserve"> Seventy, seventy five eighty, eighty five ninety at the back I 'm offered ø ninety pounds, I shall sell at ninety, it 's yours _ø_ sir at ø ninety pounds ø ninety pounds, ø gentleman left back and that 's for eight five three.; </t>
         </is>
       </c>
     </row>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t xml:space="preserve"> something here, ø beans on ø toast, open a packet of this, ø tin of that and or a take away or ø Pizza or mm.; </t>
+          <t xml:space="preserve"> something here, ø beans on _ø_ toast, open a packet of this, ø tin of that and or a take away or ø Pizza or mm.; </t>
         </is>
       </c>
     </row>
@@ -14951,7 +14951,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And certainly this stuff, I mean, when a person 's still alive, how can you possibly know enough?; </t>
+          <t xml:space="preserve"> And certainly this stuff, I mean, when _a_ person 's still alive, how can you possibly know enough?; </t>
         </is>
       </c>
     </row>
@@ -14996,7 +14996,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And I, yah, it does n't work very well as a headline face.; </t>
+          <t xml:space="preserve"> And I, yah, it does n't work very well as _a_ headline face.; </t>
         </is>
       </c>
     </row>
@@ -15041,7 +15041,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Truly ø sir in ø respect of a fine workman.; </t>
+          <t xml:space="preserve"> Truly _ø_ sir in ø respect of a fine workman.; </t>
         </is>
       </c>
     </row>
@@ -15086,7 +15086,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And took took the sillocks and to the factory to keep the factory going for the factory you see was up in Hunton's field and there were a lot of Stronsay ø men in it.; </t>
+          <t xml:space="preserve"> And took took the sillocks and to the factory to keep _the_ factory going for the factory you see was up in Hunton's field and there were a lot of Stronsay ø men in it.; </t>
         </is>
       </c>
     </row>
@@ -15131,7 +15131,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But they are wank that But you know but if they are ø wankers nothing you do, and including, I mean I 've done it in the past, slowed right down and ø nine times out of ten it jus it just ø incenses them to drive even closer.; </t>
+          <t xml:space="preserve"> But they are wank that But you know but if they are ø wankers nothing you do, and including, I mean I 've done it in the past, slowed right down and _ø_ nine times out of ten it jus it just ø incenses them to drive even closer.; </t>
         </is>
       </c>
     </row>
@@ -15176,7 +15176,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mr Cooper drove it straight into the barn and stopped next to Nebbins I ca n't fit the gear in now!; </t>
+          <t xml:space="preserve"> Mr Cooper drove it straight into the barn and stopped next to Nebbins I ca n't fit _the_ gear in now!; </t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Took them out to make the tea did you get any biscuits?; </t>
+          <t xml:space="preserve"> Took them out to make _the_ tea did you get any biscuits?; </t>
         </is>
       </c>
     </row>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The one with the leg is Philip's Yeah Right if he does n't like his bacon we 'll have it, tell him If you do n't want your bacon cos there 's one here without ø bacon you done 'em?; </t>
+          <t xml:space="preserve"> The one with _the_ leg is Philip's Yeah Right if he does n't like his bacon we 'll have it, tell him If you do n't want your bacon cos there 's one here without ø bacon you done 'em?; </t>
         </is>
       </c>
     </row>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now, that 's, that 's what you should be doing each time with these With that in and and that much in ø sort of as a minimum.; </t>
+          <t xml:space="preserve"> Now, that 's, that 's what you should be doing each time with these With that in and and that much in _ø_ sort of as a minimum.; </t>
         </is>
       </c>
     </row>
@@ -15356,7 +15356,7 @@
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Encyclopedia has, by you know has all the words.; </t>
+          <t xml:space="preserve"> _The_ Encyclopedia has, by you know has all the words.; </t>
         </is>
       </c>
     </row>
@@ -15401,7 +15401,7 @@
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Next Sunday at this time we 're going to be having a a service of ø rededication for the leaders of our organizations.; </t>
+          <t xml:space="preserve"> Next Sunday at this time we 're going to be having a a service of ø rededication for _the_ leaders of our organizations.; </t>
         </is>
       </c>
     </row>
@@ -15446,7 +15446,7 @@
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah ø sulphoxide was a good sort of And then I 'm I 'm a bit Any of the 'ates any of the 'ates have got ø oxygen in Yeah.; </t>
+          <t xml:space="preserve"> Yeah ø sulphoxide was a good sort of And then I 'm I 'm _a_ bit Any of the 'ates any of the 'ates have got ø oxygen in Yeah.; </t>
         </is>
       </c>
     </row>
@@ -15491,7 +15491,7 @@
       </c>
       <c r="C1004" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Dad there was this alien he had these ginormous hands and ø silver eyes and he was really ugly like just a minute, this Philip Schofield ø guy is popping up everywhere does n't he?; </t>
+          <t xml:space="preserve"> _ø_ Dad there was this alien he had these ginormous hands and ø silver eyes and he was really ugly like just a minute, this Philip Schofield ø guy is popping up everywhere does n't he?; </t>
         </is>
       </c>
     </row>
@@ -15536,7 +15536,7 @@
       </c>
       <c r="C1007" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's not the children's mistake, that 's ours, because we could n't actually for the best part respond in a meaningful way.; </t>
+          <t xml:space="preserve"> That 's not _the_ children's mistake, that 's ours, because we could n't actually for the best part respond in a meaningful way.; </t>
         </is>
       </c>
     </row>
@@ -15581,7 +15581,7 @@
       </c>
       <c r="C1010" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's a girl.; </t>
+          <t xml:space="preserve"> That 's _a_ girl.; </t>
         </is>
       </c>
     </row>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="C1013" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We got there for about half past twelve in the afternoon.; </t>
+          <t xml:space="preserve"> We got there for about half past twelve in _the_ afternoon.; </t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's right, it was better in the spring then it was That 's right in, in the summer.; </t>
+          <t xml:space="preserve"> That 's right, it was better in the spring then it was That 's right in, in _the_ summer.; </t>
         </is>
       </c>
     </row>
@@ -15716,7 +15716,7 @@
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t xml:space="preserve"> see that, see that boy dropped the blocks off over there ø Concrete blocks Did n't you say her house was, did n't you say hers was falling down?; </t>
+          <t xml:space="preserve"> see that, see that boy dropped _the_ blocks off over there ø Concrete blocks Did n't you say her house was, did n't you say hers was falling down?; </t>
         </is>
       </c>
     </row>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="C1022" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What fo Well unfortunately a lot of that he 's got to stop you know.; </t>
+          <t xml:space="preserve"> What fo Well unfortunately _a_ lot of that he 's got to stop you know.; </t>
         </is>
       </c>
     </row>
@@ -15806,7 +15806,7 @@
       </c>
       <c r="C1025" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They belonged to they were ø ships you know, but they had ø one sailing ship, the herself, They made a road into ø quarry you see.; </t>
+          <t xml:space="preserve"> They belonged to they were ø ships you know, but they had _ø_ one sailing ship, the herself, They made a road into ø quarry you see.; </t>
         </is>
       </c>
     </row>
@@ -15851,7 +15851,7 @@
       </c>
       <c r="C1028" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You 're not, no wait.; </t>
+          <t xml:space="preserve"> You 're not, _no_ wait.; </t>
         </is>
       </c>
     </row>
@@ -15896,7 +15896,7 @@
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t xml:space="preserve"> on a plate.; </t>
+          <t xml:space="preserve"> on _a_ plate.; </t>
         </is>
       </c>
     </row>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="C1034" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's not, it 's not ø quarter of a million is it?; </t>
+          <t xml:space="preserve"> It 's not, it 's not _ø_ quarter of a million is it?; </t>
         </is>
       </c>
     </row>
@@ -15986,7 +15986,7 @@
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm, and I feel very strongly, and I urge ø members to consider that we should support this as a matter of ø principle, to help er, that group of our society, I me, I was going to suggest an amendment that we ask for the average age of this council erm, to be published along with the expense claims?; </t>
+          <t xml:space="preserve"> Erm, and I feel very strongly, and I urge ø members to consider that we should support this as a matter of ø principle, to help er, that group of our society, I me, I was going to suggest an amendment that we ask for the average age of this council erm, to be published along with _the_ expense claims?; </t>
         </is>
       </c>
     </row>
@@ -16031,7 +16031,7 @@
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alright no problem.; </t>
+          <t xml:space="preserve"> Alright _no_ problem.; </t>
         </is>
       </c>
     </row>
@@ -16076,7 +16076,7 @@
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t xml:space="preserve"> that does n't bother me, but considering it was only the second I 'd spoken to him and I did not fancy him in the least erm, it really made my skin crawl.; </t>
+          <t xml:space="preserve"> that does n't bother me, but considering it was only the second I 'd spoken to him and I did not fancy him in _the_ least erm, it really made my skin crawl.; </t>
         </is>
       </c>
     </row>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="C1046" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He should o he should a, he should have been sent off.; </t>
+          <t xml:space="preserve"> He should o he should _a_, he should have been sent off.; </t>
         </is>
       </c>
     </row>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="C1049" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm and it shows it 's the twenty I think it 's the twenty second or twenty third I 've got it at ø home, er of October nineteen fourteen, this.; </t>
+          <t xml:space="preserve"> Erm and it shows it 's the twenty I think it 's _the_ twenty second or twenty third I 've got it at ø home, er of October nineteen fourteen, this.; </t>
         </is>
       </c>
     </row>
@@ -16211,7 +16211,7 @@
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now ø uranium erm is, is er a non-renewable resource like oi ø oil and ø coal and ø gas but there 's an awful lot of it in the world and this is erm the reserves of the energy they can give are compared to the remaining reserves of ø coal or and er ø gas, you can see it 's one of the largest energy resources on on ø earth.; </t>
+          <t xml:space="preserve"> Now ø uranium erm is, is er a non-renewable resource like oi ø oil and ø coal and ø gas but there 's an awful lot of it in the world and this is erm the reserves of the energy they can give are compared to _the_ remaining reserves of ø coal or and er ø gas, you can see it 's one of the largest energy resources on on ø earth.; </t>
         </is>
       </c>
     </row>
@@ -16256,7 +16256,7 @@
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm I do n't know whether I have n't the erm Er just tell us what it says please.; </t>
+          <t xml:space="preserve"> Erm I do n't know whether I have n't _the_ erm Er just tell us what it says please.; </t>
         </is>
       </c>
     </row>
@@ -16301,7 +16301,7 @@
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The north side of the village could not accommodate ø additional development without ø detriment to its ø basic form and ø character in the terms of ø Structure Plan Policy H Three.; </t>
+          <t xml:space="preserve"> The north side of the village could not accommodate ø additional development without ø detriment to its ø basic form and ø character in the terms of _ø_ Structure Plan Policy H Three.; </t>
         </is>
       </c>
     </row>
@@ -16346,7 +16346,7 @@
       </c>
       <c r="C1061" t="inlineStr">
         <is>
-          <t xml:space="preserve"> you will probably have recognized the body that says I 'm prepared to give you more.; </t>
+          <t xml:space="preserve"> you will probably have recognized _the_ body that says I 'm prepared to give you more.; </t>
         </is>
       </c>
     </row>
@@ -16391,7 +16391,7 @@
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh probably about sixty two ø Eighty quid Yeah, that 's it ø Twenty quid for a starting motor Yeah I 'll have one of them well he says we 've had so many of them I thought I 'm not surprised I 've got er, I 've got a database Yeah on a database because it 'll soon be what I 've done is I 've put like erm the year, the year and the make of the month, right the month anyway, so I 've put something like one, ten, eighty seven right as the month and after that I 've put down what ø magazine it is Yeah every yeah and then I 've put ø project what it 's called and then I 've put what ø kind of ø project it is what ø type Oh right and then I 've put like ø audio Yeah and photographic Yeah so that in the end when I sell it again I can put the type in ø alphabetical ascending order Mm so it 'll be like erm ø amplifier, ø bass amplifier Yeah you know Oh yeah ø things like that Yeah It, it 's all that and then you can just look through the amplifier and it takes about ø eighty records at a time because it 's using forty ø five letters with the right cos some of them are dead wrong Yeah erm so many for the dates and for so many for the and so on like that and er, I thought okay I do n't like the bow on it load it, ø sort it out and print it, right?; </t>
+          <t xml:space="preserve"> Oh probably about sixty two ø Eighty quid Yeah, that 's it ø Twenty quid for a starting motor Yeah I 'll have one of them well he says we 've had so many of them I thought I 'm not surprised I 've got er, I 've got a database Yeah on a database because it 'll soon be what I 've done is I 've put like erm the year, the year and the make of the month, right the month anyway, so I 've put something like one, ten, eighty seven right as the month and after that I 've put down what ø magazine it is Yeah every yeah and then I 've put ø project what it 's called and then I 've put what ø kind of ø project it is what ø type Oh right and then I 've put like _ø_ audio Yeah and photographic Yeah so that in the end when I sell it again I can put the type in ø alphabetical ascending order Mm so it 'll be like erm ø amplifier, ø bass amplifier Yeah you know Oh yeah ø things like that Yeah It, it 's all that and then you can just look through the amplifier and it takes about ø eighty records at a time because it 's using forty ø five letters with the right cos some of them are dead wrong Yeah erm so many for the dates and for so many for the and so on like that and er, I thought okay I do n't like the bow on it load it, ø sort it out and print it, right?; </t>
         </is>
       </c>
     </row>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I think, yeah, it 's a shop, it 's a shop Yeah, oh ours come from er I think it er this bloke had his done in a shop When he 's mended I think he 's made it our washing machine so that it were n't even made sure that it did n't I do, I really do Yeah Yeah I think he 's made it to make sure it did n't mend because he wants the see Just like that Joyce and he got it see well we thought if we could get that done it would do for ø caravan and erm at ø home you know Who 's that?; </t>
+          <t xml:space="preserve"> I think, yeah, it 's a shop, it 's _a_ shop Yeah, oh ours come from er I think it er this bloke had his done in a shop When he 's mended I think he 's made it our washing machine so that it were n't even made sure that it did n't I do, I really do Yeah Yeah I think he 's made it to make sure it did n't mend because he wants the see Just like that Joyce and he got it see well we thought if we could get that done it would do for ø caravan and erm at ø home you know Who 's that?; </t>
         </is>
       </c>
     </row>
@@ -16481,7 +16481,7 @@
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And of ø course in a scheme like that many details have to be worked out especially in ø negotiations with the bus company for the figure we have put in is I think a realistic figure for the first year of the scheme.; </t>
+          <t xml:space="preserve"> And of ø course in a scheme like that many details have to be worked out especially in ø negotiations with _the_ bus company for the figure we have put in is I think a realistic figure for the first year of the scheme.; </t>
         </is>
       </c>
     </row>
@@ -16526,7 +16526,7 @@
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So if we move some of these off the table Yeah we 'll have more room to do our pictures I can do oh no get one We do n't want to go in the other room and watch the nasties do we?; </t>
+          <t xml:space="preserve"> So if we move some of these off the table Yeah we 'll have more room to do our pictures I can do oh no get one We do n't want to go in _the_ other room and watch the nasties do we?; </t>
         </is>
       </c>
     </row>
@@ -16571,7 +16571,7 @@
       </c>
       <c r="C1076" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Nice rotted muck is alright, not too bad, but erm of ø course we had n't done the main thing had we, thrashing!; </t>
+          <t xml:space="preserve"> _ø_ Nice rotted muck is alright, not too bad, but erm of ø course we had n't done the main thing had we, thrashing!; </t>
         </is>
       </c>
     </row>
@@ -16616,7 +16616,7 @@
       </c>
       <c r="C1079" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah but the signs are encouraging again for Leicester are n't they?; </t>
+          <t xml:space="preserve"> Yeah but _the_ signs are encouraging again for Leicester are n't they?; </t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="C1082" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And by and large the activities of ø church and ø state would be separatist.; </t>
+          <t xml:space="preserve"> And by and large _the_ activities of ø church and ø state would be separatist.; </t>
         </is>
       </c>
     </row>
@@ -16706,7 +16706,7 @@
       </c>
       <c r="C1085" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I hate the sound of it!; </t>
+          <t xml:space="preserve"> I hate _the_ sound of it!; </t>
         </is>
       </c>
     </row>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Saxa frall that 's a plant!; </t>
+          <t xml:space="preserve"> ø Saxa frall that 's _a_ plant!; </t>
         </is>
       </c>
     </row>
@@ -16796,7 +16796,7 @@
       </c>
       <c r="C1091" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well, would you like to have a go?; </t>
+          <t xml:space="preserve"> Well, would you like to have _a_ go?; </t>
         </is>
       </c>
     </row>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And the other thing is that the second year's payment is taken out a year 's later through the same banker's order.; </t>
+          <t xml:space="preserve"> And the other thing is that _the_ second year's payment is taken out a year 's later through the same banker's order.; </t>
         </is>
       </c>
     </row>
@@ -16886,7 +16886,7 @@
       </c>
       <c r="C1097" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We did n't have a grieve it was just my brothers that was there at the time.; </t>
+          <t xml:space="preserve"> We did n't have a grieve it was just my brothers that was there at _the_ time.; </t>
         </is>
       </c>
     </row>
@@ -16931,7 +16931,7 @@
       </c>
       <c r="C1100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Aye sell I mean they could have rung yesterday that 's the trouble you see they 've got so many friends ø Good girl you fairly worked that bleeding money.; </t>
+          <t xml:space="preserve"> Aye sell I mean they could have rung yesterday that 's _the_ trouble you see they 've got so many friends ø Good girl you fairly worked that bleeding money.; </t>
         </is>
       </c>
     </row>
@@ -16976,7 +16976,7 @@
       </c>
       <c r="C1103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Arthur Is he the manager there?; </t>
+          <t xml:space="preserve"> Arthur Is he _the_ manager there?; </t>
         </is>
       </c>
     </row>
@@ -17021,7 +17021,7 @@
       </c>
       <c r="C1106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But it 's a good technical business to have for ø other people as well to know about.; </t>
+          <t xml:space="preserve"> But it 's a good technical business to have for _ø_ other people as well to know about.; </t>
         </is>
       </c>
     </row>
@@ -17066,7 +17066,7 @@
       </c>
       <c r="C1109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now if you know that somebody is a drug addict and they 've just had an injection you keep away from them, erm if they 're having a bad trip, whatever they call it, because you do n't, they become very violent, they can do a lot of ø damage, now the only time you will step in and ø help is when they go unconscious, but at the same time remember protect yourself, we 're talking about ø needles here and probably ø shared needles, you must be terribly careful that you do not get pricked by a needle, especially if, they have a habit of ø sticking needles under ø lapels, so always be aware of this, if a person is a drug addict, in ø fact if you can find some easier way of turning them into the recovery position, do so, erm, you can then obviously either call the ambulance.; </t>
+          <t xml:space="preserve"> Now if you know that somebody is a drug addict and they 've just had an injection you keep away from them, erm if they 're having a bad trip, whatever they call it, because you do n't, they become very violent, they can do a lot of ø damage, now the only time you will step in and ø help is when they go unconscious, but at the same time remember protect yourself, we 're talking about ø needles here and probably ø shared needles, you must be terribly careful that you do not get pricked by a needle, especially if, they have a habit of ø sticking needles under ø lapels, so always be aware of this, if a person is a drug addict, in ø fact if you can find some easier way of turning them into the recovery position, do so, erm, you can then obviously either call _the_ ambulance.; </t>
         </is>
       </c>
     </row>
@@ -17111,7 +17111,7 @@
       </c>
       <c r="C1112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Again, about the turn of the century, erm looking up towards.; </t>
+          <t xml:space="preserve"> Again, about the turn of _the_ century, erm looking up towards.; </t>
         </is>
       </c>
     </row>
@@ -17156,7 +17156,7 @@
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He do n't do no studying and he gets A's for ø maths.; </t>
+          <t xml:space="preserve"> He do n't do _no_ studying and he gets A's for ø maths.; </t>
         </is>
       </c>
     </row>
@@ -17201,7 +17201,7 @@
       </c>
       <c r="C1118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well it only ø one bite at the cherry.; </t>
+          <t xml:space="preserve"> Well it only _ø_ one bite at the cherry.; </t>
         </is>
       </c>
     </row>
@@ -17246,7 +17246,7 @@
       </c>
       <c r="C1121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> She was very pleasant as a matter of ø fact.; </t>
+          <t xml:space="preserve"> She was very pleasant as _a_ matter of ø fact.; </t>
         </is>
       </c>
     </row>
@@ -17291,7 +17291,7 @@
       </c>
       <c r="C1124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Come on, if they 're asleep during the day they ought to be woken up.; </t>
+          <t xml:space="preserve"> Come on, if they 're asleep during _the_ day they ought to be woken up.; </t>
         </is>
       </c>
     </row>
@@ -17336,7 +17336,7 @@
       </c>
       <c r="C1127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I get everything answered and so and so and you learn quite a lot and I just ask.; </t>
+          <t xml:space="preserve"> I get everything answered and so and so and you learn quite _a_ lot and I just ask.; </t>
         </is>
       </c>
     </row>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="C1130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You know, she says, in every Catholic family, er, there is always a relapse person, and it 's usually the nicest.; </t>
+          <t xml:space="preserve"> You know, she says, in _every_ Catholic family, er, there is always a relapse person, and it 's usually the nicest.; </t>
         </is>
       </c>
     </row>
@@ -17426,7 +17426,7 @@
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And but it was starting to grow and it 's still only a stick, and it 's got a bud on the top.; </t>
+          <t xml:space="preserve"> And but it was starting to grow and it 's still only _a_ stick, and it 's got a bud on the top.; </t>
         </is>
       </c>
     </row>
@@ -17471,7 +17471,7 @@
       </c>
       <c r="C1136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We Yeah Well that 's really taking the whole thing seriously.; </t>
+          <t xml:space="preserve"> We Yeah Well that 's really taking _the_ whole thing seriously.; </t>
         </is>
       </c>
     </row>
@@ -17516,7 +17516,7 @@
       </c>
       <c r="C1139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I teased him for a bit that I did n't get it, it went for so much.; </t>
+          <t xml:space="preserve"> I teased him for _a_ bit that I did n't get it, it went for so much.; </t>
         </is>
       </c>
     </row>
@@ -17561,7 +17561,7 @@
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No problems at all?; </t>
+          <t xml:space="preserve"> _No_ problems at all?; </t>
         </is>
       </c>
     </row>
@@ -17606,7 +17606,7 @@
       </c>
       <c r="C1145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That was a romantic gesture.; </t>
+          <t xml:space="preserve"> That was _a_ romantic gesture.; </t>
         </is>
       </c>
     </row>
@@ -17651,7 +17651,7 @@
       </c>
       <c r="C1148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cos of taking the wardrobe of it and what have you.; </t>
+          <t xml:space="preserve"> Cos of taking _the_ wardrobe of it and what have you.; </t>
         </is>
       </c>
     </row>
@@ -17696,7 +17696,7 @@
       </c>
       <c r="C1151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stay in the car stay with the car and put these erm, ø motorists lights on.; </t>
+          <t xml:space="preserve"> Stay in the car stay with the car and put these erm, _ø_ motorists lights on.; </t>
         </is>
       </c>
     </row>
@@ -17741,7 +17741,7 @@
       </c>
       <c r="C1154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A fat, came.; </t>
+          <t xml:space="preserve"> _A_ fat, came.; </t>
         </is>
       </c>
     </row>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="C1157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's after the wheel, ø pollution.; </t>
+          <t xml:space="preserve"> That 's after the wheel, _ø_ pollution.; </t>
         </is>
       </c>
     </row>
@@ -17831,7 +17831,7 @@
       </c>
       <c r="C1160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This is the idea, this is, it 's going to help you break up ø things into ø work and ø non-work.; </t>
+          <t xml:space="preserve"> This is the idea, this is, it 's going to help you break up ø things into _ø_ work and ø non-work.; </t>
         </is>
       </c>
     </row>
@@ -17876,7 +17876,7 @@
       </c>
       <c r="C1163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Where I 've been involved with the marketing groups to to bring ø advertising.; </t>
+          <t xml:space="preserve"> Where I 've been involved with _the_ marketing groups to to bring ø advertising.; </t>
         </is>
       </c>
     </row>
@@ -17921,7 +17921,7 @@
       </c>
       <c r="C1166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well, it 'll be dry this evening and for much of the night, but the cloud 's going to thicken and there could be a few spots of ø light rain over ø high ground by ø dawn.; </t>
+          <t xml:space="preserve"> Well, it 'll be dry this evening and for much of the night, but the cloud 's going to thicken and there could be _a_ few spots of ø light rain over ø high ground by ø dawn.; </t>
         </is>
       </c>
     </row>
@@ -17966,7 +17966,7 @@
       </c>
       <c r="C1169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pretty good this week but had a bad few weeks as well so not setting the world alight yet.; </t>
+          <t xml:space="preserve"> Pretty good this week but had _a_ bad few weeks as well so not setting the world alight yet.; </t>
         </is>
       </c>
     </row>
@@ -18011,7 +18011,7 @@
       </c>
       <c r="C1172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The it 's no use accepting a level of ø housing and saying, We 'll accept that subject it not damaging the environment.; </t>
+          <t xml:space="preserve"> The it 's no use accepting _a_ level of ø housing and saying, We 'll accept that subject it not damaging the environment.; </t>
         </is>
       </c>
     </row>
@@ -18056,7 +18056,7 @@
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er, the premiums, we do take into ø account sex or ø gender, yes.; </t>
+          <t xml:space="preserve"> Er, the premiums, we do take into ø account sex or _ø_ gender, yes.; </t>
         </is>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> what the chances were.; </t>
+          <t xml:space="preserve"> what _the_ chances were.; </t>
         </is>
       </c>
     </row>
@@ -18146,7 +18146,7 @@
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm if you 'd like to have a quick glance through them.; </t>
+          <t xml:space="preserve"> Erm if you 'd like to have _a_ quick glance through them.; </t>
         </is>
       </c>
     </row>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well I had to climb over the wall and fucking ø jump there.; </t>
+          <t xml:space="preserve"> Well I had to climb over _the_ wall and fucking ø jump there.; </t>
         </is>
       </c>
     </row>
@@ -18236,7 +18236,7 @@
       </c>
       <c r="C1187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh well like she said today, there 's no guarantee of getting a job at the end.; </t>
+          <t xml:space="preserve"> Oh well like she said today, there 's no guarantee of getting _a_ job at the end.; </t>
         </is>
       </c>
     </row>
@@ -18281,7 +18281,7 @@
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah well I was talking, I was talking to a friend and they said that, you know, there 's some homophobic attacks and some of them just happen to occur because ø people are walking in a gay area Yeah.; </t>
+          <t xml:space="preserve"> Yeah well I was talking, I was talking to a friend and they said that, you know, there 's some homophobic attacks and some of them just happen to occur because _ø_ people are walking in a gay area Yeah.; </t>
         </is>
       </c>
     </row>
@@ -18326,7 +18326,7 @@
       </c>
       <c r="C1193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's my guess and it 's an educated guess, within the next decade this growth will speed up partly because of ø new technology and the employer's needs to cut ø costs and maximize ø profits.; </t>
+          <t xml:space="preserve"> It 's my guess and it 's an educated guess, within the next decade this growth will speed up partly because of ø new technology and the employer's needs to cut ø costs and maximize _ø_ profits.; </t>
         </is>
       </c>
     </row>
@@ -18371,7 +18371,7 @@
       </c>
       <c r="C1196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And he finishes off this poem with a description of what he 's now writing.; </t>
+          <t xml:space="preserve"> And he finishes off this poem with _a_ description of what he 's now writing.; </t>
         </is>
       </c>
     </row>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="C1199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So I bent down to clear it and gradually it crept up me legs to me knees, What 's the matter lad?; </t>
+          <t xml:space="preserve"> So I bent down to clear it and gradually it crept up me legs to me knees, What 's _the_ matter lad?; </t>
         </is>
       </c>
     </row>
@@ -18461,7 +18461,7 @@
       </c>
       <c r="C1202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> no there was ø one girls school which was Christ ø Hospital Yeah which was up Lindon Hill Mm and there was the City school which was on Monk's Road, and there was the Lincoln ø school which was on Brambury Road which is Where was now Christ ø Hospital Yeah, where was Christ ø Hospital then?; </t>
+          <t xml:space="preserve"> no there was ø one girls school which was Christ ø Hospital Yeah which was up Lindon Hill Mm and there was _the_ City school which was on Monk's Road, and there was the Lincoln ø school which was on Brambury Road which is Where was now Christ ø Hospital Yeah, where was Christ ø Hospital then?; </t>
         </is>
       </c>
     </row>
@@ -18506,7 +18506,7 @@
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I did n't plan to deviate from it at all for the rest of my speech anyway.; </t>
+          <t xml:space="preserve"> I did n't plan to deviate from it at all for _the_ rest of my speech anyway.; </t>
         </is>
       </c>
     </row>
@@ -18551,7 +18551,7 @@
       </c>
       <c r="C1208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The staff have been told that the Laboratory will shut in exactly ø twelve months; the farmers intend to say ø plenty more before then.; </t>
+          <t xml:space="preserve"> The staff have been told that the Laboratory will shut in exactly _ø_ twelve months; the farmers intend to say ø plenty more before then.; </t>
         </is>
       </c>
     </row>
@@ -18596,7 +18596,7 @@
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You ask him a question.; </t>
+          <t xml:space="preserve"> You ask him _a_ question.; </t>
         </is>
       </c>
     </row>
@@ -18641,7 +18641,7 @@
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Analysts say the floatation looks like being a success.; </t>
+          <t xml:space="preserve"> _ø_ Analysts say the floatation looks like being a success.; </t>
         </is>
       </c>
     </row>
@@ -18686,7 +18686,7 @@
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> he came and asked for the duster and the polish he 's been he said I want a cloth and the polish he 's been dusting I 'll go and switch it off bye bye Marilyn there, you putting it away now and that, I 'm, I 'm just polishing now no that 's not, that is n't ø polish anyway I 'm just polishing you 're working very hard are n't you?; </t>
+          <t xml:space="preserve"> he came and asked for the duster and the polish he 's been he said I want a cloth and the polish he 's been dusting I 'll go and switch it off bye bye Marilyn there, you putting it away now and that, I 'm, I 'm just polishing now no that 's not, that is n't _ø_ polish anyway I 'm just polishing you 're working very hard are n't you?; </t>
         </is>
       </c>
     </row>
@@ -18731,7 +18731,7 @@
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I got a price anyway.; </t>
+          <t xml:space="preserve"> I got _a_ price anyway.; </t>
         </is>
       </c>
     </row>
@@ -18776,7 +18776,7 @@
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's just going to be a great day for ø families, if you are an aircraft enthusiast, or a flying enthusiast a great fun day.; </t>
+          <t xml:space="preserve"> It 's just going to be _a_ great day for ø families, if you are an aircraft enthusiast, or a flying enthusiast a great fun day.; </t>
         </is>
       </c>
     </row>
@@ -18821,7 +18821,7 @@
       </c>
       <c r="C1226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If we look at ø regional Governments across Europe that do n't have to go ø cap in ø hand every time to some deadbeat in ø White Hall, right, they go straight to Europe and they ø network across Europe and they ø exchange ideas and ø things happen.; </t>
+          <t xml:space="preserve"> If we look at ø regional Governments across Europe that do n't have to go _ø_ cap in ø hand every time to some deadbeat in ø White Hall, right, they go straight to Europe and they ø network across Europe and they ø exchange ideas and ø things happen.; </t>
         </is>
       </c>
     </row>
@@ -18866,7 +18866,7 @@
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm, we have a client, we do have ø clients, we have lots of ø client.; </t>
+          <t xml:space="preserve"> Erm, we have _a_ client, we do have ø clients, we have lots of ø client.; </t>
         </is>
       </c>
     </row>
@@ -18911,7 +18911,7 @@
       </c>
       <c r="C1232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If o, ø people would only appreciate the fact that you ca n't have everything, you just ca n't have everything!; </t>
+          <t xml:space="preserve"> If o, ø people would only appreciate _the_ fact that you ca n't have everything, you just ca n't have everything!; </t>
         </is>
       </c>
     </row>
@@ -18956,7 +18956,7 @@
       </c>
       <c r="C1235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A prominent feature of ø secretory diarrhoea is that effective and ø normal bowel in, yo you ca, you can ignore this sign are almost indistinguishable, so despite this dramatic change in the physiology of the small bowel, borthalogically it actually looks quite normal.; </t>
+          <t xml:space="preserve"> A prominent feature of _ø_ secretory diarrhoea is that effective and ø normal bowel in, yo you ca, you can ignore this sign are almost indistinguishable, so despite this dramatic change in the physiology of the small bowel, borthalogically it actually looks quite normal.; </t>
         </is>
       </c>
     </row>
@@ -19001,7 +19001,7 @@
       </c>
       <c r="C1238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now the County Councils and the City Council's assessment of the capacity of the Greater York ø study sites are roughly the same, you can see, ø sir, that as ø things have moved forward in only a six month period, the City Council calculate there 's a residual requirement of nine hundred and forty ø seven dwellings, only twenty ø five percent of the migration assumption, none hundred and forty ø seven dwellings left, compared to the County Council's ø outdated information which suggested it 's one thousand three hundred and thirty five.; </t>
+          <t xml:space="preserve"> Now the County Councils and the City Council's assessment of the capacity of the Greater York ø study sites are roughly the same, you can see, _ø_ sir, that as ø things have moved forward in only a six month period, the City Council calculate there 's a residual requirement of nine hundred and forty ø seven dwellings, only twenty ø five percent of the migration assumption, none hundred and forty ø seven dwellings left, compared to the County Council's ø outdated information which suggested it 's one thousand three hundred and thirty five.; </t>
         </is>
       </c>
     </row>
@@ -19046,7 +19046,7 @@
       </c>
       <c r="C1241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anyway, er there was er the floor was ø six inch ø three inch floor boards and they 'd been danced and da They 'd just put ø chalk down did n't they?; </t>
+          <t xml:space="preserve"> Anyway, er there was er _the_ floor was ø six inch ø three inch floor boards and they 'd been danced and da They 'd just put ø chalk down did n't they?; </t>
         </is>
       </c>
     </row>
@@ -19091,7 +19091,7 @@
       </c>
       <c r="C1244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Leon, can I borrow a rubber please?; </t>
+          <t xml:space="preserve"> Leon, can I borrow _a_ rubber please?; </t>
         </is>
       </c>
     </row>
@@ -19136,7 +19136,7 @@
       </c>
       <c r="C1247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm the way that we see it is that I would appraise Kevin, ø Bill and Cath, initially and that, oh this is just York's is n't it?; </t>
+          <t xml:space="preserve"> Erm _the_ way that we see it is that I would appraise Kevin, ø Bill and Cath, initially and that, oh this is just York's is n't it?; </t>
         </is>
       </c>
     </row>
@@ -19181,7 +19181,7 @@
       </c>
       <c r="C1250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Persuaded by the devil you see.; </t>
+          <t xml:space="preserve"> Persuaded by _the_ devil you see.; </t>
         </is>
       </c>
     </row>
@@ -19226,7 +19226,7 @@
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the lesser Vic.; </t>
+          <t xml:space="preserve"> _the_ lesser Vic.; </t>
         </is>
       </c>
     </row>
@@ -19271,7 +19271,7 @@
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, they were swooping, they were up on you know across there, you know across erm er opposite there 's that house where th that has the garden at the bottom of ours.; </t>
+          <t xml:space="preserve"> Yeah, they were swooping, they were up on you know across there, you know across erm er opposite there 's that house where th that has _the_ garden at the bottom of ours.; </t>
         </is>
       </c>
     </row>
@@ -19316,7 +19316,7 @@
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> To some extent, to a larger extent, I agree with what says.; </t>
+          <t xml:space="preserve"> To some extent, to _a_ larger extent, I agree with what says.; </t>
         </is>
       </c>
     </row>
@@ -19361,7 +19361,7 @@
       </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In there, but the battery, I told you!; </t>
+          <t xml:space="preserve"> In there, but _the_ battery, I told you!; </t>
         </is>
       </c>
     </row>
@@ -19406,7 +19406,7 @@
       </c>
       <c r="C1265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No that 's that 's off the the P N C it I mean it 's obviously through his ø local police station but it 's off the the the national computer.; </t>
+          <t xml:space="preserve"> No that 's that 's off the _the_ P N C it I mean it 's obviously through his ø local police station but it 's off the the the national computer.; </t>
         </is>
       </c>
     </row>
@@ -19451,7 +19451,7 @@
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And of ø course from then they 've increased, increased, increased and still it 's The National Health Service is a farce now.; </t>
+          <t xml:space="preserve"> And of _ø_ course from then they 've increased, increased, increased and still it 's The National Health Service is a farce now.; </t>
         </is>
       </c>
     </row>
@@ -19496,7 +19496,7 @@
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's only while they stay so in-house as a D S O, that we have to be so careful about what we do and what we do n't.; </t>
+          <t xml:space="preserve"> It 's only while they stay so in-house as _a_ D S O, that we have to be so careful about what we do and what we do n't.; </t>
         </is>
       </c>
     </row>
@@ -19541,7 +19541,7 @@
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er they go into ø crime prevention in, in a fairly big way.; </t>
+          <t xml:space="preserve"> Er they go into _ø_ crime prevention in, in a fairly big way.; </t>
         </is>
       </c>
     </row>
@@ -19586,7 +19586,7 @@
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This French system was ø one contender for a weapon that would have cost two ø billion pounds.; </t>
+          <t xml:space="preserve"> This French system was ø one contender for a weapon that would have cost two _ø_ billion pounds.; </t>
         </is>
       </c>
     </row>
@@ -19631,7 +19631,7 @@
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now, it 's im, that 's an important little phrase there what Jesus says, let's go to the other side.; </t>
+          <t xml:space="preserve"> Now, it 's im, that 's _an_ important little phrase there what Jesus says, let's go to the other side.; </t>
         </is>
       </c>
     </row>
@@ -19676,7 +19676,7 @@
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If a youth is banned, the message is telephoned that night from ø pub to ø pub.; </t>
+          <t xml:space="preserve"> If a youth is banned, _the_ message is telephoned that night from ø pub to ø pub.; </t>
         </is>
       </c>
     </row>
@@ -19721,7 +19721,7 @@
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It stays the same configuration.; </t>
+          <t xml:space="preserve"> It stays _the_ same configuration.; </t>
         </is>
       </c>
     </row>
@@ -19766,7 +19766,7 @@
       </c>
       <c r="C1289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A letter that relating to ø awards was received from the Party.; </t>
+          <t xml:space="preserve"> _A_ letter that relating to ø awards was received from the Party.; </t>
         </is>
       </c>
     </row>
@@ -19811,7 +19811,7 @@
       </c>
       <c r="C1292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Right well we 'll just do this then you can have a go on the computer.; </t>
+          <t xml:space="preserve"> Right well we 'll just do this then you can have a go on _the_ computer.; </t>
         </is>
       </c>
     </row>
@@ -19856,7 +19856,7 @@
       </c>
       <c r="C1295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's a downstairs one.; </t>
+          <t xml:space="preserve"> That 's _a_ downstairs one.; </t>
         </is>
       </c>
     </row>
@@ -19901,7 +19901,7 @@
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No way!; </t>
+          <t xml:space="preserve"> _No_ way!; </t>
         </is>
       </c>
     </row>
@@ -19946,7 +19946,7 @@
       </c>
       <c r="C1301" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No, but I mean there are other such reasons I mean there may be initially choosing ø clothes or something like that, but when I put them on in the morning I usually put them on to ø suit the weather and what 's clean and what I 've got ø tights to match.; </t>
+          <t xml:space="preserve"> No, but I mean there are other such reasons I mean there may be initially choosing ø clothes or something like that, but when I put them on in _the_ morning I usually put them on to ø suit the weather and what 's clean and what I 've got ø tights to match.; </t>
         </is>
       </c>
     </row>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He with a door post!; </t>
+          <t xml:space="preserve"> He with _a_ door post!; </t>
         </is>
       </c>
     </row>
@@ -20036,7 +20036,7 @@
       </c>
       <c r="C1307" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There is always a danger of ø war when you have a face to ø face confrontation that is building up in the Gulf at the moment.; </t>
+          <t xml:space="preserve"> There is always a danger of ø war when you have a face to ø face confrontation that is building up in _the_ Gulf at the moment.; </t>
         </is>
       </c>
     </row>
@@ -20081,7 +20081,7 @@
       </c>
       <c r="C1310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Just, you 've got ta go on that, and she presses it and the chart thing which is ø press that one and it 'll get rid of it all.; </t>
+          <t xml:space="preserve"> Just, you 've got ta go on that, and she presses it and _the_ chart thing which is ø press that one and it 'll get rid of it all.; </t>
         </is>
       </c>
     </row>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="C1313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And the book is pushing back and the pen pushing on each other, so pushing out that way.; </t>
+          <t xml:space="preserve"> And _the_ book is pushing back and the pen pushing on each other, so pushing out that way.; </t>
         </is>
       </c>
     </row>
@@ -20171,7 +20171,7 @@
       </c>
       <c r="C1316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So, in the process of er ø change we, we provided the basic means for cutting, ø lifting and pulling er on every fire engine, a little amount of, of ø equipment, so that if you had a road traffic accident you did n't, the machine that was there, now that was a great step forward.; </t>
+          <t xml:space="preserve"> So, in the process of er ø change we, we provided the basic means for cutting, ø lifting and pulling er on every fire engine, _a_ little amount of, of ø equipment, so that if you had a road traffic accident you did n't, the machine that was there, now that was a great step forward.; </t>
         </is>
       </c>
     </row>
@@ -20216,7 +20216,7 @@
       </c>
       <c r="C1319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Can you take the rest Yes Oh yeah, I just got ta get one Yeah I know Can I give you two tomorrow then when I 've got it changed Shut up you ø fat bastard I 've got ten P if you want to buy ten Can I give you this tomorrow then when when you 've got ø change?; </t>
+          <t xml:space="preserve"> Can you take _the_ rest Yes Oh yeah, I just got ta get one Yeah I know Can I give you two tomorrow then when I 've got it changed Shut up you ø fat bastard I 've got ten P if you want to buy ten Can I give you this tomorrow then when when you 've got ø change?; </t>
         </is>
       </c>
     </row>
@@ -20261,7 +20261,7 @@
       </c>
       <c r="C1322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A: ø points discussed at the public transport sub-committee.; </t>
+          <t xml:space="preserve"> A: _ø_ points discussed at the public transport sub-committee.; </t>
         </is>
       </c>
     </row>
@@ -20306,7 +20306,7 @@
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> His claim would be excluded by your policy because it was a fault inherent at the time of ø purchase.; </t>
+          <t xml:space="preserve"> His claim would be excluded by your policy because it was a fault inherent at _the_ time of ø purchase.; </t>
         </is>
       </c>
     </row>
@@ -20351,7 +20351,7 @@
       </c>
       <c r="C1328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ho ho ho, ah God can you imagine that, Christ, aha here comes a car, there goes a car we are now in a country lane, looking out on the odd passing car bom, ø bom, ø bom, ø bom, ø bom I do n't know about Jessica and Rebecca actually I do n't think so Right then, cross them out Okay Taken two out we 're always gon na get ø people who are additionally at ø school tomorrow who you 'll remember suddenly Like who?; </t>
+          <t xml:space="preserve"> Ho ho ho, ah God can you imagine that, Christ, aha here comes a car, there goes a car we are now in a country lane, looking out on the odd passing car bom, ø bom, ø bom, _ø_ bom, ø bom I do n't know about Jessica and Rebecca actually I do n't think so Right then, cross them out Okay Taken two out we 're always gon na get ø people who are additionally at ø school tomorrow who you 'll remember suddenly Like who?; </t>
         </is>
       </c>
     </row>
@@ -20396,7 +20396,7 @@
       </c>
       <c r="C1331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Okay Well and you 've seen the video so you 'll be aware of the sort of ø things that we do here.; </t>
+          <t xml:space="preserve"> Okay Well and you 've seen the video so you 'll be aware of the sort of _ø_ things that we do here.; </t>
         </is>
       </c>
     </row>
@@ -20441,7 +20441,7 @@
       </c>
       <c r="C1334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's the sixty four ø thousand dollar question because you 've now lost ø ten years and the hill 's getting a wee bit steeper again But is n't this com ø compressed funding as you call it gon na ø sort of taking it into, that into ø account?; </t>
+          <t xml:space="preserve"> That 's the sixty four ø thousand dollar question because you 've now lost _ø_ ten years and the hill 's getting a wee bit steeper again But is n't this com ø compressed funding as you call it gon na ø sort of taking it into, that into ø account?; </t>
         </is>
       </c>
     </row>
@@ -20486,7 +20486,7 @@
       </c>
       <c r="C1337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Independent Enquiry into the proposed closure of Rover's Cowley works is now underway.; </t>
+          <t xml:space="preserve"> _The_ Independent Enquiry into the proposed closure of Rover's Cowley works is now underway.; </t>
         </is>
       </c>
     </row>
@@ -20531,7 +20531,7 @@
       </c>
       <c r="C1340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I mean what happens at, at, at the end of the time But if she invests it she 's, she 's, she 's going to get an income is n't she?; </t>
+          <t xml:space="preserve"> I mean what happens at, at, at the end of the time But if she invests it she 's, she 's, she 's going to get _an_ income is n't she?; </t>
         </is>
       </c>
     </row>
@@ -20576,7 +20576,7 @@
       </c>
       <c r="C1343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Not every regiment can boast having a padre.; </t>
+          <t xml:space="preserve"> Not _every_ regiment can boast having a padre.; </t>
         </is>
       </c>
     </row>
@@ -20621,7 +20621,7 @@
       </c>
       <c r="C1346" t="inlineStr">
         <is>
-          <t xml:space="preserve"> One of the features of, of the media which I think I mentioned earlier, certainly to ø one group if not the whole lot, is that people in the media cut things to the last moment, and the final second, it 's ø part of the adrenaline, we 've a chance to, make ø people move in.; </t>
+          <t xml:space="preserve"> One of the features of, of the media which I think I mentioned earlier, certainly to ø one group if not _the_ whole lot, is that people in the media cut things to the last moment, and the final second, it 's ø part of the adrenaline, we 've a chance to, make ø people move in.; </t>
         </is>
       </c>
     </row>
@@ -20666,7 +20666,7 @@
       </c>
       <c r="C1349" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well no because we had n't, us, given us any ideas, towards the end it got better, and they were.; </t>
+          <t xml:space="preserve"> Well no because we had n't, us, given us any ideas, towards _the_ end it got better, and they were.; </t>
         </is>
       </c>
     </row>
@@ -20711,7 +20711,7 @@
       </c>
       <c r="C1352" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The problem is, the term Lamarckism has changed its meaning in the course of this century, and now ø Lamarckism, if you say ø Lamarckism to most ø educated people, the first thing they normally think of, is not ø evolution by ø will, or, or ø progressivism, but ø inheritance of ø acquired characteristics.; </t>
+          <t xml:space="preserve"> The problem is, the term Lamarckism has changed its meaning in the course of this century, and now ø Lamarckism, if you say ø Lamarckism to most ø educated people, _the_ first thing they normally think of, is not ø evolution by ø will, or, or ø progressivism, but ø inheritance of ø acquired characteristics.; </t>
         </is>
       </c>
     </row>
@@ -20756,7 +20756,7 @@
       </c>
       <c r="C1355" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So we 're going back in ø time a bit today for the mystery movie quiz.; </t>
+          <t xml:space="preserve"> So we 're going back in _ø_ time a bit today for the mystery movie quiz.; </t>
         </is>
       </c>
     </row>
@@ -20801,7 +20801,7 @@
       </c>
       <c r="C1358" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Three in particular, the first one, Ian Walker the goalkeeper on ø loan from Tottenham Hotspurs, he played a super game, made some very good saves and his handling was secure.; </t>
+          <t xml:space="preserve"> Three in particular, the first one, Ian Walker the goalkeeper on ø loan from Tottenham Hotspurs, he played _a_ super game, made some very good saves and his handling was secure.; </t>
         </is>
       </c>
     </row>
@@ -20846,7 +20846,7 @@
       </c>
       <c r="C1361" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah the model of you.; </t>
+          <t xml:space="preserve"> Yeah _the_ model of you.; </t>
         </is>
       </c>
     </row>
@@ -20891,7 +20891,7 @@
       </c>
       <c r="C1364" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What a nice guy.; </t>
+          <t xml:space="preserve"> What _a_ nice guy.; </t>
         </is>
       </c>
     </row>
@@ -20936,7 +20936,7 @@
       </c>
       <c r="C1367" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I do n't like this as much as the small ones.; </t>
+          <t xml:space="preserve"> I do n't like this as much as _the_ small ones.; </t>
         </is>
       </c>
     </row>
@@ -20981,7 +20981,7 @@
       </c>
       <c r="C1370" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I mean hav have you looked at our ø Alternative Opportunities section out there, or Erm That 's the yellow files.; </t>
+          <t xml:space="preserve"> I mean hav have you looked at our ø Alternative Opportunities section out there, or Erm That 's _the_ yellow files.; </t>
         </is>
       </c>
     </row>
@@ -21026,7 +21026,7 @@
       </c>
       <c r="C1373" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What was, does anybody know what the first term was?; </t>
+          <t xml:space="preserve"> What was, does anybody know what _the_ first term was?; </t>
         </is>
       </c>
     </row>
@@ -21071,7 +21071,7 @@
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Can I just ask if you and Paddy would decipher the fourth line of eighteen for me please Sorry about that formal whip Start sentence a bit of ø Self abuse, wo n't have seen them.; </t>
+          <t xml:space="preserve"> Can I just ask if you and Paddy would decipher _the_ fourth line of eighteen for me please Sorry about that formal whip Start sentence a bit of ø Self abuse, wo n't have seen them.; </t>
         </is>
       </c>
     </row>
@@ -21116,7 +21116,7 @@
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I mean, if it 's pointed out to us by the lord we we try and overcome that do n't we?; </t>
+          <t xml:space="preserve"> I mean, if it 's pointed out to us by _the_ lord we we try and overcome that do n't we?; </t>
         </is>
       </c>
     </row>
@@ -21161,7 +21161,7 @@
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Amy 's got a tee shirt, with Sally the cat.; </t>
+          <t xml:space="preserve"> Amy 's got _a_ tee shirt, with Sally the cat.; </t>
         </is>
       </c>
     </row>
@@ -21206,7 +21206,7 @@
       </c>
       <c r="C1385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You ca n't motivate him, I 've tried, in the end I just Oh, he 's got to get motivated cos if we 're going away we got to save some pennies up and if we commit ourselves then we 've got to save ø pennies up, it 's no good coming and saying to me you 're going away ø next week, I shall turn round and say ø sod you ø matey we 're not cos we 've got no bloody money.; </t>
+          <t xml:space="preserve"> You ca n't motivate him, I 've tried, in the end I just Oh, he 's got to get motivated cos if we 're going away we got to save some pennies up and if we commit ourselves then we 've got to save _ø_ pennies up, it 's no good coming and saying to me you 're going away ø next week, I shall turn round and say ø sod you ø matey we 're not cos we 've got no bloody money.; </t>
         </is>
       </c>
     </row>
@@ -21251,7 +21251,7 @@
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Because for some people there may be a value judgement made about it.; </t>
+          <t xml:space="preserve"> Because for some people there may be _a_ value judgement made about it.; </t>
         </is>
       </c>
     </row>
@@ -21296,7 +21296,7 @@
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He 's probably having a visit run like ø bat out of ø hell good gracious.; </t>
+          <t xml:space="preserve"> He 's probably having a visit run like _ø_ bat out of ø hell good gracious.; </t>
         </is>
       </c>
     </row>
@@ -21341,7 +21341,7 @@
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What ø time of ø year do you cut the peats?; </t>
+          <t xml:space="preserve"> What _ø_ time of ø year do you cut the peats?; </t>
         </is>
       </c>
     </row>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I think he 's an agent for that.; </t>
+          <t xml:space="preserve"> I think he 's _an_ agent for that.; </t>
         </is>
       </c>
     </row>
@@ -21431,7 +21431,7 @@
       </c>
       <c r="C1400" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There was always ø political sparring around the bar when these two people were present and I am told that not many rounds were bought, but many rounds were fought.; </t>
+          <t xml:space="preserve"> There was always ø political sparring around _the_ bar when these two people were present and I am told that not many rounds were bought, but many rounds were fought.; </t>
         </is>
       </c>
     </row>
@@ -21476,7 +21476,7 @@
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now I think the tables speak for themselves and they 're born out by ø paragraph sixteen B of the report on ø page fifty nine.; </t>
+          <t xml:space="preserve"> Now I think the tables speak for themselves and they 're born out by _ø_ paragraph sixteen B of the report on ø page fifty nine.; </t>
         </is>
       </c>
     </row>
@@ -21521,7 +21521,7 @@
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Did you see the Tesco ø group that were on there ø last night?; </t>
+          <t xml:space="preserve"> Did you see the Tesco _ø_ group that were on there ø last night?; </t>
         </is>
       </c>
     </row>
@@ -21566,7 +21566,7 @@
       </c>
       <c r="C1409" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So that means until we 've heard from, one of them, we ca n't ø sort of ascertain finally the, the, the programme for the next few weeks.; </t>
+          <t xml:space="preserve"> So that means until we 've heard from, one of them, we ca n't ø sort of ascertain finally the, the, the programme for _the_ next few weeks.; </t>
         </is>
       </c>
     </row>
@@ -21611,7 +21611,7 @@
       </c>
       <c r="C1412" t="inlineStr">
         <is>
-          <t xml:space="preserve"> got a hundred percent for acting Mhm.; </t>
+          <t xml:space="preserve"> got _a_ hundred percent for acting Mhm.; </t>
         </is>
       </c>
     </row>
@@ -21656,7 +21656,7 @@
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No come on let's go to the canteen cos I want ø school dinner.; </t>
+          <t xml:space="preserve"> No come on let's go to the canteen cos I want _ø_ school dinner.; </t>
         </is>
       </c>
     </row>
@@ -21701,7 +21701,7 @@
       </c>
       <c r="C1418" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anyway erm my meal, mine my ø two course, I had erm ø home-made soup, and you get this erm ø massive great wedge ø massive wedge of ø granary bread and and you get your fro, yo yo your soup and then I had er the home-made steak and ø kidney pie, you know Mm.; </t>
+          <t xml:space="preserve"> Anyway erm my meal, mine my _ø_ two course, I had erm ø home-made soup, and you get this erm ø massive great wedge ø massive wedge of ø granary bread and and you get your fro, yo yo your soup and then I had er the home-made steak and ø kidney pie, you know Mm.; </t>
         </is>
       </c>
     </row>
@@ -21746,7 +21746,7 @@
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And the nature goes out of ø plastic.; </t>
+          <t xml:space="preserve"> And _the_ nature goes out of ø plastic.; </t>
         </is>
       </c>
     </row>
@@ -21791,7 +21791,7 @@
       </c>
       <c r="C1424" t="inlineStr">
         <is>
-          <t xml:space="preserve"> a separate box er, you know, er is is is not necessarily appropriate.; </t>
+          <t xml:space="preserve"> _a_ separate box er, you know, er is is is not necessarily appropriate.; </t>
         </is>
       </c>
     </row>
@@ -21836,7 +21836,7 @@
       </c>
       <c r="C1427" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yep, the first, the first sentence.; </t>
+          <t xml:space="preserve"> Yep, the first, _the_ first sentence.; </t>
         </is>
       </c>
     </row>
@@ -21881,7 +21881,7 @@
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well no The next time.; </t>
+          <t xml:space="preserve"> Well no _The_ next time.; </t>
         </is>
       </c>
     </row>
@@ -21926,7 +21926,7 @@
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But there 's a list in the training manual which you take away.; </t>
+          <t xml:space="preserve"> But there 's _a_ list in the training manual which you take away.; </t>
         </is>
       </c>
     </row>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We write to them normally within ø seven days, ask them to read it, clarifying exactly the policy they 've got, give them the option to pull out if they should so wish, and in ø fairness I have got to say that we 've been doing that now for the last eighteen months.; </t>
+          <t xml:space="preserve"> We write to them normally within _ø_ seven days, ask them to read it, clarifying exactly the policy they 've got, give them the option to pull out if they should so wish, and in ø fairness I have got to say that we 've been doing that now for the last eighteen months.; </t>
         </is>
       </c>
     </row>
@@ -22016,7 +22016,7 @@
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And all single or ø childless women between twenty and thirty were liable to be directed to ø essential war work of some kind as we can see here erm com coming to the factories erm there 's a woman there driving a tank another one on er a gu a gun sight.; </t>
+          <t xml:space="preserve"> And all single or ø childless women between twenty and thirty were liable to be directed to ø essential war work of some kind as we can see here erm com coming to the factories erm there 's _a_ woman there driving a tank another one on er a gu a gun sight.; </t>
         </is>
       </c>
     </row>
@@ -22061,7 +22061,7 @@
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes Ok, ø Time found hidden in a hard day, ø dry earth becomes a dance floor, ø audience of ø three fowl, the fourth along with a reaper turns it back, ø wooden shoes meant for ø mud, ø rug on dancing ø feet Erm the next one is the still life on, on with ø three puppies, while I was looking at Gaugin's work I could n't help but ø notice he 's constantly struck by the fact that he ø use set of ø three symbols through out his work it seems, and very, very often ø three caricatures erm or ø lines of three or ø three objects and I found this very interesting, more point of ø view that something that I, I wanted to incorporate in my own work, but I wanted to find a line or a phrase to use in the same way, erm, all of my work starts as one or a series of ø visual images and, and I then turn them into ø characters, repeating a word or repeating a line would be a way of erm emphasising characterise erm and the puppies that are in this painting erm, they delighted my children so much, I do n't know if any of you know, do you know the painting of the three puppies its going to come round at you in a minute, so I 'll talk about it until it gets to you, erm, it delighted my children this particular painting, erm and I decided to put my sort of ø analytical approach to ø one side erm and do something with that later, so this poem is from my, my children's point of ø view and one of the things that are very interested, they were really worried, that, erm, I think it marks the height of the table and the fact that the puppies might fall off and do themselves some harm, that, I 'll read it while its going round and then I can see then, that, so this is, ok, from my children's point of ø view this poem, its called Threes, ø Table laid and waiting, ø milk place in ø bowl not to high, they ø lap and ø swirl, played and ø roll, ø paws distance from knocking and breaking ø goblet, made from ø clay.; </t>
+          <t xml:space="preserve"> Yes Ok, ø Time found hidden in a hard day, ø dry earth becomes a dance floor, ø audience of ø three fowl, the fourth along with a reaper turns it back, ø wooden shoes meant for ø mud, ø rug on dancing ø feet Erm the next one is the still life on, on with ø three puppies, while I was looking at Gaugin's work I could n't help but ø notice he 's constantly struck by the fact that he ø use set of ø three symbols through out his work it seems, and very, very often ø three caricatures erm or ø lines of three or ø three objects and I found this very interesting, more point of ø view that something that I, I wanted to incorporate in my own work, but I wanted to find a line or a phrase to use in the same way, erm, all of my work starts as one or a series of ø visual images and, and I then turn them into ø characters, repeating a word or repeating _a_ line would be a way of erm emphasising characterise erm and the puppies that are in this painting erm, they delighted my children so much, I do n't know if any of you know, do you know the painting of the three puppies its going to come round at you in a minute, so I 'll talk about it until it gets to you, erm, it delighted my children this particular painting, erm and I decided to put my sort of ø analytical approach to ø one side erm and do something with that later, so this poem is from my, my children's point of ø view and one of the things that are very interested, they were really worried, that, erm, I think it marks the height of the table and the fact that the puppies might fall off and do themselves some harm, that, I 'll read it while its going round and then I can see then, that, so this is, ok, from my children's point of ø view this poem, its called Threes, ø Table laid and waiting, ø milk place in ø bowl not to high, they ø lap and ø swirl, played and ø roll, ø paws distance from knocking and breaking ø goblet, made from ø clay.; </t>
         </is>
       </c>
     </row>
@@ -22106,7 +22106,7 @@
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I I ø th I thought I thought it was I S actually from the way you said it the first time, but that was just a guess.; </t>
+          <t xml:space="preserve"> I I ø th I thought I thought it was I S actually from the way you said it _the_ first time, but that was just a guess.; </t>
         </is>
       </c>
     </row>
@@ -22151,7 +22151,7 @@
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There 's a fellow he was a deputy at and he, and he died of that.; </t>
+          <t xml:space="preserve"> There 's _a_ fellow he was a deputy at and he, and he died of that.; </t>
         </is>
       </c>
     </row>
@@ -22196,7 +22196,7 @@
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And there is a hand-out on this on the chairs at the back, if you 'd like to help yourself to them before you go.; </t>
+          <t xml:space="preserve"> And there is _a_ hand-out on this on the chairs at the back, if you 'd like to help yourself to them before you go.; </t>
         </is>
       </c>
     </row>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm, on the other side.; </t>
+          <t xml:space="preserve"> Erm, on _the_ other side.; </t>
         </is>
       </c>
     </row>
@@ -22286,7 +22286,7 @@
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So I tried another one and they says, We ca n't give you one cos it 's a bad address.; </t>
+          <t xml:space="preserve"> So I tried another one and they says, We ca n't give you one cos it 's _a_ bad address.; </t>
         </is>
       </c>
     </row>
@@ -22331,7 +22331,7 @@
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He 's not, he 's not over Any the top Ju!; </t>
+          <t xml:space="preserve"> He 's not, he 's not over Any _the_ top Ju!; </t>
         </is>
       </c>
     </row>
@@ -22376,7 +22376,7 @@
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t xml:space="preserve"> erm but er I do n't live my life erm er just with a profit motive in everything I do.; </t>
+          <t xml:space="preserve"> erm but er I do n't live my life erm er just with _a_ profit motive in everything I do.; </t>
         </is>
       </c>
     </row>
@@ -22421,7 +22421,7 @@
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No I woul, yeah I suppose, quite a few Cos I was two when we left there.; </t>
+          <t xml:space="preserve"> No I woul, yeah I suppose, quite _a_ few Cos I was two when we left there.; </t>
         </is>
       </c>
     </row>
@@ -22466,7 +22466,7 @@
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Because you see, the thing with ø illusions is, it 's okay as long as ø people believe.; </t>
+          <t xml:space="preserve"> Because you see, the thing with ø illusions is, it 's okay as long as _ø_ people believe.; </t>
         </is>
       </c>
     </row>
@@ -22511,7 +22511,7 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And obviously it 's had an impact on the row of ø shops out on ø Road for ø example.; </t>
+          <t xml:space="preserve"> And obviously it 's had an impact on _the_ row of ø shops out on ø Road for ø example.; </t>
         </is>
       </c>
     </row>
@@ -22556,7 +22556,7 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's a very nice little piece.; </t>
+          <t xml:space="preserve"> It 's _a_ very nice little piece.; </t>
         </is>
       </c>
     </row>
@@ -22601,7 +22601,7 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And she needs a new nappy or taken off altogether please.; </t>
+          <t xml:space="preserve"> And she needs _a_ new nappy or taken off altogether please.; </t>
         </is>
       </c>
     </row>
@@ -22646,7 +22646,7 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There is no skin care is a very basic thing.; </t>
+          <t xml:space="preserve"> There is no skin care is _a_ very basic thing.; </t>
         </is>
       </c>
     </row>
@@ -22691,7 +22691,7 @@
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's the night for my birthday.; </t>
+          <t xml:space="preserve"> That 's _the_ night for my birthday.; </t>
         </is>
       </c>
     </row>
@@ -22736,7 +22736,7 @@
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sian you 're a florist Yes.; </t>
+          <t xml:space="preserve"> Sian you 're _a_ florist Yes.; </t>
         </is>
       </c>
     </row>
@@ -22781,7 +22781,7 @@
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t xml:space="preserve"> As opposed to the one that grows tall.; </t>
+          <t xml:space="preserve"> As opposed to _the_ one that grows tall.; </t>
         </is>
       </c>
     </row>
@@ -22826,7 +22826,7 @@
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well he was as far as I can remember he was thirty eight he, he went he worked at the Gas Works, ca n't remember much about that really but er I think he 'd actually been working ø nights and came home and actually died in ø bed I believe.; </t>
+          <t xml:space="preserve"> Well he was as far as I can remember he was thirty eight he, he went he worked at _the_ Gas Works, ca n't remember much about that really but er I think he 'd actually been working ø nights and came home and actually died in ø bed I believe.; </t>
         </is>
       </c>
     </row>
@@ -22871,7 +22871,7 @@
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Generally if you 're at ø home for the bins and all and I fucking Ah but there 's no bins now I mean with the wheelie bins they 're the g ø best thing ever, stops ø rats, ø dog everything.; </t>
+          <t xml:space="preserve"> Generally if you 're at ø home for _the_ bins and all and I fucking Ah but there 's no bins now I mean with the wheelie bins they 're the g ø best thing ever, stops ø rats, ø dog everything.; </t>
         </is>
       </c>
     </row>
@@ -22916,7 +22916,7 @@
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cos there 's no point in coming back and doing a second appointment and just go through the motions cos that will lead to what?; </t>
+          <t xml:space="preserve"> Cos there 's _no_ point in coming back and doing a second appointment and just go through the motions cos that will lead to what?; </t>
         </is>
       </c>
     </row>
@@ -22961,7 +22961,7 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Not a problem is it?; </t>
+          <t xml:space="preserve"> Not _a_ problem is it?; </t>
         </is>
       </c>
     </row>
@@ -23006,7 +23006,7 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We had the foresight to assess the situation and successfully sell ø case.; </t>
+          <t xml:space="preserve"> We had the foresight to assess _the_ situation and successfully sell ø case.; </t>
         </is>
       </c>
     </row>
@@ -23051,7 +23051,7 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It will be once the place, cos that 's where the extension 's going, right across there.; </t>
+          <t xml:space="preserve"> It will be once the place, cos that 's where _the_ extension 's going, right across there.; </t>
         </is>
       </c>
     </row>
@@ -23096,7 +23096,7 @@
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But er but a mere twenty pe ø pence!; </t>
+          <t xml:space="preserve"> But er but a mere twenty pe _ø_ pence!; </t>
         </is>
       </c>
     </row>
@@ -23141,7 +23141,7 @@
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All of yous give her a picture.; </t>
+          <t xml:space="preserve"> All of yous give her _a_ picture.; </t>
         </is>
       </c>
     </row>
@@ -23186,7 +23186,7 @@
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No blood or nothing it 's just er No, no phlegm?; </t>
+          <t xml:space="preserve"> _No_ blood or nothing it 's just er No, no phlegm?; </t>
         </is>
       </c>
     </row>
@@ -23231,7 +23231,7 @@
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have you had a good morning sir?; </t>
+          <t xml:space="preserve"> Have you had _a_ good morning sir?; </t>
         </is>
       </c>
     </row>
@@ -23276,7 +23276,7 @@
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And it she had a right talk to him and he said, Well that 's it.; </t>
+          <t xml:space="preserve"> And it she had _a_ right talk to him and he said, Well that 's it.; </t>
         </is>
       </c>
     </row>
@@ -23321,7 +23321,7 @@
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We had a business man on ø Question Time who was saying that five hundred ø million pound fraud going on in the benefits, right?; </t>
+          <t xml:space="preserve"> We had _a_ business man on ø Question Time who was saying that five hundred ø million pound fraud going on in the benefits, right?; </t>
         </is>
       </c>
     </row>
@@ -23366,7 +23366,7 @@
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Of ø course although we 're talking about dying and nobody wants to think about dying let's remind ourselves it 's the only certainty in this life.; </t>
+          <t xml:space="preserve"> Of _ø_ course although we 're talking about dying and nobody wants to think about dying let's remind ourselves it 's the only certainty in this life.; </t>
         </is>
       </c>
     </row>
@@ -23411,7 +23411,7 @@
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's er, it 's the same Yeah near Janet's fifth and ø thorn Near Janet, oh they might They 're open ø seven days a week Otherwise ø form two.; </t>
+          <t xml:space="preserve"> It 's er, it 's _the_ same Yeah near Janet's fifth and ø thorn Near Janet, oh they might They 're open ø seven days a week Otherwise ø form two.; </t>
         </is>
       </c>
     </row>
@@ -23456,7 +23456,7 @@
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And if this goes round a sort of roughly ø circular track, the we 're not measuring ø velocity, we 're measuring ø speed.; </t>
+          <t xml:space="preserve"> And if this goes round _a_ sort of roughly ø circular track, the we 're not measuring ø velocity, we 're measuring ø speed.; </t>
         </is>
       </c>
     </row>
@@ -23501,7 +23501,7 @@
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Why do you want a lockable cupboard?; </t>
+          <t xml:space="preserve"> Why do you want _a_ lockable cupboard?; </t>
         </is>
       </c>
     </row>
@@ -23546,7 +23546,7 @@
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They have the worst of both worlds a government who wants to attack their pension rights and an employer willing to do the government's bidding.; </t>
+          <t xml:space="preserve"> They have the worst of both worlds a government who wants to attack their pension rights and an employer willing to do _the_ government's bidding.; </t>
         </is>
       </c>
     </row>
@@ -23591,7 +23591,7 @@
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sometimes you 'd maybe not get a steamer for maybe maybe ø six weeks if the wind was to the South East.; </t>
+          <t xml:space="preserve"> Sometimes you 'd maybe not get _a_ steamer for maybe maybe ø six weeks if the wind was to the South East.; </t>
         </is>
       </c>
     </row>
@@ -23621,7 +23621,7 @@
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah My dad 's got all this Sorry Steve, erm, that you 're not going to read your essay and and that is n't ø essay, either work your book or, and get it er, yes, well it has to be up and when you 've finished it you can then do a picture about your The disaster, what ø other emergencies that they might ø harmful effects to the environment Right, now can you think of a particular example of where that has happened fairly recently, Alison?; </t>
+          <t xml:space="preserve"> Yeah My dad 's got all this Sorry Steve, erm, that you 're not going to read your essay and and that is n't ø essay, either work your book or, and get it er, yes, well it has to be up and when you 've finished it you can then do a picture about your The disaster, what ø other emergencies that they might _ø_ harmful effects to the environment Right, now can you think of a particular example of where that has happened fairly recently, Alison?; </t>
         </is>
       </c>
     </row>
@@ -23666,7 +23666,7 @@
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But ø doubts about G Tec have spread beyond California, in Baltimore, Maryland, the company also operates the state lottery, here too the awarding of ø contracts is being scrutinized, a forty nine ø million dollar contract to provide a popular computerized casino game called Keyknow is being investigated by a grand jury.; </t>
+          <t xml:space="preserve"> But ø doubts about G Tec have spread beyond California, in Baltimore, Maryland, the company also operates the state lottery, here too the awarding of ø contracts is being scrutinized, a forty nine ø million dollar contract to provide a popular computerized casino game called Keyknow is being investigated by _a_ grand jury.; </t>
         </is>
       </c>
     </row>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When it comes back over the starting line Yeah.; </t>
+          <t xml:space="preserve"> When it comes back over _the_ starting line Yeah.; </t>
         </is>
       </c>
     </row>
@@ -23756,7 +23756,7 @@
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I know ø members will be sorry to hear that Mr Robert and Mr Ken are both unwell and will wish me to convey to them the council's ø best wishes for a speedy recovery.; </t>
+          <t xml:space="preserve"> I know ø members will be sorry to hear that Mr Robert and Mr Ken are both unwell and will wish me to convey to them the council's ø best wishes for _a_ speedy recovery.; </t>
         </is>
       </c>
     </row>
@@ -23801,7 +23801,7 @@
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A lot of the points she raises I would raise myself, I would see as ø areas that we, we can be tackling, but how we tackle them, you know, I, I, again, I would endorse what said erm, we 'll go back to and say right, now, you 've highlighted some issues, now, how do we do it in ø practice?; </t>
+          <t xml:space="preserve"> A lot of the points she raises I would raise myself, I would see as ø areas that we, we can be tackling, but how we tackle them, you know, I, I, again, I would endorse what said erm, we 'll go back to and say right, now, you 've highlighted some issues, now, how do we do it in _ø_ practice?; </t>
         </is>
       </c>
     </row>
@@ -23846,7 +23846,7 @@
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now those are all happening at the Holywell ø Music Rooms.; </t>
+          <t xml:space="preserve"> Now those are all happening at the Holywell _ø_ Music Rooms.; </t>
         </is>
       </c>
     </row>
@@ -23891,7 +23891,7 @@
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You look like a I just look very smart.; </t>
+          <t xml:space="preserve"> You look like _a_ I just look very smart.; </t>
         </is>
       </c>
     </row>
@@ -23936,7 +23936,7 @@
       </c>
       <c r="C1567" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Not not, not It 's just a modification from Yeah.; </t>
+          <t xml:space="preserve"> Not not, not It 's just _a_ modification from Yeah.; </t>
         </is>
       </c>
     </row>
@@ -23981,7 +23981,7 @@
       </c>
       <c r="C1570" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø approach is is to work with ø people like I B M. In ø fact you may have seen in the press er this week the announcement of a strategic relationship between and I B M, and we will talk about that briefly a bit later.; </t>
+          <t xml:space="preserve"> ø approach is is to work with ø people like I B M. In ø fact you may have seen in _the_ press er this week the announcement of a strategic relationship between and I B M, and we will talk about that briefly a bit later.; </t>
         </is>
       </c>
     </row>
@@ -24026,7 +24026,7 @@
       </c>
       <c r="C1573" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So I flipped some cattle from the farm of and right between ø Egilsay and Rousay just a short distance, oh maybe a quarter of a miles or thereby, and oh did the shipping perfectly well and and went home and by the time I got home the message had arrived back before me that the there were two ø old cattle among the younger ones that the fellow had put there just to feed up and the last we saw of them was going up over the island and that was okay we thought everything was okay.; </t>
+          <t xml:space="preserve"> So I flipped some cattle from the farm of and right between ø Egilsay and Rousay just a short distance, oh maybe a quarter of a miles or thereby, and oh did the shipping perfectly well and and went home and by the time I got home the message had arrived back before me that the there were two _ø_ old cattle among the younger ones that the fellow had put there just to feed up and the last we saw of them was going up over the island and that was okay we thought everything was okay.; </t>
         </is>
       </c>
     </row>
@@ -24071,7 +24071,7 @@
       </c>
       <c r="C1576" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well the council started then and they took on ø machines of their own.; </t>
+          <t xml:space="preserve"> Well the council started then and they took on _ø_ machines of their own.; </t>
         </is>
       </c>
     </row>
@@ -24116,7 +24116,7 @@
       </c>
       <c r="C1579" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have to oh ø shit I du n no I ca n't remember half the fucking conversations I had.; </t>
+          <t xml:space="preserve"> Have to oh _ø_ shit I du n no I ca n't remember half the fucking conversations I had.; </t>
         </is>
       </c>
     </row>
@@ -24161,7 +24161,7 @@
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t xml:space="preserve"> she 's a teacher and I think she thinks that ø teachers are the only ones that ø work!; </t>
+          <t xml:space="preserve"> she 's a teacher and I think she thinks that ø teachers are the only ones that _ø_ work!; </t>
         </is>
       </c>
     </row>
@@ -24206,7 +24206,7 @@
       </c>
       <c r="C1585" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cos she said I 'm not paying a fortune for ø stuff that I wo n't wear afterwards.; </t>
+          <t xml:space="preserve"> Cos she said I 'm not paying a fortune for _ø_ stuff that I wo n't wear afterwards.; </t>
         </is>
       </c>
     </row>
@@ -24251,7 +24251,7 @@
       </c>
       <c r="C1588" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So that 's the whole story, I thought you ought to know.; </t>
+          <t xml:space="preserve"> So that 's _the_ whole story, I thought you ought to know.; </t>
         </is>
       </c>
     </row>
@@ -24296,7 +24296,7 @@
       </c>
       <c r="C1591" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So for ø example he 's ø Mill is very keen on the idea of ø local participation, that everyone should at some point in their lives play a role in ø local government in some level.; </t>
+          <t xml:space="preserve"> So for ø example he 's ø Mill is very keen on the idea of _ø_ local participation, that everyone should at some point in their lives play a role in ø local government in some level.; </t>
         </is>
       </c>
     </row>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="C1594" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But then he applied just ø last summer for the Metropolitan.; </t>
+          <t xml:space="preserve"> But then he applied just ø last summer for _the_ Metropolitan.; </t>
         </is>
       </c>
     </row>
@@ -24386,7 +24386,7 @@
       </c>
       <c r="C1597" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I accept that those those percentages are ø ones taken from a particular report er showing the changes at ø certain points on the on the A fifty nine.; </t>
+          <t xml:space="preserve"> I accept that those those percentages are ø ones taken from _a_ particular report er showing the changes at ø certain points on the on the A fifty nine.; </t>
         </is>
       </c>
     </row>
@@ -24431,7 +24431,7 @@
       </c>
       <c r="C1600" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I re I, I, I 've it got a monotonous filling it up.; </t>
+          <t xml:space="preserve"> I re I, I, I 've it got _a_ monotonous filling it up.; </t>
         </is>
       </c>
     </row>
@@ -24476,7 +24476,7 @@
       </c>
       <c r="C1603" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I was only going to say, ø Chair, that before my time in ø local government, that I 've mine as an observer each side, er, there was no problem for ø local authorities to raise a rate, er, there was no restrictions on this, and if they thought they could get away with it politically, they did, and they provided the services, that, that they believed ø people wanted.; </t>
+          <t xml:space="preserve"> I was only going to say, ø Chair, that before my time in ø local government, that I 've mine as an observer each side, er, there was no problem for ø local authorities to raise _a_ rate, er, there was no restrictions on this, and if they thought they could get away with it politically, they did, and they provided the services, that, that they believed ø people wanted.; </t>
         </is>
       </c>
     </row>
@@ -24521,7 +24521,7 @@
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm what I wore yesterday and the day before and also ø practical things like that.; </t>
+          <t xml:space="preserve"> Erm what I wore yesterday and the day before and also _ø_ practical things like that.; </t>
         </is>
       </c>
     </row>
@@ -24566,7 +24566,7 @@
       </c>
       <c r="C1609" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You ought to see them up it 's ø sort of like a leg here, half a leg there a bit of chatting up.; </t>
+          <t xml:space="preserve"> You ought to see them up it 's ø sort of like _a_ leg here, half a leg there a bit of chatting up.; </t>
         </is>
       </c>
     </row>
@@ -24611,7 +24611,7 @@
       </c>
       <c r="C1612" t="inlineStr">
         <is>
-          <t xml:space="preserve"> that the trouble is it affects us you see We 're alright Yeah I know we 're go round with ø masks on ca n't you?; </t>
+          <t xml:space="preserve"> that _the_ trouble is it affects us you see We 're alright Yeah I know we 're go round with ø masks on ca n't you?; </t>
         </is>
       </c>
     </row>
@@ -24656,7 +24656,7 @@
       </c>
       <c r="C1615" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And she 's tipping the chalk out and she said what 's that, oh that 's the phone, under the table, pulled the rocking horse out.; </t>
+          <t xml:space="preserve"> And she 's tipping _the_ chalk out and she said what 's that, oh that 's the phone, under the table, pulled the rocking horse out.; </t>
         </is>
       </c>
     </row>
@@ -24701,7 +24701,7 @@
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I was er four I left the school at ø fourteen years of ø age and I was down the pit the following day.; </t>
+          <t xml:space="preserve"> I was er four I left the school at ø fourteen years of _ø_ age and I was down the pit the following day.; </t>
         </is>
       </c>
     </row>
@@ -24746,7 +24746,7 @@
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I can feed the goats on the ones that are not Hold them safe.; </t>
+          <t xml:space="preserve"> I can feed the goats on _the_ ones that are not Hold them safe.; </t>
         </is>
       </c>
     </row>
@@ -24791,7 +24791,7 @@
       </c>
       <c r="C1624" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No, that 's er the rear fog light Oh right!; </t>
+          <t xml:space="preserve"> No, that 's er _the_ rear fog light Oh right!; </t>
         </is>
       </c>
     </row>
@@ -24836,7 +24836,7 @@
       </c>
       <c r="C1627" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sit in the sun.; </t>
+          <t xml:space="preserve"> sit in _the_ sun.; </t>
         </is>
       </c>
     </row>
@@ -24881,7 +24881,7 @@
       </c>
       <c r="C1630" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How do we please the client?; </t>
+          <t xml:space="preserve"> How do we please _the_ client?; </t>
         </is>
       </c>
     </row>
@@ -24926,7 +24926,7 @@
       </c>
       <c r="C1633" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Or somebody in the yard he was paying.; </t>
+          <t xml:space="preserve"> Or somebody in _the_ yard he was paying.; </t>
         </is>
       </c>
     </row>
@@ -24971,7 +24971,7 @@
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You know you can get some quite good buys like ø end of the season.; </t>
+          <t xml:space="preserve"> You know you can get some quite good buys like _ø_ end of the season.; </t>
         </is>
       </c>
     </row>
@@ -25016,7 +25016,7 @@
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They apply to ø different communities, they have responded to ø different communities' needs but they also contribute to a ripple effect of ø achievement at national and ø international levels which will ultimately benefit the lives of many more children.; </t>
+          <t xml:space="preserve"> They apply to ø different communities, they have responded to ø different communities' needs but they also contribute to _a_ ripple effect of ø achievement at national and ø international levels which will ultimately benefit the lives of many more children.; </t>
         </is>
       </c>
     </row>
@@ -25061,7 +25061,7 @@
       </c>
       <c r="C1642" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the top of the nose.; </t>
+          <t xml:space="preserve"> _the_ top of the nose.; </t>
         </is>
       </c>
     </row>
@@ -25106,7 +25106,7 @@
       </c>
       <c r="C1645" t="inlineStr">
         <is>
-          <t xml:space="preserve"> For Virgo, ø Fate takes a hand today when a delayed or ø missed connection may lead to a contact that may eventually prove to be very beneficial.; </t>
+          <t xml:space="preserve"> For Virgo, ø Fate takes _a_ hand today when a delayed or ø missed connection may lead to a contact that may eventually prove to be very beneficial.; </t>
         </is>
       </c>
     </row>
@@ -25151,7 +25151,7 @@
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I mean he 's, he 's a long way to go.; </t>
+          <t xml:space="preserve"> I mean he 's, he 's _a_ long way to go.; </t>
         </is>
       </c>
     </row>
@@ -25196,7 +25196,7 @@
       </c>
       <c r="C1651" t="inlineStr">
         <is>
-          <t xml:space="preserve"> okay We 'll have a nice lunch.; </t>
+          <t xml:space="preserve"> okay We 'll have _a_ nice lunch.; </t>
         </is>
       </c>
     </row>
@@ -25241,7 +25241,7 @@
       </c>
       <c r="C1654" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Is there a compromise which says that rather than increasing the nine thousand seven hundred as suggested a moment ago from the county councils own point of ø view that nine thousand seven hundred should be decreased on a new settlement.; </t>
+          <t xml:space="preserve"> Is there a compromise which says that rather than increasing _the_ nine thousand seven hundred as suggested a moment ago from the county councils own point of ø view that nine thousand seven hundred should be decreased on a new settlement.; </t>
         </is>
       </c>
     </row>
@@ -25286,7 +25286,7 @@
       </c>
       <c r="C1657" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er no cos I realized that I was that it was totally wrong so I just gave it a miss and went on to something else.; </t>
+          <t xml:space="preserve"> Er no cos I realized that I was that it was totally wrong so I just gave it _a_ miss and went on to something else.; </t>
         </is>
       </c>
     </row>
@@ -25331,7 +25331,7 @@
       </c>
       <c r="C1660" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's ø sort of a crunchy I think, a crickl crackly ø thing.; </t>
+          <t xml:space="preserve"> That 's ø sort of a crunchy I think, _a_ crickl crackly ø thing.; </t>
         </is>
       </c>
     </row>
@@ -25376,7 +25376,7 @@
       </c>
       <c r="C1663" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And really we ought to be concentrating far more upon the other other changes which are proposed other than the Trusts and the things that in ø fact are fo far worse in my my own opinion.; </t>
+          <t xml:space="preserve"> And really we ought to be concentrating far more upon the other other changes which are proposed other than the Trusts and the things that in _ø_ fact are fo far worse in my my own opinion.; </t>
         </is>
       </c>
     </row>
@@ -25421,7 +25421,7 @@
       </c>
       <c r="C1666" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The president of the United States is ø commander in ø chief of the armed forces.; </t>
+          <t xml:space="preserve"> The president of the United States is ø commander in _ø_ chief of the armed forces.; </t>
         </is>
       </c>
     </row>
@@ -25466,7 +25466,7 @@
       </c>
       <c r="C1669" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That was a winning of thirty ø seven pounds initially.; </t>
+          <t xml:space="preserve"> That was _a_ winning of thirty ø seven pounds initially.; </t>
         </is>
       </c>
     </row>
@@ -25511,7 +25511,7 @@
       </c>
       <c r="C1672" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Did you enjoy your holiday with the family she asked gently, knowing that ø Art lived alone now and welcomed the invitations from his ø eldest son Toby and his wife Lynn.; </t>
+          <t xml:space="preserve"> Did you enjoy your holiday with the family she asked gently, knowing that ø Art lived alone now and welcomed the invitations from his _ø_ eldest son Toby and his wife Lynn.; </t>
         </is>
       </c>
     </row>
@@ -25556,7 +25556,7 @@
       </c>
       <c r="C1675" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The unemployed are having their links with ø hope destroyed with the closure of some C A Bs due to ø government and ø local government cuts.; </t>
+          <t xml:space="preserve"> The unemployed are having their links with _ø_ hope destroyed with the closure of some C A Bs due to ø government and ø local government cuts.; </t>
         </is>
       </c>
     </row>
@@ -25601,7 +25601,7 @@
       </c>
       <c r="C1678" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There was one ø particular hole and I looked at it and thought, in a million years we will never get up there.; </t>
+          <t xml:space="preserve"> There was one ø particular hole and I looked at it and thought, in _a_ million years we will never get up there.; </t>
         </is>
       </c>
     </row>
@@ -25646,7 +25646,7 @@
       </c>
       <c r="C1681" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes, they ø sort of crawled out of the woodwork.; </t>
+          <t xml:space="preserve"> Yes, they ø sort of crawled out of _the_ woodwork.; </t>
         </is>
       </c>
     </row>
@@ -25691,7 +25691,7 @@
       </c>
       <c r="C1684" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Right get up back on the stool then.; </t>
+          <t xml:space="preserve"> Right get up back on _the_ stool then.; </t>
         </is>
       </c>
     </row>
@@ -25736,7 +25736,7 @@
       </c>
       <c r="C1687" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In December nineteen eighty seven she was transferred from ø intensive care to a main ward, but it was not until February nineteen eighty eight that she fully emerged from ø coma.; </t>
+          <t xml:space="preserve"> In December nineteen eighty seven she was transferred from ø intensive care to _a_ main ward, but it was not until February nineteen eighty eight that she fully emerged from ø coma.; </t>
         </is>
       </c>
     </row>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="C1690" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No, I 'm just telling the truth what I think of him.; </t>
+          <t xml:space="preserve"> No, I 'm just telling _the_ truth what I think of him.; </t>
         </is>
       </c>
     </row>
@@ -25826,7 +25826,7 @@
       </c>
       <c r="C1693" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well leave that for a minute then.; </t>
+          <t xml:space="preserve"> Well leave that for _a_ minute then.; </t>
         </is>
       </c>
     </row>
@@ -25871,7 +25871,7 @@
       </c>
       <c r="C1696" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And would you eat ø leftovers from from the from the mai the master's food?; </t>
+          <t xml:space="preserve"> And would you eat ø leftovers from from _the_ from the mai the master's food?; </t>
         </is>
       </c>
     </row>
@@ -25916,7 +25916,7 @@
       </c>
       <c r="C1699" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well they wo n't ring in, Melanie, at the moment and er we 're r ringing round their homes and trying to trying to get them out of their beds and ø things, but they 're being a little elusive.; </t>
+          <t xml:space="preserve"> Well they wo n't ring in, Melanie, at _the_ moment and er we 're r ringing round their homes and trying to trying to get them out of their beds and ø things, but they 're being a little elusive.; </t>
         </is>
       </c>
     </row>
@@ -25961,7 +25961,7 @@
       </c>
       <c r="C1702" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm, the social, I 've got ø tickets for the social.; </t>
+          <t xml:space="preserve"> Erm, the social, I 've got _ø_ tickets for the social.; </t>
         </is>
       </c>
     </row>
@@ -26006,7 +26006,7 @@
       </c>
       <c r="C1705" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A particle?; </t>
+          <t xml:space="preserve"> _A_ particle?; </t>
         </is>
       </c>
     </row>
@@ -26051,7 +26051,7 @@
       </c>
       <c r="C1708" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now, I was gon na tell you a story but I 'll not.; </t>
+          <t xml:space="preserve"> Now, I was gon na tell you _a_ story but I 'll not.; </t>
         </is>
       </c>
     </row>
@@ -26096,7 +26096,7 @@
       </c>
       <c r="C1711" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Many pupils may object that they find this kind of ø culture to be alien and puzzling at first since this is a non-exam course there is ø opportunity for ø pupils to mark ø time without any serious results but to achieve ø personal development gradually or late on in the course at an individual pace.; </t>
+          <t xml:space="preserve"> Many pupils may object that they find this kind of ø culture to be alien and puzzling at first since this is a non-exam course there is ø opportunity for _ø_ pupils to mark ø time without any serious results but to achieve ø personal development gradually or late on in the course at an individual pace.; </t>
         </is>
       </c>
     </row>
@@ -26141,7 +26141,7 @@
       </c>
       <c r="C1714" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Evidently she was sta, she was a trainer at ø one point was she?; </t>
+          <t xml:space="preserve"> Evidently she was sta, she was a trainer at _ø_ one point was she?; </t>
         </is>
       </c>
     </row>
@@ -26186,7 +26186,7 @@
       </c>
       <c r="C1717" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Electrical 's a hundred and thirty thousand strong, mechanical somewhere about eighty thousand strong, civil 's about sixty thousand strong.; </t>
+          <t xml:space="preserve"> Electrical 's _a_ hundred and thirty thousand strong, mechanical somewhere about eighty thousand strong, civil 's about sixty thousand strong.; </t>
         </is>
       </c>
     </row>
@@ -26231,7 +26231,7 @@
       </c>
       <c r="C1720" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He 's a good actor.; </t>
+          <t xml:space="preserve"> He 's _a_ good actor.; </t>
         </is>
       </c>
     </row>
@@ -26276,7 +26276,7 @@
       </c>
       <c r="C1723" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But ca n't could n't you perhaps develop then the the er ø stage door club could do more perhaps more meals and maybe erm have ø tickets that take in the cost of a meal so you actually.; </t>
+          <t xml:space="preserve"> But ca n't could n't you perhaps develop then the the er ø stage door club could do more perhaps more meals and maybe erm have ø tickets that take in _the_ cost of a meal so you actually.; </t>
         </is>
       </c>
     </row>
@@ -26321,7 +26321,7 @@
       </c>
       <c r="C1726" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I do n't believe that shit about you watch a video then all of a sudden you 're a Rambo.; </t>
+          <t xml:space="preserve"> I do n't believe that shit about you watch _a_ video then all of a sudden you 're a Rambo.; </t>
         </is>
       </c>
     </row>
@@ -26366,7 +26366,7 @@
       </c>
       <c r="C1729" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Just changed from a leased t Anyway we 'll have to, I think, revisit those nine points as w as we go on because that 's Yeah.; </t>
+          <t xml:space="preserve"> Just changed from _a_ leased t Anyway we 'll have to, I think, revisit those nine points as w as we go on because that 's Yeah.; </t>
         </is>
       </c>
     </row>
@@ -26411,7 +26411,7 @@
       </c>
       <c r="C1732" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I accept the argument which er ø Noble Viscount put so clearly that there may be a case for bringing in some outside people, but if this is to be done, it seems to me that the police authority itself is the authority best able to judge what ø particular gaps need to be filled and the one of the amendments to which I am speaking erm does contemplate giving ø power to the authority to co-opt ø members with ø experience which might not ø other ways be available, for ø example from among the ethnic minorities.; </t>
+          <t xml:space="preserve"> I accept the argument which er ø Noble Viscount put so clearly that there may be a case for bringing in some outside people, but if this is to be done, it seems to me that _the_ police authority itself is the authority best able to judge what ø particular gaps need to be filled and the one of the amendments to which I am speaking erm does contemplate giving ø power to the authority to co-opt ø members with ø experience which might not ø other ways be available, for ø example from among the ethnic minorities.; </t>
         </is>
       </c>
     </row>
@@ -26456,7 +26456,7 @@
       </c>
       <c r="C1735" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thank you very It 's all yours and I 'll interrupt, I 'm ø Gentlemen, it occurs to us that you 're going, we 're going to be waffling on for half an hour plus, in a sense.; </t>
+          <t xml:space="preserve"> Thank you very It 's all yours and I 'll interrupt, I 'm ø Gentlemen, it occurs to us that you 're going, we 're going to be waffling on for half _an_ hour plus, in a sense.; </t>
         </is>
       </c>
     </row>
@@ -26501,7 +26501,7 @@
       </c>
       <c r="C1738" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I 'm only oh half a dozen in ø front.; </t>
+          <t xml:space="preserve"> I 'm only oh half _a_ dozen in ø front.; </t>
         </is>
       </c>
     </row>
@@ -26546,7 +26546,7 @@
       </c>
       <c r="C1741" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Okey-dokey well erm hang on the line and er we 'll get you all sorted.; </t>
+          <t xml:space="preserve"> Okey-dokey well erm hang on _the_ line and er we 'll get you all sorted.; </t>
         </is>
       </c>
     </row>
@@ -26591,7 +26591,7 @@
       </c>
       <c r="C1744" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No, I I mean I was on the phone and th, there was a knock at the door and this woman came round and said she was from from the Marky!; </t>
+          <t xml:space="preserve"> No, I I mean I was on the phone and th, there was a knock at the door and this woman came round and said she was from from _the_ Marky!; </t>
         </is>
       </c>
     </row>
@@ -26636,7 +26636,7 @@
       </c>
       <c r="C1747" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well if they 've applied in ø time they can get a p ø postal vote.; </t>
+          <t xml:space="preserve"> Well if they 've applied in ø time they can get _a_ p ø postal vote.; </t>
         </is>
       </c>
     </row>
@@ -26681,7 +26681,7 @@
       </c>
       <c r="C1750" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And you used to when you got home from ø school follow the plough and furring the the ware into the into the furrow.; </t>
+          <t xml:space="preserve"> And you used to when you got home from ø school follow the plough and furring _the_ the ware into the into the furrow.; </t>
         </is>
       </c>
     </row>
@@ -26726,7 +26726,7 @@
       </c>
       <c r="C1753" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Are you allowed a pair and a three?; </t>
+          <t xml:space="preserve"> Are you allowed _a_ pair and a three?; </t>
         </is>
       </c>
     </row>
@@ -26771,7 +26771,7 @@
       </c>
       <c r="C1756" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes leave a page.; </t>
+          <t xml:space="preserve"> Yes leave _a_ page.; </t>
         </is>
       </c>
     </row>
@@ -26816,7 +26816,7 @@
       </c>
       <c r="C1759" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I think the thing that worries me most is that later on, he did n't manage it too well, a lot of ø other things were going wrong in his life, and at that point the name calling continued, and the stuff that maybe was n't so hurtful early on seemed to become very hurtful then.; </t>
+          <t xml:space="preserve"> I think _the_ thing that worries me most is that later on, he did n't manage it too well, a lot of ø other things were going wrong in his life, and at that point the name calling continued, and the stuff that maybe was n't so hurtful early on seemed to become very hurtful then.; </t>
         </is>
       </c>
     </row>
@@ -26861,7 +26861,7 @@
       </c>
       <c r="C1762" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well the red car in n it?; </t>
+          <t xml:space="preserve"> Well _the_ red car in n it?; </t>
         </is>
       </c>
     </row>
@@ -26906,7 +26906,7 @@
       </c>
       <c r="C1765" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So I I accept there are a number of ø items here which I discussed with the chairman and he agreed to.; </t>
+          <t xml:space="preserve"> So I I accept there are a number of _ø_ items here which I discussed with the chairman and he agreed to.; </t>
         </is>
       </c>
     </row>
@@ -26951,7 +26951,7 @@
       </c>
       <c r="C1768" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Short of actually some sort of ø war breaking out or some an incident breaking out whilst we were on the ground, I suppose they might have actually apprehended us, but otherwise I think the chances of anything happening to the people, or Ted ø Heath, who were out there were very, very slim.; </t>
+          <t xml:space="preserve"> Short of actually some sort of ø war breaking out or some an incident breaking out whilst we were on the ground, I suppose they might have actually apprehended us, but otherwise I think the chances of anything happening to the people, or Ted _ø_ Heath, who were out there were very, very slim.; </t>
         </is>
       </c>
     </row>
@@ -26996,7 +26996,7 @@
       </c>
       <c r="C1771" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No, Well, the book in her own time, produced these eight books of which four we 're going to put into ø print.; </t>
+          <t xml:space="preserve"> No, Well, _the_ book in her own time, produced these eight books of which four we 're going to put into ø print.; </t>
         </is>
       </c>
     </row>
@@ -27041,7 +27041,7 @@
       </c>
       <c r="C1774" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Let's face it, it 's the largest amount we spend in this council, is ø money spent on our employees.; </t>
+          <t xml:space="preserve"> Let's face it, it 's the largest amount we spend in this council, is _ø_ money spent on our employees.; </t>
         </is>
       </c>
     </row>
@@ -27086,7 +27086,7 @@
       </c>
       <c r="C1777" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They are a slightly weird family.; </t>
+          <t xml:space="preserve"> They are _a_ slightly weird family.; </t>
         </is>
       </c>
     </row>
@@ -27131,7 +27131,7 @@
       </c>
       <c r="C1780" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Your mind starts, and the trouble is, it starts overtaking your life.; </t>
+          <t xml:space="preserve"> Your mind starts, and _the_ trouble is, it starts overtaking your life.; </t>
         </is>
       </c>
     </row>
@@ -27176,7 +27176,7 @@
       </c>
       <c r="C1783" t="inlineStr">
         <is>
-          <t xml:space="preserve"> he was saying all the sort say at ø work you know that they they do n't know and they start on about er You have been a.; </t>
+          <t xml:space="preserve"> he was saying all the sort say at _ø_ work you know that they they do n't know and they start on about er You have been a.; </t>
         </is>
       </c>
     </row>
@@ -27221,7 +27221,7 @@
       </c>
       <c r="C1786" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We put it in the second bag, and that 's now four blue and three red.; </t>
+          <t xml:space="preserve"> We put it in _the_ second bag, and that 's now four blue and three red.; </t>
         </is>
       </c>
     </row>
@@ -27266,7 +27266,7 @@
       </c>
       <c r="C1789" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I think that 's an ex carriage actually, but it makes you realize how small these things were.; </t>
+          <t xml:space="preserve"> I think that 's _an_ ex carriage actually, but it makes you realize how small these things were.; </t>
         </is>
       </c>
     </row>
@@ -27311,7 +27311,7 @@
       </c>
       <c r="C1792" t="inlineStr">
         <is>
-          <t xml:space="preserve"> where it ha it gets a reaction between the audience and the erm, Right, because in there, if you pay ø fifteen pounds, you get erm, you get ø tickets for, you know you only have to pay ø four pounds, plus you get half price tickets for When did you see that, Phil?; </t>
+          <t xml:space="preserve"> where it ha it gets a reaction between the audience and _the_ erm, Right, because in there, if you pay ø fifteen pounds, you get erm, you get ø tickets for, you know you only have to pay ø four pounds, plus you get half price tickets for When did you see that, Phil?; </t>
         </is>
       </c>
     </row>
@@ -27356,7 +27356,7 @@
       </c>
       <c r="C1795" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But if this motion is successful and a working party is established, one of the conclusions that we might reach is that General Secretaries should keep their ø sticky fingers off ø shops steward's commissions.; </t>
+          <t xml:space="preserve"> But if this motion is successful and a working party is established, one of the conclusions that we might reach is that General Secretaries should keep their ø sticky fingers off _ø_ shops steward's commissions.; </t>
         </is>
       </c>
     </row>
@@ -27401,7 +27401,7 @@
       </c>
       <c r="C1798" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But I have actually slept top-to-tail when we 've had ø parties and it 's too late for the lads to go home, now just get into the bed top-to-tail and keep each other warm so that the winter and yeah What about the rooms downstairs what were?; </t>
+          <t xml:space="preserve"> But I have actually slept top-to-tail when we 've had ø parties and it 's too late for the lads to go home, now just get into _the_ bed top-to-tail and keep each other warm so that the winter and yeah What about the rooms downstairs what were?; </t>
         </is>
       </c>
     </row>
@@ -27446,7 +27446,7 @@
       </c>
       <c r="C1801" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er er th th this is this is supposed to be the er the next stage of the travel agents contacting us.; </t>
+          <t xml:space="preserve"> Er er th th this is this is supposed to be _the_ er the next stage of the travel agents contacting us.; </t>
         </is>
       </c>
     </row>
@@ -27491,7 +27491,7 @@
       </c>
       <c r="C1804" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You 're a good lad ai n't you ø mate?; </t>
+          <t xml:space="preserve"> You 're a good lad ai n't you _ø_ mate?; </t>
         </is>
       </c>
     </row>
@@ -27536,7 +27536,7 @@
       </c>
       <c r="C1807" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You have to hold the buggy or you have to.; </t>
+          <t xml:space="preserve"> You have to hold _the_ buggy or you have to.; </t>
         </is>
       </c>
     </row>
@@ -27581,7 +27581,7 @@
       </c>
       <c r="C1810" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It is but then er there are many schemes that er we have that do n't have as good a rate of ø return as the the blue route, that is an extremely healthy economic rate of ø return for the outer northern blue route.; </t>
+          <t xml:space="preserve"> It is but then er there are many schemes that er we have that do n't have as good a rate of ø return as the _the_ blue route, that is an extremely healthy economic rate of ø return for the outer northern blue route.; </t>
         </is>
       </c>
     </row>
@@ -27626,7 +27626,7 @@
       </c>
       <c r="C1813" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So you would n't just push it all out, and how do you discuss ø new educational reforms if you have n't any idea about the original previous Yes.; </t>
+          <t xml:space="preserve"> So you would n't just push it all out, and how do you discuss _ø_ new educational reforms if you have n't any idea about the original previous Yes.; </t>
         </is>
       </c>
     </row>
@@ -27671,7 +27671,7 @@
       </c>
       <c r="C1816" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He did n't know which one it was he just knew it wa was a European rider.; </t>
+          <t xml:space="preserve"> He did n't know which one it was he just knew it wa was _a_ European rider.; </t>
         </is>
       </c>
     </row>
@@ -27716,7 +27716,7 @@
       </c>
       <c r="C1819" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You were just saying, you know, that we should just walk in the streets and ø things like, but I would just not walk out in the streets at ø night, I 've got to be in the car with the doors locked and, and I just would n't walk out in the streets at ø night, not because any thing has happened to me, but its just through what I 've heard, I 'm just terrified.; </t>
+          <t xml:space="preserve"> You were just saying, you know, that we should just walk in the streets and ø things like, but I would just not walk out in the streets at _ø_ night, I 've got to be in the car with the doors locked and, and I just would n't walk out in the streets at ø night, not because any thing has happened to me, but its just through what I 've heard, I 'm just terrified.; </t>
         </is>
       </c>
     </row>
@@ -27761,7 +27761,7 @@
       </c>
       <c r="C1822" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You probably had one like that, I 've got about twenty in the c ø drawer at ø home.; </t>
+          <t xml:space="preserve"> You probably had one like that, I 've got about twenty in the c ø drawer at _ø_ home.; </t>
         </is>
       </c>
     </row>
@@ -27806,7 +27806,7 @@
       </c>
       <c r="C1825" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well I think Simon for doing it is a really excellent way of doing it, it states the source of ø items, ø suggestions or ø quiffs, and makes a proposal erm, which we can debate agreed, and then it 's for ø clear instructions to what needs to be changed on the procedure.; </t>
+          <t xml:space="preserve"> Well I think Simon for doing it is a really excellent way of doing it, it states the source of ø items, ø suggestions or _ø_ quiffs, and makes a proposal erm, which we can debate agreed, and then it 's for ø clear instructions to what needs to be changed on the procedure.; </t>
         </is>
       </c>
     </row>
@@ -27851,7 +27851,7 @@
       </c>
       <c r="C1828" t="inlineStr">
         <is>
-          <t xml:space="preserve"> She, with the little one she 's er er told her Yes.; </t>
+          <t xml:space="preserve"> She, with _the_ little one she 's er er told her Yes.; </t>
         </is>
       </c>
     </row>
@@ -27896,7 +27896,7 @@
       </c>
       <c r="C1831" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strange to see Swindon in the snow and Sweden in ø bright sunshine.; </t>
+          <t xml:space="preserve"> Strange to see Swindon in _the_ snow and Sweden in ø bright sunshine.; </t>
         </is>
       </c>
     </row>
@@ -27941,7 +27941,7 @@
       </c>
       <c r="C1834" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh I think there 's one a month, we had one ø last week Ah about one a month I 'm told, I think we 'll keep 'em like, we 've had one or two ø little bits and we 've taken 'em down you know and Yeah, that 's the best way really yeah amazing where it all comes from Well it 's to be all really that somebody can make a use of these things in n it?; </t>
+          <t xml:space="preserve"> Oh I think there 's one a month, we had one ø last week Ah about one _a_ month I 'm told, I think we 'll keep 'em like, we 've had one or two ø little bits and we 've taken 'em down you know and Yeah, that 's the best way really yeah amazing where it all comes from Well it 's to be all really that somebody can make a use of these things in n it?; </t>
         </is>
       </c>
     </row>
@@ -27986,7 +27986,7 @@
       </c>
       <c r="C1837" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Action is needed now, to both tackle the backlog and deter more ø bogus applications coming in.; </t>
+          <t xml:space="preserve"> _ø_ Action is needed now, to both tackle the backlog and deter more ø bogus applications coming in.; </t>
         </is>
       </c>
     </row>
@@ -28031,7 +28031,7 @@
       </c>
       <c r="C1840" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There was a hint that this was a short term strategy, Mao at the seventh ø national congress in April nineteen forty five argued the C C P has made a major concession to land to the tiller.; </t>
+          <t xml:space="preserve"> There was a hint that this was a short term strategy, Mao at the seventh ø national congress in April nineteen forty five argued the C C P has made a major concession to land to _the_ tiller.; </t>
         </is>
       </c>
     </row>
@@ -28076,7 +28076,7 @@
       </c>
       <c r="C1843" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Right, it 's I 'm breaking it down to the cake again.; </t>
+          <t xml:space="preserve"> Right, it 's I 'm breaking it down to _the_ cake again.; </t>
         </is>
       </c>
     </row>
@@ -28121,7 +28121,7 @@
       </c>
       <c r="C1846" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Is it, perhaps, that he controlling ø group always knew that they would not be able to achieve the original levels of ø spend but, like ø true socialists, did not much care?; </t>
+          <t xml:space="preserve"> Is it, perhaps, that he controlling ø group always knew that they would not be able to achieve the original levels of ø spend but, like _ø_ true socialists, did not much care?; </t>
         </is>
       </c>
     </row>
@@ -28166,7 +28166,7 @@
       </c>
       <c r="C1849" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah Yeah, nice there 's a baby look Yeah Yeah ø nanny nanny water Baby wants to come out ø Mummy do n't do that Hello Hello ø baby 's warm, hey you got a plaster on, said she 's got a plaster on his head Yeah yeah, there he is yeah, you can go ok watch her actually because er, she went right back up on these bloody chairs this afternoon, I mean she really cried, oh course I mean she, oh when Catherine come in I mean she 'd not long done it, then she nodded off to sleep I said oh they always say you should try, I mean I There you are ø daddy was patting her back, trying to wake her up all the time Catherine said she 'd probably be alright, I mean she woke, she would have been tired anyway, you know what I mean, especially after ø swimming, the water they gave ø bath water, it 's not like the Oh I have to erm see if you can go actually, erm that 's a weekend I 'm not sure when it 's open for anybody, cos they do ever such a lot of ø classes, they do ø scuba diving there as well What 's that?; </t>
+          <t xml:space="preserve"> Yeah Yeah, nice there 's a baby look Yeah Yeah ø nanny nanny water Baby wants to come out ø Mummy do n't do that Hello Hello ø baby 's warm, hey you got a plaster on, said she 's got a plaster on his head Yeah yeah, there he is yeah, you can go ok watch her actually because er, she went right back up on these bloody chairs this afternoon, I mean she really cried, oh course I mean she, oh when Catherine come in I mean she 'd not long done it, then she nodded off to sleep I said oh they always say you should try, I mean I There you are ø daddy was patting her back, trying to wake her up all the time Catherine said she 'd probably be alright, I mean she woke, she would have been tired anyway, you know what I mean, especially after ø swimming, the water they gave ø bath water, it 's not like the Oh I have to erm see if you can go actually, erm that 's _a_ weekend I 'm not sure when it 's open for anybody, cos they do ever such a lot of ø classes, they do ø scuba diving there as well What 's that?; </t>
         </is>
       </c>
     </row>
@@ -28211,7 +28211,7 @@
       </c>
       <c r="C1852" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Twelve out of sixteen ø separate hospital sites within the northern region were included.; </t>
+          <t xml:space="preserve"> Twelve out of sixteen ø separate hospital sites within _the_ northern region were included.; </t>
         </is>
       </c>
     </row>
@@ -28256,7 +28256,7 @@
       </c>
       <c r="C1855" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shall we do a crossword?; </t>
+          <t xml:space="preserve"> Shall we do _a_ crossword?; </t>
         </is>
       </c>
     </row>
@@ -28301,7 +28301,7 @@
       </c>
       <c r="C1858" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We 've also seen it happening, to an extent in ø properties in Bishopsfield as well erm I really think we need to get to ø grips with what we seem to be doing, which de-counting ø people prematurely early er, in ø response to, to housing ø developments which we are planning to undertake in in ø partnership with ø other people and leaving ourselves open to this and not Well what could we be doing you tell yourself,.; </t>
+          <t xml:space="preserve"> We 've also seen it happening, to an extent in ø properties in Bishopsfield as well erm I really think we need to get to ø grips with what we seem to be doing, which de-counting ø people prematurely early er, in _ø_ response to, to housing ø developments which we are planning to undertake in in ø partnership with ø other people and leaving ourselves open to this and not Well what could we be doing you tell yourself,.; </t>
         </is>
       </c>
     </row>
@@ -28346,7 +28346,7 @@
       </c>
       <c r="C1861" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I 've got it on this tape about ø fifteen times cos everybody supports Arsenal, I said ø stays in the cup longer.; </t>
+          <t xml:space="preserve"> I 've got it on this tape about _ø_ fifteen times cos everybody supports Arsenal, I said ø stays in the cup longer.; </t>
         </is>
       </c>
     </row>
@@ -28391,7 +28391,7 @@
       </c>
       <c r="C1864" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm, if you erm, maybe erase ø part of ø entries of the spreadsheet, you think, oh that 's going to free up a lot of ø memory, er, probably it wo n't.; </t>
+          <t xml:space="preserve"> Erm, if you erm, maybe erase ø part of _ø_ entries of the spreadsheet, you think, oh that 's going to free up a lot of ø memory, er, probably it wo n't.; </t>
         </is>
       </c>
     </row>
@@ -28436,7 +28436,7 @@
       </c>
       <c r="C1867" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Have we coped with the very different needs demanded in ø small groupings of ø workers based in ø small shops, or ø residential homes, or ø private sports centres, ø small offices or even ø individuals working on their own?; </t>
+          <t xml:space="preserve"> Have we coped with _the_ very different needs demanded in ø small groupings of ø workers based in ø small shops, or ø residential homes, or ø private sports centres, ø small offices or even ø individuals working on their own?; </t>
         </is>
       </c>
     </row>
@@ -28481,7 +28481,7 @@
       </c>
       <c r="C1870" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mrs A had somebody Mrs B Mrs C Mrs D. they were always they were swept every day and at the weekends.; </t>
+          <t xml:space="preserve"> Mrs A had somebody Mrs B Mrs C Mrs D. they were always they were swept every day and at _the_ weekends.; </t>
         </is>
       </c>
     </row>
@@ -28526,7 +28526,7 @@
       </c>
       <c r="C1873" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm and what about the six, that 's where that comes in and starts confusing ø things is n't it?; </t>
+          <t xml:space="preserve"> Erm and what about _the_ six, that 's where that comes in and starts confusing ø things is n't it?; </t>
         </is>
       </c>
     </row>
@@ -28571,7 +28571,7 @@
       </c>
       <c r="C1876" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yo Yes not one not once not one but two Oh that 's awful Oh dear You 'd thought that these houses could of least put a bit of ø paint on Why?; </t>
+          <t xml:space="preserve"> Yo Yes not one not once not one but two Oh that 's awful Oh dear You 'd thought that these houses could of least put a bit of _ø_ paint on Why?; </t>
         </is>
       </c>
     </row>
@@ -28616,7 +28616,7 @@
       </c>
       <c r="C1879" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Even to spell it And gradually the in the first place Yeah.; </t>
+          <t xml:space="preserve"> Even to spell it And gradually the in _the_ first place Yeah.; </t>
         </is>
       </c>
     </row>
@@ -28661,7 +28661,7 @@
       </c>
       <c r="C1882" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But on a but there 's nothing ready of ø course, so th there 's, there 's a giant sundial they 're going to have in one of the courtyards and it 's a giant one it 's, it 's the, the building and the blocks of ø things in, in the in the courtyard that make up the the time.; </t>
+          <t xml:space="preserve"> But on a but there 's nothing ready of ø course, so th there 's, there 's a giant sundial they 're going to have in one of the courtyards and it 's a giant one it 's, it 's the, the building and _the_ blocks of ø things in, in the in the courtyard that make up the the time.; </t>
         </is>
       </c>
     </row>
@@ -28706,7 +28706,7 @@
       </c>
       <c r="C1885" t="inlineStr">
         <is>
-          <t xml:space="preserve"> To get a higher lump sum.; </t>
+          <t xml:space="preserve"> To get _a_ higher lump sum.; </t>
         </is>
       </c>
     </row>
@@ -28751,7 +28751,7 @@
       </c>
       <c r="C1888" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It goes on there, well done, let's turn it round and see the whole, ø whole thing, there you are, there 's a great big picture of with his tail falling off, there we go.; </t>
+          <t xml:space="preserve"> It goes on there, well done, let's turn it round and see _the_ whole, ø whole thing, there you are, there 's a great big picture of with his tail falling off, there we go.; </t>
         </is>
       </c>
     </row>
@@ -28796,7 +28796,7 @@
       </c>
       <c r="C1891" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Do n't you worry about that, Ruthie 's the hostess.; </t>
+          <t xml:space="preserve"> Do n't you worry about that, Ruthie 's _the_ hostess.; </t>
         </is>
       </c>
     </row>
@@ -28841,7 +28841,7 @@
       </c>
       <c r="C1894" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It was a national union, but it was a crime more or less with some bosses to belong to a trade union.; </t>
+          <t xml:space="preserve"> It was a national union, but it was _a_ crime more or less with some bosses to belong to a trade union.; </t>
         </is>
       </c>
     </row>
@@ -28886,7 +28886,7 @@
       </c>
       <c r="C1897" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm I think it it is beneficial mainly in the sense that erm if nothing more than running round the vehicle to make sure there are no marks and ø bangs and ø scratches on it which you 're going to inherit from the the previous run that it had er with a different driver perhaps.; </t>
+          <t xml:space="preserve"> Erm I think it it is beneficial mainly in the sense that erm if nothing more than running round the vehicle to make sure there are no marks and ø bangs and ø scratches on it which you 're going to inherit from _the_ the previous run that it had er with a different driver perhaps.; </t>
         </is>
       </c>
     </row>
@@ -28931,7 +28931,7 @@
       </c>
       <c r="C1900" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Is that for one then or Yeah, no one.; </t>
+          <t xml:space="preserve"> Is that for one then or Yeah, _no_ one.; </t>
         </is>
       </c>
     </row>
@@ -28976,7 +28976,7 @@
       </c>
       <c r="C1903" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's that 's like erm when we had a new girl once we put on the card BANW banw.; </t>
+          <t xml:space="preserve"> That 's that 's like erm when we had a new girl once we put on _the_ card BANW banw.; </t>
         </is>
       </c>
     </row>
@@ -29021,7 +29021,7 @@
       </c>
       <c r="C1906" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah but when we had a when we had And the endowment you ca n't extend it.; </t>
+          <t xml:space="preserve"> Yeah but when we had a when we had And _the_ endowment you ca n't extend it.; </t>
         </is>
       </c>
     </row>
@@ -29066,7 +29066,7 @@
       </c>
       <c r="C1909" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So you saw you 've seen Jackie's photo in the Oh that 's what I was gon na say then ah!; </t>
+          <t xml:space="preserve"> So you saw you 've seen Jackie's photo in _the_ Oh that 's what I was gon na say then ah!; </t>
         </is>
       </c>
     </row>
@@ -29111,7 +29111,7 @@
       </c>
       <c r="C1912" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Put another N. I said read the bloody words then and she said oh I never read the words she said I looks at the pictures.; </t>
+          <t xml:space="preserve"> Put another N. I said read the bloody words then and she said oh I never read _the_ words she said I looks at the pictures.; </t>
         </is>
       </c>
     </row>
@@ -29156,7 +29156,7 @@
       </c>
       <c r="C1915" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We need an urgent review, maybe less papers but more information on ø rights lost and what ø Labour policies are for the future.; </t>
+          <t xml:space="preserve"> We need _an_ urgent review, maybe less papers but more information on ø rights lost and what ø Labour policies are for the future.; </t>
         </is>
       </c>
     </row>
@@ -29201,7 +29201,7 @@
       </c>
       <c r="C1918" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well they 've got a good pint of ø Ruddles.; </t>
+          <t xml:space="preserve"> Well they 've got _a_ good pint of ø Ruddles.; </t>
         </is>
       </c>
     </row>
@@ -29246,7 +29246,7 @@
       </c>
       <c r="C1921" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And while I 'm talking ø Labour running, I notice that the original seconder if this motion was ø one Councillor, the former arch cash-cutter of ø Social Services will never be allowed to forget that she cut the Social Services budget by one tenth.; </t>
+          <t xml:space="preserve"> And while I 'm talking ø Labour running, I notice that the original seconder if this motion was ø one Councillor, _the_ former arch cash-cutter of ø Social Services will never be allowed to forget that she cut the Social Services budget by one tenth.; </t>
         </is>
       </c>
     </row>
@@ -29291,7 +29291,7 @@
       </c>
       <c r="C1924" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gosh Mm Oh the moor is visible again.; </t>
+          <t xml:space="preserve"> Gosh Mm Oh _the_ moor is visible again.; </t>
         </is>
       </c>
     </row>
@@ -29336,7 +29336,7 @@
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cos Mark's going in one, Sally 's going in the other.; </t>
+          <t xml:space="preserve"> Cos Mark's going in one, Sally 's going in _the_ other.; </t>
         </is>
       </c>
     </row>
@@ -29381,7 +29381,7 @@
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The only year where they coincide is nineteen twenty, the great erm ø influenza epidemic actually killed more people than the first world war, and er as you 'll see, despite ø increasing trends in ø health care which have reduced the overall rate, the difference in ø death rate between ø males and ø females has remained in the same or, if anything, widened slightly in ø recent years.; </t>
+          <t xml:space="preserve"> The only year where they coincide is nineteen twenty, the great erm ø influenza epidemic actually killed more people than the first world war, and er as you 'll see, despite ø increasing trends in ø health care which have reduced the overall rate, the difference in ø death rate between ø males and ø females has remained in the same or, if anything, widened slightly in _ø_ recent years.; </t>
         </is>
       </c>
     </row>
@@ -29426,7 +29426,7 @@
       </c>
       <c r="C1933" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Never had a there.; </t>
+          <t xml:space="preserve"> Never had _a_ there.; </t>
         </is>
       </c>
     </row>
@@ -29471,7 +29471,7 @@
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In ø fact, his life was a life of ø crime.; </t>
+          <t xml:space="preserve"> In ø fact, his life was a life of _ø_ crime.; </t>
         </is>
       </c>
     </row>
@@ -29516,7 +29516,7 @@
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Redo the thread back on and turn it into a socket frequently used by the victim and get the hell out.; </t>
+          <t xml:space="preserve"> Redo the thread back on and turn it into a socket frequently used by the victim and get _the_ hell out.; </t>
         </is>
       </c>
     </row>
@@ -29561,7 +29561,7 @@
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I I would be happier having ø hair, there 's no doubt about that.; </t>
+          <t xml:space="preserve"> I I would be happier having _ø_ hair, there 's no doubt about that.; </t>
         </is>
       </c>
     </row>
@@ -29606,7 +29606,7 @@
       </c>
       <c r="C1945" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No I 'd got me money, but not the list.; </t>
+          <t xml:space="preserve"> No I 'd got me money, but not _the_ list.; </t>
         </is>
       </c>
     </row>
@@ -29651,7 +29651,7 @@
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So it does n't these are all the same all comes to the same amount does n't it.; </t>
+          <t xml:space="preserve"> So it does n't these are all the same all comes to _the_ same amount does n't it.; </t>
         </is>
       </c>
     </row>
@@ -29696,7 +29696,7 @@
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's always the way it 's they 're just looking for ø accents erm ø trouble is in the, if it 's in the office and you 're talking anywhere in the house you ca n't hear No.; </t>
+          <t xml:space="preserve"> It 's always the way it 's they 're just looking for ø accents erm ø trouble is in the, if it 's in _the_ office and you 're talking anywhere in the house you ca n't hear No.; </t>
         </is>
       </c>
     </row>
@@ -29741,7 +29741,7 @@
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There 's not many people er do ø observations, or ø case the joint as you say.; </t>
+          <t xml:space="preserve"> There 's not many people er do ø observations, or _ø_ case the joint as you say.; </t>
         </is>
       </c>
     </row>
@@ -29786,7 +29786,7 @@
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So the answer is positive five Yeah.; </t>
+          <t xml:space="preserve"> So _the_ answer is positive five Yeah.; </t>
         </is>
       </c>
     </row>
@@ -29831,7 +29831,7 @@
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t xml:space="preserve"> An erm I 'm looking at a Christian Aid produced ø brochure called ø Trade for ø Change, which is the name of ø Christian Aid's campaign.; </t>
+          <t xml:space="preserve"> An erm I 'm looking at a Christian Aid produced _ø_ brochure called ø Trade for ø Change, which is the name of ø Christian Aid's campaign.; </t>
         </is>
       </c>
     </row>
@@ -29876,7 +29876,7 @@
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And also why you 've got to talk to ø people, you know get your problems out in the open rather than let them build up and all of a sudden just say right, that 's it, out the gates, or down ø tools.; </t>
+          <t xml:space="preserve"> And also why you 've got to talk to ø people, you know get your problems out in the open rather than let them build up and all of _a_ sudden just say right, that 's it, out the gates, or down ø tools.; </t>
         </is>
       </c>
     </row>
@@ -29921,7 +29921,7 @@
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A standing ovation?; </t>
+          <t xml:space="preserve"> _A_ standing ovation?; </t>
         </is>
       </c>
     </row>
@@ -29966,7 +29966,7 @@
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, well apparently right well in ø case you did n't Well she 's got a theory but go on in ø case you did n't notice I was in rather a little bit of a mood on Friday!; </t>
+          <t xml:space="preserve"> Yeah, well apparently right well in ø case you did n't Well she 's got a theory but go on in ø case you did n't notice I was in rather a little bit of _a_ mood on Friday!; </t>
         </is>
       </c>
     </row>
@@ -30011,7 +30011,7 @@
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cos all the people in like, you know.; </t>
+          <t xml:space="preserve"> Cos all _the_ people in like, you know.; </t>
         </is>
       </c>
     </row>
@@ -30056,7 +30056,7 @@
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You 're a fool!; </t>
+          <t xml:space="preserve"> You 're _a_ fool!; </t>
         </is>
       </c>
     </row>
@@ -30101,7 +30101,7 @@
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's just a training log that 's linked up with the job spec, formalizes it a bit more.; </t>
+          <t xml:space="preserve"> It 's just _a_ training log that 's linked up with the job spec, formalizes it a bit more.; </t>
         </is>
       </c>
     </row>
@@ -30146,7 +30146,7 @@
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Use to have quite a day out there.; </t>
+          <t xml:space="preserve"> ø Use to have quite _a_ day out there.; </t>
         </is>
       </c>
     </row>
@@ -30191,7 +30191,7 @@
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What about the lady of the house?; </t>
+          <t xml:space="preserve"> What about the lady of _the_ house?; </t>
         </is>
       </c>
     </row>
@@ -30236,7 +30236,7 @@
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t xml:space="preserve"> One of them there was of the opinion who could quite easily lose his licence for it.; </t>
+          <t xml:space="preserve"> One of them there was of _the_ opinion who could quite easily lose his licence for it.; </t>
         </is>
       </c>
     </row>
@@ -30281,7 +30281,7 @@
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The whole legion of them from all sorts of ø different things, you know, there was the, the one about the, the secretary of the, of the club, the secretary of some organization, ø youth organization, said, in her ø annual reports, commented on how many young girls they 'd managed to get in the club that year.; </t>
+          <t xml:space="preserve"> The whole legion of them from all sorts of ø different things, you know, there was the, the one about the, the secretary of the, of the club, the secretary of some organization, ø youth organization, said, in her ø annual reports, commented on how many young girls they 'd managed to get in _the_ club that year.; </t>
         </is>
       </c>
     </row>
@@ -30326,7 +30326,7 @@
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And you want a square and ø mummy want a square.; </t>
+          <t xml:space="preserve"> And you want _a_ square and ø mummy want a square.; </t>
         </is>
       </c>
     </row>
@@ -30371,7 +30371,7 @@
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well you You ø sound like your mum and ø dad criticizing the music, you know.; </t>
+          <t xml:space="preserve"> Well you You ø sound like your mum and _ø_ dad criticizing the music, you know.; </t>
         </is>
       </c>
     </row>
@@ -30416,7 +30416,7 @@
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In ø accordance with ø standing order A twelve C enforced at the time, ø Councillor m ø notice of ø motion on ø car parking was referred to the Cou by the Council on the twenty third of April 1991 to the Community and ø Environment Services Committee.; </t>
+          <t xml:space="preserve"> In ø accordance with ø standing order A twelve C enforced at the time, ø Councillor m ø notice of ø motion on ø car parking was referred to the Cou by the Council on the twenty third of April 1991 to _the_ Community and ø Environment Services Committee.; </t>
         </is>
       </c>
     </row>
@@ -30461,7 +30461,7 @@
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Come on let's go, oh ø goodness Yeah, have a game if you like It wo n't, will it?; </t>
+          <t xml:space="preserve"> Come on let's go, oh _ø_ goodness Yeah, have a game if you like It wo n't, will it?; </t>
         </is>
       </c>
     </row>
@@ -30506,7 +30506,7 @@
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I, I ca n't remember the original plan.; </t>
+          <t xml:space="preserve"> I, I ca n't remember _the_ original plan.; </t>
         </is>
       </c>
     </row>
@@ -30551,7 +30551,7 @@
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Any advance on ø thirty pounds for the earrings?; </t>
+          <t xml:space="preserve"> Any advance on _ø_ thirty pounds for the earrings?; </t>
         </is>
       </c>
     </row>
@@ -30596,7 +30596,7 @@
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t xml:space="preserve"> John Harlow directed a series of ø films for British National, but probably his ø biggest success was While I Live which featured the very popular music the Dream of.; </t>
+          <t xml:space="preserve"> John Harlow directed a series of _ø_ films for British National, but probably his ø biggest success was While I Live which featured the very popular music the Dream of.; </t>
         </is>
       </c>
     </row>
@@ -30641,7 +30641,7 @@
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, but they reckon that this is the same shark, he 's killed twice now.; </t>
+          <t xml:space="preserve"> Yeah, but they reckon that this is _the_ same shark, he 's killed twice now.; </t>
         </is>
       </c>
     </row>
@@ -30686,7 +30686,7 @@
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It it does, it is a terribly material Mhm.; </t>
+          <t xml:space="preserve"> It it does, it is _a_ terribly material Mhm.; </t>
         </is>
       </c>
     </row>
@@ -30731,7 +30731,7 @@
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes but if they are alright you know the type of ø shoes you want.; </t>
+          <t xml:space="preserve"> Yes but if they are alright you know the type of _ø_ shoes you want.; </t>
         </is>
       </c>
     </row>
@@ -30776,7 +30776,7 @@
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's a very rough game Alexander.; </t>
+          <t xml:space="preserve"> It 's _a_ very rough game Alexander.; </t>
         </is>
       </c>
     </row>
@@ -30821,7 +30821,7 @@
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I 've got a red one of those!; </t>
+          <t xml:space="preserve"> I 've got _a_ red one of those!; </t>
         </is>
       </c>
     </row>
@@ -30866,7 +30866,7 @@
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm, ø replenishment until ten o'clock, er, get the warehouse, get the clear-out underway.; </t>
+          <t xml:space="preserve"> Erm, ø replenishment until ten o'clock, er, get _the_ warehouse, get the clear-out underway.; </t>
         </is>
       </c>
     </row>
@@ -30911,7 +30911,7 @@
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No use Okay.; </t>
+          <t xml:space="preserve"> _No_ use Okay.; </t>
         </is>
       </c>
     </row>
@@ -30956,7 +30956,7 @@
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I personally prefer to go to see them, at least the people that I like to see.; </t>
+          <t xml:space="preserve"> I personally prefer to go to see them, at least _the_ people that I like to see.; </t>
         </is>
       </c>
     </row>
@@ -31001,7 +31001,7 @@
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MacArthur did n't say to Truman hey you ca n't sack me, I 'm the emperor of Japan, no?; </t>
+          <t xml:space="preserve"> MacArthur did n't say to Truman hey you ca n't sack me, I 'm _the_ emperor of Japan, no?; </t>
         </is>
       </c>
     </row>
@@ -31046,7 +31046,7 @@
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh, we got plenty of ø help, and of ø course, it 's always been said that you do n't reveal a man 's past until he 's been found guilty of an offence, but our magistrates were all local shopkeepers you know know them as well.; </t>
+          <t xml:space="preserve"> Oh, we got plenty of ø help, and of ø course, it 's always been said that you do n't reveal _a_ man 's past until he 's been found guilty of an offence, but our magistrates were all local shopkeepers you know know them as well.; </t>
         </is>
       </c>
     </row>
@@ -31091,7 +31091,7 @@
       </c>
       <c r="C2044" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But it 's out on the balcony a lot.; </t>
+          <t xml:space="preserve"> But it 's out on the balcony _a_ lot.; </t>
         </is>
       </c>
     </row>
@@ -31136,7 +31136,7 @@
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They wo n't even walk down the road When, when you 're skiing in the Alps, it 's so hot, and you get, get such a lovely suntan.; </t>
+          <t xml:space="preserve"> They wo n't even walk down _the_ road When, when you 're skiing in the Alps, it 's so hot, and you get, get such a lovely suntan.; </t>
         </is>
       </c>
     </row>
@@ -31181,7 +31181,7 @@
       </c>
       <c r="C2050" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I 've worked with her now for nearly ø two years and I think she 'd do an excellent job.; </t>
+          <t xml:space="preserve"> I 've worked with her now for nearly _ø_ two years and I think she 'd do an excellent job.; </t>
         </is>
       </c>
     </row>
@@ -31226,7 +31226,7 @@
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And, I say to the Chief Officers of this Authority, that their that their proposed that their ø proposed claim of ø fourteen percent is nothing short of disgraceful.; </t>
+          <t xml:space="preserve"> And, I say to the Chief Officers of this Authority, that their that their proposed that their _ø_ proposed claim of ø fourteen percent is nothing short of disgraceful.; </t>
         </is>
       </c>
     </row>
@@ -31271,7 +31271,7 @@
       </c>
       <c r="C2056" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I mean, if you went to America and told them told a bu, ø American business man that to invest in this country because we 've got a lot of!; </t>
+          <t xml:space="preserve"> I mean, if you went to America and told them told _a_ bu, ø American business man that to invest in this country because we 've got a lot of!; </t>
         </is>
       </c>
     </row>
@@ -31316,7 +31316,7 @@
       </c>
       <c r="C2059" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And and took the bag out of me hands.; </t>
+          <t xml:space="preserve"> And and took _the_ bag out of me hands.; </t>
         </is>
       </c>
     </row>
@@ -31361,7 +31361,7 @@
       </c>
       <c r="C2062" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh I shall never regret Er I do n't know but I 'm just perhaps one on me own, but er it could n't have been better for because I was a freelance and er I wanted to learn and wanted to get on and they allowed me, they allowed me to do what I wanted.; </t>
+          <t xml:space="preserve"> Oh I shall never regret Er I do n't know but I 'm just perhaps one on me own, but er it could n't have been better for because I was _a_ freelance and er I wanted to learn and wanted to get on and they allowed me, they allowed me to do what I wanted.; </t>
         </is>
       </c>
     </row>
@@ -31406,7 +31406,7 @@
       </c>
       <c r="C2065" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Also that you used the vehicle without ø insurance being in ø force in ø respect of ø third party risks in ø contravention of ø section a hundred and forty three of the Road Traffic Act.; </t>
+          <t xml:space="preserve"> Also that you used the vehicle without ø insurance being in _ø_ force in ø respect of ø third party risks in ø contravention of ø section a hundred and forty three of the Road Traffic Act.; </t>
         </is>
       </c>
     </row>
@@ -31451,7 +31451,7 @@
       </c>
       <c r="C2068" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And at the training school Ron they will tell you exactly how we deal with those.; </t>
+          <t xml:space="preserve"> And at _the_ training school Ron they will tell you exactly how we deal with those.; </t>
         </is>
       </c>
     </row>
@@ -31496,7 +31496,7 @@
       </c>
       <c r="C2071" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So ø maps to ø nearest integer equal to or above, ø nearest integer greater than or equal to X. Erm Did I say it 's a one-one?; </t>
+          <t xml:space="preserve"> So _ø_ maps to ø nearest integer equal to or above, ø nearest integer greater than or equal to X. Erm Did I say it 's a one-one?; </t>
         </is>
       </c>
     </row>
@@ -31541,7 +31541,7 @@
       </c>
       <c r="C2074" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A wedding.; </t>
+          <t xml:space="preserve"> _A_ wedding.; </t>
         </is>
       </c>
     </row>
@@ -31586,7 +31586,7 @@
       </c>
       <c r="C2077" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's what I 'm saying we 've still got that massive box of ø keys that goes in there Well I did that we had from the day we opened and we 've never found them!; </t>
+          <t xml:space="preserve"> That 's what I 'm saying we 've still got that massive box of _ø_ keys that goes in there Well I did that we had from the day we opened and we 've never found them!; </t>
         </is>
       </c>
     </row>
@@ -31631,7 +31631,7 @@
       </c>
       <c r="C2080" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And are you this morning applying for a protection in ø respect of the Vigitalle Yes.; </t>
+          <t xml:space="preserve"> And are you this morning applying for _a_ protection in ø respect of the Vigitalle Yes.; </t>
         </is>
       </c>
     </row>
@@ -31676,7 +31676,7 @@
       </c>
       <c r="C2083" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I used to go in the dark.; </t>
+          <t xml:space="preserve"> I used to go in _the_ dark.; </t>
         </is>
       </c>
     </row>
@@ -31721,7 +31721,7 @@
       </c>
       <c r="C2086" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anyway, I 'm going to get ready or we 'll never get the shopping done before you go to ø work.; </t>
+          <t xml:space="preserve"> Anyway, I 'm going to get ready or we 'll never get the shopping done before you go to _ø_ work.; </t>
         </is>
       </c>
     </row>
@@ -31766,7 +31766,7 @@
       </c>
       <c r="C2089" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thought he placed his hand on the ball anyway he 's got away with it and Phillips at the other end is under ø pressure from Speedy and that 's a corner off ø Chettle.; </t>
+          <t xml:space="preserve"> Thought he placed his hand on _the_ ball anyway he 's got away with it and Phillips at the other end is under ø pressure from Speedy and that 's a corner off ø Chettle.; </t>
         </is>
       </c>
     </row>
@@ -31811,7 +31811,7 @@
       </c>
       <c r="C2092" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It was a good supply of ø used engine oil and ø hundred octane available, so we did it.; </t>
+          <t xml:space="preserve"> It was a good supply of _ø_ used engine oil and ø hundred octane available, so we did it.; </t>
         </is>
       </c>
     </row>
@@ -31856,7 +31856,7 @@
       </c>
       <c r="C2095" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the material Yes.; </t>
+          <t xml:space="preserve"> _the_ material Yes.; </t>
         </is>
       </c>
     </row>
@@ -31901,7 +31901,7 @@
       </c>
       <c r="C2098" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You got the whole room changed.; </t>
+          <t xml:space="preserve"> You got _the_ whole room changed.; </t>
         </is>
       </c>
     </row>
@@ -31946,7 +31946,7 @@
       </c>
       <c r="C2101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Do we want a five minute break.; </t>
+          <t xml:space="preserve"> Do we want _a_ five minute break.; </t>
         </is>
       </c>
     </row>
@@ -31991,7 +31991,7 @@
       </c>
       <c r="C2104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No wonder Nan can you see them Yes ø love.; </t>
+          <t xml:space="preserve"> No wonder Nan can you see them Yes _ø_ love.; </t>
         </is>
       </c>
     </row>
@@ -32036,7 +32036,7 @@
       </c>
       <c r="C2107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We had a Yes.; </t>
+          <t xml:space="preserve"> We had _a_ Yes.; </t>
         </is>
       </c>
     </row>
@@ -32081,7 +32081,7 @@
       </c>
       <c r="C2110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You ken it 's Well among the oldest houses on the island.; </t>
+          <t xml:space="preserve"> You ken it 's Well among the oldest houses on _the_ island.; </t>
         </is>
       </c>
     </row>
@@ -32126,7 +32126,7 @@
       </c>
       <c r="C2113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> no money and she said she 'd got, she 'd got a loan from the bank to pay her mummy for her That 's right.; </t>
+          <t xml:space="preserve"> no money and she said she 'd got, she 'd got _a_ loan from the bank to pay her mummy for her That 's right.; </t>
         </is>
       </c>
     </row>
@@ -32171,7 +32171,7 @@
       </c>
       <c r="C2116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah I had my disc removed but took ø two operations but Say it 'll take you a while wo n't it, to Well I had my ø first operation twentieth of August then I had another one the second of October.; </t>
+          <t xml:space="preserve"> Yeah I had my disc removed but took ø two operations but Say it 'll take you a while wo n't it, to Well I had my _ø_ first operation twentieth of August then I had another one the second of October.; </t>
         </is>
       </c>
     </row>
@@ -32216,7 +32216,7 @@
       </c>
       <c r="C2119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And er the subject matter of the, the lecture is ‘ Searching the heart of ø humanity, to find the common bond ’, which is of ø course, it 's, it 's just like my film ‘ ø Eternity ’, it 's a huge, you know, it creates a huge expectation, but I 'm not afraid to step in ø front of ø people now and, and er you know, ø present myself and say ‘ well let's ask the big question, let's, let's go for it, so er so it should be quite a lot of ø fun tomorrow.; </t>
+          <t xml:space="preserve"> And er the subject matter of the, the lecture is ‘ Searching the heart of ø humanity, to find the common bond ’, which is of _ø_ course, it 's, it 's just like my film ‘ ø Eternity ’, it 's a huge, you know, it creates a huge expectation, but I 'm not afraid to step in ø front of ø people now and, and er you know, ø present myself and say ‘ well let's ask the big question, let's, let's go for it, so er so it should be quite a lot of ø fun tomorrow.; </t>
         </is>
       </c>
     </row>
@@ -32261,7 +32261,7 @@
       </c>
       <c r="C2122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Would I actually want to read the next line, in ø terms of a press release?; </t>
+          <t xml:space="preserve"> Would I actually want to read the next line, in _ø_ terms of a press release?; </t>
         </is>
       </c>
     </row>
@@ -32306,7 +32306,7 @@
       </c>
       <c r="C2125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> than the other form.; </t>
+          <t xml:space="preserve"> than _the_ other form.; </t>
         </is>
       </c>
     </row>
@@ -32351,7 +32351,7 @@
       </c>
       <c r="C2128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I want to have a look at, at this first, or the, the other piece or would you like to Yeah, maybe.; </t>
+          <t xml:space="preserve"> I want to have _a_ look at, at this first, or the, the other piece or would you like to Yeah, maybe.; </t>
         </is>
       </c>
     </row>
@@ -32396,7 +32396,7 @@
       </c>
       <c r="C2131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You may as well put it in the water.; </t>
+          <t xml:space="preserve"> You may as well put it in _the_ water.; </t>
         </is>
       </c>
     </row>
@@ -32441,7 +32441,7 @@
       </c>
       <c r="C2134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm, I would like to propose, I 'm not ø sure correct form, that we minute this council's support and ø appreciation for the work of the county archivist, rather than just note the report.; </t>
+          <t xml:space="preserve"> Erm, I would like to propose, I 'm not ø sure correct form, that we minute this council's support and ø appreciation for the work of _the_ county archivist, rather than just note the report.; </t>
         </is>
       </c>
     </row>
@@ -32486,7 +32486,7 @@
       </c>
       <c r="C2137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I 'll have a leg.; </t>
+          <t xml:space="preserve"> I 'll have _a_ leg.; </t>
         </is>
       </c>
     </row>
@@ -32531,7 +32531,7 @@
       </c>
       <c r="C2140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They lost their right, last eight ø last season; so far this seas, ø season, they 've looked good, they 've got some new Americans there, Scott ø Golf, he 's playing well, the two minders, Mettassler and Stewart Thomas, they 've been superb, and Dan ø Prater, ø sharp shooter, oh, he could hit a ball from anywhere into that net.; </t>
+          <t xml:space="preserve"> They lost their right, last eight _ø_ last season; so far this seas, ø season, they 've looked good, they 've got some new Americans there, Scott ø Golf, he 's playing well, the two minders, Mettassler and Stewart Thomas, they 've been superb, and Dan ø Prater, ø sharp shooter, oh, he could hit a ball from anywhere into that net.; </t>
         </is>
       </c>
     </row>
@@ -32576,7 +32576,7 @@
       </c>
       <c r="C2143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You might as well just get a brown.; </t>
+          <t xml:space="preserve"> You might as well just get _a_ brown.; </t>
         </is>
       </c>
     </row>
@@ -32621,7 +32621,7 @@
       </c>
       <c r="C2146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and ø dad 's been away so I 've sold Peter a few cars.; </t>
+          <t xml:space="preserve"> and ø dad 's been away so I 've sold Peter _a_ few cars.; </t>
         </is>
       </c>
     </row>
@@ -32666,7 +32666,7 @@
       </c>
       <c r="C2149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> See, it 's like a league table.; </t>
+          <t xml:space="preserve"> See, it 's like _a_ league table.; </t>
         </is>
       </c>
     </row>
@@ -32711,7 +32711,7 @@
       </c>
       <c r="C2152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eight and a half.; </t>
+          <t xml:space="preserve"> Eight and _a_ half.; </t>
         </is>
       </c>
     </row>
@@ -32756,7 +32756,7 @@
       </c>
       <c r="C2155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There 's a thought for you.; </t>
+          <t xml:space="preserve"> There 's _a_ thought for you.; </t>
         </is>
       </c>
     </row>
@@ -32801,7 +32801,7 @@
       </c>
       <c r="C2158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You seem to know how it was, the old muscles, it feels like it 's pulling on Aye, that 's right because of, it 's all, they 're all very close together Dan.; </t>
+          <t xml:space="preserve"> You seem to know how it was, _the_ old muscles, it feels like it 's pulling on Aye, that 's right because of, it 's all, they 're all very close together Dan.; </t>
         </is>
       </c>
     </row>
@@ -32846,7 +32846,7 @@
       </c>
       <c r="C2161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And i it may be, for ø instance, erm that he may even have to intervene at the modification stage if something was going seriously wrong.; </t>
+          <t xml:space="preserve"> And i it may be, for _ø_ instance, erm that he may even have to intervene at the modification stage if something was going seriously wrong.; </t>
         </is>
       </c>
     </row>
@@ -32891,7 +32891,7 @@
       </c>
       <c r="C2164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> All those in ø favour of the proposals please ø show and all those against.; </t>
+          <t xml:space="preserve"> All those in _ø_ favour of the proposals please ø show and all those against.; </t>
         </is>
       </c>
     </row>
@@ -32936,7 +32936,7 @@
       </c>
       <c r="C2167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> See we er we tried to get and it was about ten to twelve so I thought, I thought Carole was n't coming till the next bus so I 'd go down and pick her up.; </t>
+          <t xml:space="preserve"> See we er we tried to get and it was about ten to twelve so I thought, I thought Carole was n't coming till _the_ next bus so I 'd go down and pick her up.; </t>
         </is>
       </c>
     </row>
@@ -32981,7 +32981,7 @@
       </c>
       <c r="C2170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No, cos you just remember the order that you went round the room in and.; </t>
+          <t xml:space="preserve"> No, cos you just remember _the_ order that you went round the room in and.; </t>
         </is>
       </c>
     </row>
@@ -33026,7 +33026,7 @@
       </c>
       <c r="C2173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And we had a nice coach this time.; </t>
+          <t xml:space="preserve"> And we had _a_ nice coach this time.; </t>
         </is>
       </c>
     </row>
@@ -33071,7 +33071,7 @@
       </c>
       <c r="C2176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Not only that, in the Far East where we 've got ø hands by the, the thousand compared to ours, they 've got these machines as well.; </t>
+          <t xml:space="preserve"> Not only that, in the Far East where we 've got ø hands by _the_, the thousand compared to ours, they 've got these machines as well.; </t>
         </is>
       </c>
     </row>
@@ -33116,7 +33116,7 @@
       </c>
       <c r="C2179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm was raised er, quite helpfully I thought, at the church council when it met erm at the end of ø last month.; </t>
+          <t xml:space="preserve"> Erm was raised er, quite helpfully I thought, at _the_ church council when it met erm at the end of ø last month.; </t>
         </is>
       </c>
     </row>
@@ -33161,7 +33161,7 @@
       </c>
       <c r="C2182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No no no no no not a trade, just to make you handy.; </t>
+          <t xml:space="preserve"> No no no no no not _a_ trade, just to make you handy.; </t>
         </is>
       </c>
     </row>
@@ -33206,7 +33206,7 @@
       </c>
       <c r="C2185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm tt you then moved into introduce the C C Q and after you 'd done that, then you got the, the willingness to proceed.; </t>
+          <t xml:space="preserve"> Erm tt you then moved into introduce the C C Q and after you 'd done that, then you got the, _the_ willingness to proceed.; </t>
         </is>
       </c>
     </row>
@@ -33251,7 +33251,7 @@
       </c>
       <c r="C2188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The relative importance given to the second half of this statement is crucial to the argument for a Cornish seat.; </t>
+          <t xml:space="preserve"> _The_ relative importance given to the second half of this statement is crucial to the argument for a Cornish seat.; </t>
         </is>
       </c>
     </row>
@@ -33296,7 +33296,7 @@
       </c>
       <c r="C2191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So let's have none of the crocodile tears about ø big business.; </t>
+          <t xml:space="preserve"> So let's have none of the crocodile tears about _ø_ big business.; </t>
         </is>
       </c>
     </row>
@@ -33341,7 +33341,7 @@
       </c>
       <c r="C2194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Let me remind the House again of what he said in our debate on the Government's proposals ø last year.; </t>
+          <t xml:space="preserve"> Let me remind _the_ House again of what he said in our debate on the Government's proposals ø last year.; </t>
         </is>
       </c>
     </row>
@@ -33386,7 +33386,7 @@
       </c>
       <c r="C2197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er but you can see the er the the engine shed as it was.; </t>
+          <t xml:space="preserve"> Er but you can see _the_ er the the engine shed as it was.; </t>
         </is>
       </c>
     </row>
@@ -33431,7 +33431,7 @@
       </c>
       <c r="C2200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They can write at ø home, they can write after ø school, they can read it to each other and I think this is ø tremendous benefit where they 're open with each other too and can discuss round the table and evaluate their own work.; </t>
+          <t xml:space="preserve"> They can write at ø home, they can write after ø school, they can read it to each other and I think this is ø tremendous benefit where they 're open with each other too and can discuss round _the_ table and evaluate their own work.; </t>
         </is>
       </c>
     </row>
@@ -33476,7 +33476,7 @@
       </c>
       <c r="C2203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> She should she should get sixty three so she 'll get a seventy three today, were it today you got it or Saturday?; </t>
+          <t xml:space="preserve"> She should she should get sixty three so she 'll get _a_ seventy three today, were it today you got it or Saturday?; </t>
         </is>
       </c>
     </row>
@@ -33521,7 +33521,7 @@
       </c>
       <c r="C2206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now the case.; </t>
+          <t xml:space="preserve"> Now _the_ case.; </t>
         </is>
       </c>
     </row>
@@ -33566,7 +33566,7 @@
       </c>
       <c r="C2209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But the lady's such a wimp though.; </t>
+          <t xml:space="preserve"> But the lady's such _a_ wimp though.; </t>
         </is>
       </c>
     </row>
@@ -33611,7 +33611,7 @@
       </c>
       <c r="C2212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Are we going to a hundred thousand then or what?; </t>
+          <t xml:space="preserve"> Are we going to _a_ hundred thousand then or what?; </t>
         </is>
       </c>
     </row>
@@ -33656,7 +33656,7 @@
       </c>
       <c r="C2215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And indeed it 's a sign of the times that I speak not with a mitre metaphorically upon my head but perhaps the glengarry of the convenorship of the Central Council of ø ACTS and therefore I am in ø part your servant here.; </t>
+          <t xml:space="preserve"> And indeed it 's a sign of the times that I speak not with a mitre metaphorically upon my head but perhaps the glengarry of the convenorship of _the_ Central Council of ø ACTS and therefore I am in ø part your servant here.; </t>
         </is>
       </c>
     </row>
@@ -33701,7 +33701,7 @@
       </c>
       <c r="C2218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This is ø excess mortality of er ø rates for ø males and ø females age one to four for ø different years of the twentieth century.; </t>
+          <t xml:space="preserve"> This is ø excess mortality of er ø rates for ø males and ø females age one to four for ø different years of _the_ twentieth century.; </t>
         </is>
       </c>
     </row>
@@ -33746,7 +33746,7 @@
       </c>
       <c r="C2221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It was no secret that at the time you were looking for John ø Alaysi perhaps to replace Bootsen ø next season.; </t>
+          <t xml:space="preserve"> It was _no_ secret that at the time you were looking for John ø Alaysi perhaps to replace Bootsen ø next season.; </t>
         </is>
       </c>
     </row>
@@ -33791,7 +33791,7 @@
       </c>
       <c r="C2224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I wonder if they have come up against a rapacity of the of the rates.; </t>
+          <t xml:space="preserve"> I wonder if they have come up against a rapacity of _the_ of the rates.; </t>
         </is>
       </c>
     </row>
@@ -33836,7 +33836,7 @@
       </c>
       <c r="C2227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The gentleman sat up here on my right now, thirty ø eight pound.; </t>
+          <t xml:space="preserve"> _The_ gentleman sat up here on my right now, thirty ø eight pound.; </t>
         </is>
       </c>
     </row>
@@ -33881,7 +33881,7 @@
       </c>
       <c r="C2230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You spent the same Erm same Try and get the same fractions Good the same fraction.; </t>
+          <t xml:space="preserve"> You spent the same Erm same Try and get the same fractions Good _the_ same fraction.; </t>
         </is>
       </c>
     </row>
@@ -33926,7 +33926,7 @@
       </c>
       <c r="C2233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It certainly dried quicker but the oilskin got very hard and it was no time till it when you were walking.; </t>
+          <t xml:space="preserve"> It certainly dried quicker but the oilskin got very hard and it was _no_ time till it when you were walking.; </t>
         </is>
       </c>
     </row>
@@ -33971,7 +33971,7 @@
       </c>
       <c r="C2236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah well that 's, that 's where they poured the fucking water over them.; </t>
+          <t xml:space="preserve"> Yeah well that 's, that 's where they poured _the_ fucking water over them.; </t>
         </is>
       </c>
     </row>
@@ -34016,7 +34016,7 @@
       </c>
       <c r="C2239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I read that as the dependants.; </t>
+          <t xml:space="preserve"> I read that as _the_ dependants.; </t>
         </is>
       </c>
     </row>
@@ -34061,7 +34061,7 @@
       </c>
       <c r="C2242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There was ø one resignation from the committee in June, Elise felt she could not longer continue as ø publicity officer and we asked Rosetta to step into that office.; </t>
+          <t xml:space="preserve"> There was ø one resignation from _the_ committee in June, Elise felt she could not longer continue as ø publicity officer and we asked Rosetta to step into that office.; </t>
         </is>
       </c>
     </row>
@@ -34106,7 +34106,7 @@
       </c>
       <c r="C2245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well obviously the Kuwaitis erm living outside live under a hardship, are living under a tremendous amount of ø pressure.; </t>
+          <t xml:space="preserve"> Well obviously the Kuwaitis erm living outside live under _a_ hardship, are living under a tremendous amount of ø pressure.; </t>
         </is>
       </c>
     </row>
@@ -34151,7 +34151,7 @@
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You 'll be going to ø prison in a minute!; </t>
+          <t xml:space="preserve"> You 'll be going to ø prison in _a_ minute!; </t>
         </is>
       </c>
     </row>
@@ -34196,7 +34196,7 @@
       </c>
       <c r="C2251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well it 's a and ø stuff like that, I mean But I mean I the reason I propose giving he has to do is come It 's embarrassing.; </t>
+          <t xml:space="preserve"> Well it 's _a_ and ø stuff like that, I mean But I mean I the reason I propose giving he has to do is come It 's embarrassing.; </t>
         </is>
       </c>
     </row>
@@ -34241,7 +34241,7 @@
       </c>
       <c r="C2254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The washing machine on.; </t>
+          <t xml:space="preserve"> _The_ washing machine on.; </t>
         </is>
       </c>
     </row>
@@ -34286,7 +34286,7 @@
       </c>
       <c r="C2257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I 'm sure a lot of, it it 'll not take as long to sort it out, because we 've broken.; </t>
+          <t xml:space="preserve"> I 'm sure _a_ lot of, it it 'll not take as long to sort it out, because we 've broken.; </t>
         </is>
       </c>
     </row>
@@ -34331,7 +34331,7 @@
       </c>
       <c r="C2260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But there 's no point in Not learning it about it now because it 's just as easy really.; </t>
+          <t xml:space="preserve"> But there 's _no_ point in Not learning it about it now because it 's just as easy really.; </t>
         </is>
       </c>
     </row>
@@ -34376,7 +34376,7 @@
       </c>
       <c r="C2263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Need a the, these Fiestas, but they never get them right at the, the bloke I works with got one exactly the same as this does exactly ø ten miles and it cuts out on him.; </t>
+          <t xml:space="preserve"> Need a the, these Fiestas, but they never get them right at the, the bloke I works with got one exactly the same as this does exactly _ø_ ten miles and it cuts out on him.; </t>
         </is>
       </c>
     </row>
@@ -34421,7 +34421,7 @@
       </c>
       <c r="C2266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Heroes in a.; </t>
+          <t xml:space="preserve"> ø Heroes in _a_.; </t>
         </is>
       </c>
     </row>
@@ -34466,7 +34466,7 @@
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Because it 's a feminine trait that ø women are, on the whole, far erm less easily aroused into ø combat.; </t>
+          <t xml:space="preserve"> Because it 's a feminine trait that _ø_ women are, on the whole, far erm less easily aroused into ø combat.; </t>
         </is>
       </c>
     </row>
@@ -34511,7 +34511,7 @@
       </c>
       <c r="C2272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There T H E R E. Right so here and there You just put a T at the front.; </t>
+          <t xml:space="preserve"> There T H E R E. Right so here and there You just put a T at _the_ front.; </t>
         </is>
       </c>
     </row>
@@ -34556,7 +34556,7 @@
       </c>
       <c r="C2275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So it remains to be seen whether we may have such a network, or perhaps even assuming that nearly all the cheap oil runs out, whether we might in ø fact manufacture ø petrol artificially from ø wood, ø coal, or ø gas, simply to provide the excellent fuel with its ø wonderful storage characteristics for ø long distance transport.; </t>
+          <t xml:space="preserve"> So it remains to be seen whether we may have such _a_ network, or perhaps even assuming that nearly all the cheap oil runs out, whether we might in ø fact manufacture ø petrol artificially from ø wood, ø coal, or ø gas, simply to provide the excellent fuel with its ø wonderful storage characteristics for ø long distance transport.; </t>
         </is>
       </c>
     </row>
@@ -34601,7 +34601,7 @@
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And the other one.; </t>
+          <t xml:space="preserve"> And _the_ other one.; </t>
         </is>
       </c>
     </row>
@@ -34646,7 +34646,7 @@
       </c>
       <c r="C2281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It was absolutely jam-packed full by the sta the standing, I did n't count them.; </t>
+          <t xml:space="preserve"> It was absolutely jam-packed full by _the_ sta the standing, I did n't count them.; </t>
         </is>
       </c>
     </row>
@@ -34691,7 +34691,7 @@
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er he 's a real action man, er and a great professional, and he lifts us all on Monday ø morning when we 've had a bad weekend er with his running and his enthusiasm.; </t>
+          <t xml:space="preserve"> Er he 's a real action man, er and a great professional, and he lifts us all on Monday ø morning when we 've had _a_ bad weekend er with his running and his enthusiasm.; </t>
         </is>
       </c>
     </row>
@@ -34736,7 +34736,7 @@
       </c>
       <c r="C2287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now, clearly, I will favour that, because now, B has a total of ø thirteen units of ø reproductive success and A has er, a total of ø eight units of ø reproductive success, because it 's lost some.; </t>
+          <t xml:space="preserve"> Now, clearly, I will favour that, because now, B has a total of ø thirteen units of _ø_ reproductive success and A has er, a total of ø eight units of ø reproductive success, because it 's lost some.; </t>
         </is>
       </c>
     </row>
@@ -34781,7 +34781,7 @@
       </c>
       <c r="C2290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And I 've eaten the other nana.; </t>
+          <t xml:space="preserve"> And I 've eaten _the_ other nana.; </t>
         </is>
       </c>
     </row>
@@ -34826,7 +34826,7 @@
       </c>
       <c r="C2293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I must admit, it 's never ever let me down but I mean, they know if ever they said I could n't have no money I 'd cause ø one hell of a stink you know!; </t>
+          <t xml:space="preserve"> I must admit, it 's never ever let me down but I mean, they know if ever they said I could n't have no money I 'd cause _ø_ one hell of a stink you know!; </t>
         </is>
       </c>
     </row>
@@ -34871,7 +34871,7 @@
       </c>
       <c r="C2296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er this of ø course will then improve the quality of the service which our customers receive.; </t>
+          <t xml:space="preserve"> Er this of ø course will then improve _the_ quality of the service which our customers receive.; </t>
         </is>
       </c>
     </row>
@@ -34916,7 +34916,7 @@
       </c>
       <c r="C2299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The road gets flooded when there 's ø heavy rain and I er I clean it out.; </t>
+          <t xml:space="preserve"> _The_ road gets flooded when there 's ø heavy rain and I er I clean it out.; </t>
         </is>
       </c>
     </row>
@@ -34961,7 +34961,7 @@
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This is up This is upsetting me more than the breathing job really.; </t>
+          <t xml:space="preserve"> This is up This is upsetting me more than _the_ breathing job really.; </t>
         </is>
       </c>
     </row>
@@ -35006,7 +35006,7 @@
       </c>
       <c r="C2305" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Against the lady at two forty, it 's in ø back row at two forty, it 's yours, ø sir at two forty.; </t>
+          <t xml:space="preserve"> Against the lady at two forty, it 's in ø back row at two forty, it 's yours, _ø_ sir at two forty.; </t>
         </is>
       </c>
     </row>
@@ -35051,7 +35051,7 @@
       </c>
       <c r="C2308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The bottle.; </t>
+          <t xml:space="preserve"> _The_ bottle.; </t>
         </is>
       </c>
     </row>
@@ -35096,7 +35096,7 @@
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Em, I mean that 's good at ø way I am I think, that what we ought to do is to seek to erm, suggest to the Commission that York should take more of the Commission's ø total workload, I E to erm take some work from Coventry, and possibly also do a compensating transfer between London and Coventry.; </t>
+          <t xml:space="preserve"> Em, I mean that 's good at ø way I am I think, that what we ought to do is to seek to erm, suggest to _the_ Commission that York should take more of the Commission's ø total workload, I E to erm take some work from Coventry, and possibly also do a compensating transfer between London and Coventry.; </t>
         </is>
       </c>
     </row>
@@ -35141,7 +35141,7 @@
       </c>
       <c r="C2314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now, what are the mechanisms of ø defence and what have they got to do with the ego?; </t>
+          <t xml:space="preserve"> Now, what are the mechanisms of ø defence and what have they got to do with _the_ ego?; </t>
         </is>
       </c>
     </row>
@@ -35186,7 +35186,7 @@
       </c>
       <c r="C2317" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and talking is ø talk with I N G on the end.; </t>
+          <t xml:space="preserve"> and talking is ø talk with I N G on _the_ end.; </t>
         </is>
       </c>
     </row>
@@ -35231,7 +35231,7 @@
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I was just gon na say, I I think we should possibly stop blaming the media or whatever actually happens and perhaps echo what the the lady earlier said, I think that it 's in our hands, we 're the women that could make this happen!; </t>
+          <t xml:space="preserve"> I was just gon na say, I I think we should possibly stop blaming the media or whatever actually happens and perhaps echo what _the_ the lady earlier said, I think that it 's in our hands, we 're the women that could make this happen!; </t>
         </is>
       </c>
     </row>
@@ -35276,7 +35276,7 @@
       </c>
       <c r="C2323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I said no it 's not true, what on, ø door, what ø door, well the door, is it bad?; </t>
+          <t xml:space="preserve"> I said no it 's not true, what on, ø door, what ø door, well _the_ door, is it bad?; </t>
         </is>
       </c>
     </row>
@@ -35321,7 +35321,7 @@
       </c>
       <c r="C2326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And there 's so much voluntary work to be done if ø people have got ø spare time to go and help but, I do n't know whether it 's the sign of the times that ø people only want to do ø jobs for ø monetary gain.; </t>
+          <t xml:space="preserve"> And there 's so much voluntary work to be done if _ø_ people have got ø spare time to go and help but, I do n't know whether it 's the sign of the times that ø people only want to do ø jobs for ø monetary gain.; </t>
         </is>
       </c>
     </row>
@@ -35366,7 +35366,7 @@
       </c>
       <c r="C2329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There was a small young man there and he was really smiling and real happy.; </t>
+          <t xml:space="preserve"> There was _a_ small young man there and he was really smiling and real happy.; </t>
         </is>
       </c>
     </row>
@@ -35411,7 +35411,7 @@
       </c>
       <c r="C2332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and the three days working week the sewage not being er ø rubbish not being collected, ø graves not being dug that 's right, that 's right, the the bin men strike have you ever had that?; </t>
+          <t xml:space="preserve"> and _the_ three days working week the sewage not being er ø rubbish not being collected, ø graves not being dug that 's right, that 's right, the the bin men strike have you ever had that?; </t>
         </is>
       </c>
     </row>
@@ -35456,7 +35456,7 @@
       </c>
       <c r="C2335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Green, ø green grass that grows on the hello, hello, hello, shut up Leon, you 're a silly wanker.; </t>
+          <t xml:space="preserve"> Green, ø green grass that grows on the hello, hello, hello, shut up Leon, you 're _a_ silly wanker.; </t>
         </is>
       </c>
     </row>
@@ -35501,7 +35501,7 @@
       </c>
       <c r="C2338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I wonder if it 's something to do with the job that you do or the people you have to work with I do n't know but that 's generally the tendency of ø people in these groups, ø team workers come out quite highly.; </t>
+          <t xml:space="preserve"> I wonder if it 's something to do with the job that you do or the people you have to work with I do n't know but that 's generally _the_ tendency of ø people in these groups, ø team workers come out quite highly.; </t>
         </is>
       </c>
     </row>
@@ -35546,7 +35546,7 @@
       </c>
       <c r="C2341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I think w w what I 'd urge the panel to to consider is is perhaps looking at it from that perspective, to encourage the County Council to review the phasing provision of ø policy H one erm in ø terms of er how the the committed land is going to be released for ø development.; </t>
+          <t xml:space="preserve"> I think w w what I 'd urge the panel to to consider is is perhaps looking at it from that perspective, to encourage the County Council to review the phasing provision of ø policy H one erm in ø terms of er how the the committed land is going to be released for _ø_ development.; </t>
         </is>
       </c>
     </row>
@@ -35591,7 +35591,7 @@
       </c>
       <c r="C2344" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The is quite difficult to, to work it out and, and ø analysis these people, you know, when you do n't want to see themselves watching ø people knowing them to watch ø Dynasty or Dallas or something, so they on ø purpose watch very ø interesting documentary.; </t>
+          <t xml:space="preserve"> The is quite difficult to, to work it out and, and ø analysis these people, you know, when you do n't want to see themselves watching _ø_ people knowing them to watch ø Dynasty or Dallas or something, so they on ø purpose watch very ø interesting documentary.; </t>
         </is>
       </c>
     </row>
@@ -35636,7 +35636,7 @@
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mind you, knowing the I think it 's just a, a Might not have been the managing director No.; </t>
+          <t xml:space="preserve"> Mind you, knowing the I think it 's just a, a Might not have been _the_ managing director No.; </t>
         </is>
       </c>
     </row>
@@ -35681,7 +35681,7 @@
       </c>
       <c r="C2350" t="inlineStr">
         <is>
-          <t xml:space="preserve"> To keep it in its place so all the engineers knows what they 're doing.; </t>
+          <t xml:space="preserve"> To keep it in its place so all _the_ engineers knows what they 're doing.; </t>
         </is>
       </c>
     </row>
@@ -35726,7 +35726,7 @@
       </c>
       <c r="C2353" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A structure as I 've said previously will give us the vital time and for the detailed discussions and ø consultations we need if we are to build the trust for the merger we all wish to see.; </t>
+          <t xml:space="preserve"> A structure as I 've said previously will give us the vital time and for the detailed discussions and ø consultations we need if we are to build _the_ trust for the merger we all wish to see.; </t>
         </is>
       </c>
     </row>
@@ -35771,7 +35771,7 @@
       </c>
       <c r="C2356" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But if I had the money this is the car I 'd do.; </t>
+          <t xml:space="preserve"> But if I had _the_ money this is the car I 'd do.; </t>
         </is>
       </c>
     </row>
@@ -35816,7 +35816,7 @@
       </c>
       <c r="C2359" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If you tip the chair up she will.; </t>
+          <t xml:space="preserve"> If you tip _the_ chair up she will.; </t>
         </is>
       </c>
     </row>
@@ -35861,7 +35861,7 @@
       </c>
       <c r="C2362" t="inlineStr">
         <is>
-          <t xml:space="preserve"> She said when you decorate you really aught to erm My Get rid of erm you really aught not to have ø dark walls you really aught to have erm pale we was going to paint the whole house white.; </t>
+          <t xml:space="preserve"> She said when you decorate you really aught to erm My Get rid of erm you really aught not to have ø dark walls you really aught to have erm pale we was going to paint _the_ whole house white.; </t>
         </is>
       </c>
     </row>
@@ -35906,7 +35906,7 @@
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Customs Officers have revealed that company officials from Sheffield ø forgemasters are among those arrested today over the Iraqi supergun affair.; </t>
+          <t xml:space="preserve"> _ø_ Customs Officers have revealed that company officials from Sheffield ø forgemasters are among those arrested today over the Iraqi supergun affair.; </t>
         </is>
       </c>
     </row>
@@ -35951,7 +35951,7 @@
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Too much power lies with the Council of ø Ministers who meet in ø secret, making it almost impossible for the public, ø national governments and the European Parliament to follow their decision making ø process.; </t>
+          <t xml:space="preserve"> Too much power lies with the Council of ø Ministers who meet in ø secret, making it almost impossible for the public, ø national governments and the European Parliament to follow their decision making _ø_ process.; </t>
         </is>
       </c>
     </row>
@@ -35996,7 +35996,7 @@
       </c>
       <c r="C2371" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So, er, of all the things that we still have to do before erm, er, our ø proper external audit, this to me seems the most critical and if we do n't complete the task, it seems to me, in the next week or two, the likelihood of it being in ø place and auditable in our ø next trial is very limited.; </t>
+          <t xml:space="preserve"> So, er, of all the things that we still have to do before erm, er, our ø proper external audit, this to me seems the most critical and if we do n't complete the task, it seems to me, in the next week or two, the likelihood of it being in ø place and auditable in our _ø_ next trial is very limited.; </t>
         </is>
       </c>
     </row>
@@ -36041,7 +36041,7 @@
       </c>
       <c r="C2374" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mind you I got a right dipstick decided wan na talk about how she cooks her frozen s ø cauliflower.; </t>
+          <t xml:space="preserve"> Mind you I got _a_ right dipstick decided wan na talk about how she cooks her frozen s ø cauliflower.; </t>
         </is>
       </c>
     </row>
@@ -36086,7 +36086,7 @@
       </c>
       <c r="C2377" t="inlineStr">
         <is>
-          <t xml:space="preserve"> First one concerning A. In ø view of the level of con ø concern expressed on ø police funding, would the chairman of the Police authority agree that some f that some protection of ø Police funds locally and nationally may be necessary.; </t>
+          <t xml:space="preserve"> First one concerning A. In ø view of the level of con ø concern expressed on ø police funding, would the chairman of the Police authority agree that some f that some protection of _ø_ Police funds locally and nationally may be necessary.; </t>
         </is>
       </c>
     </row>
@@ -36131,7 +36131,7 @@
       </c>
       <c r="C2380" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And maybe ø issues that are, that are dealt with in a different forum completely but erm Yeah.; </t>
+          <t xml:space="preserve"> And maybe ø issues that are, that are dealt with in _a_ different forum completely but erm Yeah.; </t>
         </is>
       </c>
     </row>
@@ -36176,7 +36176,7 @@
       </c>
       <c r="C2383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's a bloke come round.; </t>
+          <t xml:space="preserve"> It 's _a_ bloke come round.; </t>
         </is>
       </c>
     </row>
@@ -36221,7 +36221,7 @@
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What you played against the men?; </t>
+          <t xml:space="preserve"> What you played against _the_ men?; </t>
         </is>
       </c>
     </row>
@@ -36266,7 +36266,7 @@
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah it was a bit but it was alright cos there were n't many people there.; </t>
+          <t xml:space="preserve"> Yeah it was _a_ bit but it was alright cos there were n't many people there.; </t>
         </is>
       </c>
     </row>
@@ -36311,7 +36311,7 @@
       </c>
       <c r="C2392" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well if i if it comes up and tells me there 's no airlines there, then I can assume that there 's no airlines!; </t>
+          <t xml:space="preserve"> Well if i if it comes up and tells me there 's _no_ airlines there, then I can assume that there 's no airlines!; </t>
         </is>
       </c>
     </row>
@@ -36356,7 +36356,7 @@
       </c>
       <c r="C2395" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That was the time when there was a first ø portable radios come out Oh!; </t>
+          <t xml:space="preserve"> That was the time when there was a first _ø_ portable radios come out Oh!; </t>
         </is>
       </c>
     </row>
@@ -36401,7 +36401,7 @@
       </c>
       <c r="C2398" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah well you can buy ø little bottles of ø oil and just put a drop in Is that what it is?; </t>
+          <t xml:space="preserve"> Yeah well you can buy ø little bottles of _ø_ oil and just put a drop in Is that what it is?; </t>
         </is>
       </c>
     </row>
@@ -36446,7 +36446,7 @@
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's the spears do n't work Mm they slide off the spears that 's the problem.; </t>
+          <t xml:space="preserve"> It 's the spears do n't work Mm they slide off _the_ spears that 's the problem.; </t>
         </is>
       </c>
     </row>
@@ -36491,7 +36491,7 @@
       </c>
       <c r="C2404" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Coal from ø Welbeck is used at Staythorpe but the Coal Board say its closure has already been taken into ø account.; </t>
+          <t xml:space="preserve"> ø Coal from ø Welbeck is used at Staythorpe but the Coal Board say its closure has already been taken into _ø_ account.; </t>
         </is>
       </c>
     </row>
@@ -36536,7 +36536,7 @@
       </c>
       <c r="C2407" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Clashes between ø police and ø radical students broke out in the South ø Korean city of ø Kwangju.; </t>
+          <t xml:space="preserve"> _ø_ Clashes between ø police and ø radical students broke out in the South ø Korean city of ø Kwangju.; </t>
         </is>
       </c>
     </row>
@@ -36581,7 +36581,7 @@
       </c>
       <c r="C2410" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and it 's u, there for manning it One of the problems is this thing about some are being punished and have to there Yeah.; </t>
+          <t xml:space="preserve"> and it 's u, there for manning it One of _the_ problems is this thing about some are being punished and have to there Yeah.; </t>
         </is>
       </c>
     </row>
@@ -36626,7 +36626,7 @@
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the first round is I was waiting for you, I was waiting for you to say ø one team of four, where ø Bamber Gascoigne does n't have this trouble, look Excuse me.; </t>
+          <t xml:space="preserve"> the first round is I was waiting for you, I was waiting for you to say ø one team of four, where _ø_ Bamber Gascoigne does n't have this trouble, look Excuse me.; </t>
         </is>
       </c>
     </row>
@@ -36671,7 +36671,7 @@
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And just to remind you the open the open state probability can be defined as the time that the channel spends in its in the open state divided by the total time of the recording.; </t>
+          <t xml:space="preserve"> And just to remind you the open the open state probability can be defined as the time that _the_ channel spends in its in the open state divided by the total time of the recording.; </t>
         </is>
       </c>
     </row>
@@ -36716,7 +36716,7 @@
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The leaves are long enough to Yeah I can leave the speaker off for a minute.; </t>
+          <t xml:space="preserve"> The leaves are long enough to Yeah I can leave _the_ speaker off for a minute.; </t>
         </is>
       </c>
     </row>
@@ -36761,7 +36761,7 @@
       </c>
       <c r="C2422" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm minus one so it 's two X to the power of one, not very nice is it.; </t>
+          <t xml:space="preserve"> Erm minus one so it 's two X to _the_ power of one, not very nice is it.; </t>
         </is>
       </c>
     </row>
@@ -36806,7 +36806,7 @@
       </c>
       <c r="C2425" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Your salad goes in the other square thing that belongs to the sink.; </t>
+          <t xml:space="preserve"> Your salad goes in _the_ other square thing that belongs to the sink.; </t>
         </is>
       </c>
     </row>
@@ -36851,7 +36851,7 @@
       </c>
       <c r="C2428" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm now for the moment we 've all been waiting for er what this means in ø terms of er ø profit loss and ø cash flow and Anne will once again enlighten us I do realize out of ø time this so erm I 'd like to just g erm go through the profit loss for ø one year quite quickly.; </t>
+          <t xml:space="preserve"> Erm now for the moment we 've all been waiting for er what this means in ø terms of er ø profit loss and ø cash flow and Anne will once again enlighten us I do realize out of ø time this so erm I 'd like to just g erm go through _the_ profit loss for ø one year quite quickly.; </t>
         </is>
       </c>
     </row>
@@ -36896,7 +36896,7 @@
       </c>
       <c r="C2431" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now what happened, and it was a good procedure because what happened was that if anyone say on a Friday had found himself in a difficult situation, we would then discuss it on the Monday ø afternoon, er bearing in ø mind that he had taken it to the foreman and had got no response from the foreman, we could discuss it on a Monday ø afternoon, the convenor and the secretary would deal with it the following day, and in all probability, without having ø recourse to take it any further, ø reply to the man that the matter had been resolved and, and to his liking.; </t>
+          <t xml:space="preserve"> Now what happened, and it was a good procedure because what happened was that if anyone say on a Friday had found himself in a difficult situation, we would then discuss it on the Monday ø afternoon, er bearing in ø mind that he had taken it to the foreman and had got _no_ response from the foreman, we could discuss it on a Monday ø afternoon, the convenor and the secretary would deal with it the following day, and in all probability, without having ø recourse to take it any further, ø reply to the man that the matter had been resolved and, and to his liking.; </t>
         </is>
       </c>
     </row>
@@ -36941,7 +36941,7 @@
       </c>
       <c r="C2434" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It was worth it because you had a good erm ø quota from them.; </t>
+          <t xml:space="preserve"> It was worth it because you had _a_ good erm ø quota from them.; </t>
         </is>
       </c>
     </row>
@@ -36986,7 +36986,7 @@
       </c>
       <c r="C2437" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The only way forward for this great union is for all of us to recruit ø new members, so all of us must take this responsibility seriously.; </t>
+          <t xml:space="preserve"> The only way forward for this great union is for all of us to recruit _ø_ new members, so all of us must take this responsibility seriously.; </t>
         </is>
       </c>
     </row>
@@ -37031,7 +37031,7 @@
       </c>
       <c r="C2440" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But the White Paper has been give a less than ø enthusiastic welcome in some quarters, ø Liberal Democrat spokesman Simon Hughes says he 's worried that the Environment Secretary's announcements may be full of ø good intentions which wo n't be carried out.; </t>
+          <t xml:space="preserve"> But _the_ White Paper has been give a less than ø enthusiastic welcome in some quarters, ø Liberal Democrat spokesman Simon Hughes says he 's worried that the Environment Secretary's announcements may be full of ø good intentions which wo n't be carried out.; </t>
         </is>
       </c>
     </row>
@@ -37076,7 +37076,7 @@
       </c>
       <c r="C2443" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And, and thereafter ø cash can flow out because the first thing that flows out are ø loans and ø guarantees.; </t>
+          <t xml:space="preserve"> And, and thereafter ø cash can flow out because the first thing that flows out are ø loans and _ø_ guarantees.; </t>
         </is>
       </c>
     </row>
@@ -37121,7 +37121,7 @@
       </c>
       <c r="C2446" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And so what happens to the other part of Sussex, does that belong to a different region?; </t>
+          <t xml:space="preserve"> And so what happens to _the_ other part of Sussex, does that belong to a different region?; </t>
         </is>
       </c>
     </row>
@@ -37166,7 +37166,7 @@
       </c>
       <c r="C2449" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I do n't think you should have so much, and I 'm not going to count, so I 'm not going You 'll obviously want to make it, you do n't want to make it too short you 're going to have enough words to get yourself a good mark.; </t>
+          <t xml:space="preserve"> I do n't think you should have so much, and I 'm not going to count, so I 'm not going You 'll obviously want to make it, you do n't want to make it too short you 're going to have enough words to get yourself _a_ good mark.; </t>
         </is>
       </c>
     </row>
@@ -37211,7 +37211,7 @@
       </c>
       <c r="C2452" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How were the clips transported?; </t>
+          <t xml:space="preserve"> How were _the_ clips transported?; </t>
         </is>
       </c>
     </row>
@@ -37256,7 +37256,7 @@
       </c>
       <c r="C2455" t="inlineStr">
         <is>
-          <t xml:space="preserve"> In the West Bank and Gaza, the uprising continues, ø people throughout the region were celebrating the end of the Moslem religious festival of ø Ramadan.; </t>
+          <t xml:space="preserve"> In the West Bank and Gaza, _the_ uprising continues, ø people throughout the region were celebrating the end of the Moslem religious festival of ø Ramadan.; </t>
         </is>
       </c>
     </row>
@@ -37301,7 +37301,7 @@
       </c>
       <c r="C2458" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Got ta be in the right places you see.; </t>
+          <t xml:space="preserve"> Got ta be in _the_ right places you see.; </t>
         </is>
       </c>
     </row>
@@ -37346,7 +37346,7 @@
       </c>
       <c r="C2461" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Look for the hybrid flowering June July.; </t>
+          <t xml:space="preserve"> Look for _the_ hybrid flowering June July.; </t>
         </is>
       </c>
     </row>
@@ -37391,7 +37391,7 @@
       </c>
       <c r="C2464" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And you kept picking the jacks, the red jacks?; </t>
+          <t xml:space="preserve"> And you kept picking _the_ jacks, the red jacks?; </t>
         </is>
       </c>
     </row>
@@ -37436,7 +37436,7 @@
       </c>
       <c r="C2467" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You want a cheese sandwich?; </t>
+          <t xml:space="preserve"> You want _a_ cheese sandwich?; </t>
         </is>
       </c>
     </row>
@@ -37481,7 +37481,7 @@
       </c>
       <c r="C2470" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah well it 's rare for me to come to the doctor's but ø last three week I 've been here like every week, ø kind of ø thing.; </t>
+          <t xml:space="preserve"> Yeah well it 's rare for me to come to the doctor's but ø last three week I 've been here like every week, ø kind of _ø_ thing.; </t>
         </is>
       </c>
     </row>
@@ -37526,7 +37526,7 @@
       </c>
       <c r="C2473" t="inlineStr">
         <is>
-          <t xml:space="preserve"> the advice of a barrister.; </t>
+          <t xml:space="preserve"> the advice of _a_ barrister.; </t>
         </is>
       </c>
     </row>
@@ -37571,7 +37571,7 @@
       </c>
       <c r="C2476" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mr Yes, thank you ø Chair, erm A lot of this debate circles around what we do about ø community care, I have to tell this council as far as I 'm concerned, ø community care 's dead in the water.; </t>
+          <t xml:space="preserve"> Mr Yes, thank you ø Chair, erm A lot of this debate circles around what we do about _ø_ community care, I have to tell this council as far as I 'm concerned, ø community care 's dead in the water.; </t>
         </is>
       </c>
     </row>
@@ -37616,7 +37616,7 @@
       </c>
       <c r="C2479" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But very, very quickly erm, I 'm actually delighted that this organization has helped breathe the life into not only the Professional Boxers' Association, we are extremely grateful.; </t>
+          <t xml:space="preserve"> But very, very quickly erm, I 'm actually delighted that this organization has helped breathe _the_ life into not only the Professional Boxers' Association, we are extremely grateful.; </t>
         </is>
       </c>
     </row>
@@ -37661,7 +37661,7 @@
       </c>
       <c r="C2482" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He is an idiot.; </t>
+          <t xml:space="preserve"> He is _an_ idiot.; </t>
         </is>
       </c>
     </row>
@@ -37706,7 +37706,7 @@
       </c>
       <c r="C2485" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I think that er the point was brought out very recently, I ca n't remember even by whom, of the fact that in the first paragraph it says the most needy in our society and further on it says for those in most financial need.; </t>
+          <t xml:space="preserve"> I think that er the point was brought out very recently, I ca n't remember even by whom, of _the_ fact that in the first paragraph it says the most needy in our society and further on it says for those in most financial need.; </t>
         </is>
       </c>
     </row>
@@ -37751,7 +37751,7 @@
       </c>
       <c r="C2488" t="inlineStr">
         <is>
-          <t xml:space="preserve"> forgotten her name come and say hello, I have n't seen you for ø ages, so him once on the, ø good morning.; </t>
+          <t xml:space="preserve"> forgotten her name come and say hello, I have n't seen you for ø ages, so him once on the, _ø_ good morning.; </t>
         </is>
       </c>
     </row>
@@ -37796,7 +37796,7 @@
       </c>
       <c r="C2491" t="inlineStr">
         <is>
-          <t xml:space="preserve"> When you got the light on what did you do or say?; </t>
+          <t xml:space="preserve"> When you got _the_ light on what did you do or say?; </t>
         </is>
       </c>
     </row>
@@ -37841,7 +37841,7 @@
       </c>
       <c r="C2494" t="inlineStr">
         <is>
-          <t xml:space="preserve"> but of ø course erm as a sort of ø public to the er, er a gesture to the public erm but ø one stage during the war when ø things were getting a bit grim on the war front, it was decided that erm, we should work ø extra hours as erm, to show that we were pulling our weight, so we used to, instead of starting at nine o'clock until erm half past five, and working on ø Saturdays as well of ø course, erm, we had to start at half past eight and ø finish at six and it was a bit of a fiasco really because nobody erm, you know, well the end of the half past five you were pretty well tired out so erm the rest of the time Mm.; </t>
+          <t xml:space="preserve"> but of ø course erm as a sort of ø public to the er, er a gesture to _the_ public erm but ø one stage during the war when ø things were getting a bit grim on the war front, it was decided that erm, we should work ø extra hours as erm, to show that we were pulling our weight, so we used to, instead of starting at nine o'clock until erm half past five, and working on ø Saturdays as well of ø course, erm, we had to start at half past eight and ø finish at six and it was a bit of a fiasco really because nobody erm, you know, well the end of the half past five you were pretty well tired out so erm the rest of the time Mm.; </t>
         </is>
       </c>
     </row>
@@ -37886,7 +37886,7 @@
       </c>
       <c r="C2497" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well hopefully ø music will not die, but will continue to give ø joy and meaning to the lives of millions.; </t>
+          <t xml:space="preserve"> Well hopefully ø music will not die, but will continue to give ø joy and meaning to _the_ lives of millions.; </t>
         </is>
       </c>
     </row>
@@ -37931,7 +37931,7 @@
       </c>
       <c r="C2500" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We do, a selection of ø facials, all are very nice erm, we also do ø eyebrow shaping, ø eyebrow trimming, some people would call that erm and ø removal of ø facial hair.; </t>
+          <t xml:space="preserve"> We do, _a_ selection of ø facials, all are very nice erm, we also do ø eyebrow shaping, ø eyebrow trimming, some people would call that erm and ø removal of ø facial hair.; </t>
         </is>
       </c>
     </row>
@@ -37961,7 +37961,7 @@
       </c>
       <c r="C2502" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes, bye Get into ø Microfit, when you 're in the data input menu I 'd like you to call up the file Q M four FIT Q M four ø FIT file file.; </t>
+          <t xml:space="preserve"> Yes, bye Get into ø Microfit, when you 're in _the_ data input menu I 'd like you to call up the file Q M four FIT Q M four ø FIT file file.; </t>
         </is>
       </c>
     </row>
@@ -38006,7 +38006,7 @@
       </c>
       <c r="C2505" t="inlineStr">
         <is>
-          <t xml:space="preserve"> My God Yeah but you can lend it to Laurie on the nights you 're not using it.; </t>
+          <t xml:space="preserve"> My God Yeah but you can lend it to Laurie on _the_ nights you 're not using it.; </t>
         </is>
       </c>
     </row>
@@ -38051,7 +38051,7 @@
       </c>
       <c r="C2508" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And he bought it up all over the place.; </t>
+          <t xml:space="preserve"> And he bought it up all over _the_ place.; </t>
         </is>
       </c>
     </row>
@@ -38096,7 +38096,7 @@
       </c>
       <c r="C2511" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm it is er fair to say that London 's far easier to get to er, from Harlow than ø certain areas in Essex are erm, those are ø direct comments from the chief executive of the proposed erm ø health authority.; </t>
+          <t xml:space="preserve"> Erm it is er fair to say that London 's far easier to get to er, from Harlow than ø certain areas in Essex are erm, those are ø direct comments from the chief executive of _the_ proposed erm ø health authority.; </t>
         </is>
       </c>
     </row>
@@ -38141,7 +38141,7 @@
       </c>
       <c r="C2514" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm I think one of the things is of ø course to try and use the placement to ø sort of check out for yourself erm perhaps what ø sort of ø group you want to be working with in Mm.; </t>
+          <t xml:space="preserve"> Erm I think one of the things is of ø course to try and use the placement to ø sort of check out for yourself erm perhaps what _ø_ sort of ø group you want to be working with in Mm.; </t>
         </is>
       </c>
     </row>
@@ -38186,7 +38186,7 @@
       </c>
       <c r="C2517" t="inlineStr">
         <is>
-          <t xml:space="preserve"> My mother said erm ø Christmas Eve was n't ø time and a half, it was an ordinary night.; </t>
+          <t xml:space="preserve"> My mother said erm ø Christmas Eve was n't _ø_ time and a half, it was an ordinary night.; </t>
         </is>
       </c>
     </row>
@@ -38231,7 +38231,7 @@
       </c>
       <c r="C2520" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Possible strategies include the domestic strategy where the female recognizes ø domestic qualities in ø males in ø advance and therefore benefits herself by choosing a male with ø qualities.; </t>
+          <t xml:space="preserve"> ø Possible strategies include _the_ domestic strategy where the female recognizes ø domestic qualities in ø males in ø advance and therefore benefits herself by choosing a male with ø qualities.; </t>
         </is>
       </c>
     </row>
@@ -38276,7 +38276,7 @@
       </c>
       <c r="C2523" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Is that erm quite a dangerous job working on the, on the building sites?; </t>
+          <t xml:space="preserve"> Is that erm quite _a_ dangerous job working on the, on the building sites?; </t>
         </is>
       </c>
     </row>
@@ -38321,7 +38321,7 @@
       </c>
       <c r="C2526" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Somebody else is saying ø Blenkinsop so what I 'm gon na do is rub this out That 's not fair So, ø name asked the doctor fullstop, Blenkinsop, Blenkinsop Replied Replied the patient Blenkinsop replied the patient.; </t>
+          <t xml:space="preserve"> Somebody else is saying ø Blenkinsop so what I 'm gon na do is rub this out That 's not fair So, ø name asked the doctor fullstop, Blenkinsop, Blenkinsop Replied Replied the patient Blenkinsop replied _the_ patient.; </t>
         </is>
       </c>
     </row>
@@ -38366,7 +38366,7 @@
       </c>
       <c r="C2529" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well seen a jar of Maxwell ø House ø Large coffee.; </t>
+          <t xml:space="preserve"> Well seen _a_ jar of Maxwell ø House ø Large coffee.; </t>
         </is>
       </c>
     </row>
@@ -38411,7 +38411,7 @@
       </c>
       <c r="C2532" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So I would be able to respond from ø information received ø one evening, be able to produce the press release, press a button and hopefully it will go down the line if the technology will allow that.; </t>
+          <t xml:space="preserve"> So I would be able to respond from ø information received ø one evening, be able to produce the press release, press _a_ button and hopefully it will go down the line if the technology will allow that.; </t>
         </is>
       </c>
     </row>
@@ -38456,7 +38456,7 @@
       </c>
       <c r="C2535" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Then they used to come down the street, I 've got some lovely conga eels, stinks a bit, but not a deal.; </t>
+          <t xml:space="preserve"> Then they used to come down _the_ street, I 've got some lovely conga eels, stinks a bit, but not a deal.; </t>
         </is>
       </c>
     </row>
@@ -38501,7 +38501,7 @@
       </c>
       <c r="C2538" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's what I said, to do that and ø hope for a three or a six or another five or a king.; </t>
+          <t xml:space="preserve"> That 's what I said, to do that and ø hope for _a_ three or a six or another five or a king.; </t>
         </is>
       </c>
     </row>
@@ -38546,7 +38546,7 @@
       </c>
       <c r="C2541" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They, they are actually starting ø nursery school on the fifth of May.; </t>
+          <t xml:space="preserve"> They, they are actually starting _ø_ nursery school on the fifth of May.; </t>
         </is>
       </c>
     </row>
@@ -38591,7 +38591,7 @@
       </c>
       <c r="C2544" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It was like a rubbish dump, and yet there 's good old erm, ø grounds man, as soon as the had gone, they were down there, there was half a dozen of them and they got it cleaned in ø two days.; </t>
+          <t xml:space="preserve"> It was like a rubbish dump, and yet there 's good old erm, ø grounds man, as soon as the had gone, they were down there, there was half _a_ dozen of them and they got it cleaned in ø two days.; </t>
         </is>
       </c>
     </row>
@@ -38636,7 +38636,7 @@
       </c>
       <c r="C2547" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But erm yes that was the erm, that was the A R P erm Mm.; </t>
+          <t xml:space="preserve"> But erm yes that was the erm, that was _the_ A R P erm Mm.; </t>
         </is>
       </c>
     </row>
@@ -38681,7 +38681,7 @@
       </c>
       <c r="C2550" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They 've got a blue hue to them, a blue tinge to them but the lights are n't ø blue lights are they?; </t>
+          <t xml:space="preserve"> They 've got a blue hue to them, a blue tinge to them but _the_ lights are n't ø blue lights are they?; </t>
         </is>
       </c>
     </row>
@@ -38726,7 +38726,7 @@
       </c>
       <c r="C2553" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Where is the greens?; </t>
+          <t xml:space="preserve"> Where is _the_ greens?; </t>
         </is>
       </c>
     </row>
@@ -38771,7 +38771,7 @@
       </c>
       <c r="C2556" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And that 's not really ø opera, it 's ø theatre, ø musical theatre, and we 're experimenting quite considerably with the theatre in that case and doing it almost in the round.; </t>
+          <t xml:space="preserve"> And that 's not really ø opera, it 's ø theatre, ø musical theatre, and we 're experimenting quite considerably with _the_ theatre in that case and doing it almost in the round.; </t>
         </is>
       </c>
     </row>
@@ -38816,7 +38816,7 @@
       </c>
       <c r="C2559" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No I am a bit hard.; </t>
+          <t xml:space="preserve"> No I am _a_ bit hard.; </t>
         </is>
       </c>
     </row>
@@ -38861,7 +38861,7 @@
       </c>
       <c r="C2562" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Okay go on to the next one.; </t>
+          <t xml:space="preserve"> Okay go on to _the_ next one.; </t>
         </is>
       </c>
     </row>
@@ -38906,7 +38906,7 @@
       </c>
       <c r="C2565" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Oh the twelve quid's worth was n't it?; </t>
+          <t xml:space="preserve"> Oh _the_ twelve quid's worth was n't it?; </t>
         </is>
       </c>
     </row>
@@ -38951,7 +38951,7 @@
       </c>
       <c r="C2568" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah But I mean er, a man in his state of ø health never ought to be left to look after a woman like that, but different if it 's an ablebodied umping disgraceful I think it 's disgraceful Christine 's only my age, I was at ø school with her Yeah Yeah achieve do n't I, but I mean we knew Chris by ø error, but he 's got a but he do n't make any she 's been bedridden for ø twenty years now or whatever no he did n't perhaps when I see ø start thinking I 'm getting old yeah that 's old er, still yeah it 's funny, you do n't feel any older inside it I 'm not old you, you speaking for yourself, now you know Why do you feel older?; </t>
+          <t xml:space="preserve"> Yeah But I mean er, a man in his state of ø health never ought to be left to look after a woman like that, but different if it 's an ablebodied umping disgraceful I think it 's disgraceful Christine 's only my age, I was at ø school with her Yeah Yeah achieve do n't I, but I mean we knew Chris by _ø_ error, but he 's got a but he do n't make any she 's been bedridden for ø twenty years now or whatever no he did n't perhaps when I see ø start thinking I 'm getting old yeah that 's old er, still yeah it 's funny, you do n't feel any older inside it I 'm not old you, you speaking for yourself, now you know Why do you feel older?; </t>
         </is>
       </c>
     </row>
@@ -38996,7 +38996,7 @@
       </c>
       <c r="C2571" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And then ri, down a bit further in ø verse eleven, ø pass through the midst of the camp and command the people say, preva, prepare ø provisions for yourself, for within ø three days you are to cross this Jordan to go in and possess the land which the Lord, your ø God, is giving you to possess it.; </t>
+          <t xml:space="preserve"> And then ri, down a bit further in ø verse eleven, ø pass through the midst of the camp and command the people say, preva, prepare ø provisions for yourself, for within ø three days you are to cross this Jordan to go in and possess the land which _the_ Lord, your ø God, is giving you to possess it.; </t>
         </is>
       </c>
     </row>
@@ -39041,7 +39041,7 @@
       </c>
       <c r="C2574" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ai n't got no one to ø look at it.; </t>
+          <t xml:space="preserve"> Ai n't got no one to _ø_ look at it.; </t>
         </is>
       </c>
     </row>
@@ -39086,7 +39086,7 @@
       </c>
       <c r="C2577" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They all said oh you 'll do it, you 'll get the best.; </t>
+          <t xml:space="preserve"> They all said oh you 'll do it, you 'll get _the_ best.; </t>
         </is>
       </c>
     </row>
@@ -39131,7 +39131,7 @@
       </c>
       <c r="C2580" t="inlineStr">
         <is>
-          <t xml:space="preserve"> personally an and from er and the rest and he, he 's gone to this area and he 's looked and he, he 's seen and he may have interpreted this, or wanted to interpret it so that when his report went back that the, he was saying that we must get a move on to the people in the Party saying that we need to get involved now, we need to be in all these areas, we need to be helping ø things develop and, and being a part at the front.; </t>
+          <t xml:space="preserve"> personally an and from er and the rest and he, he 's gone to this area and he 's looked and he, he 's seen and he may have interpreted this, or wanted to interpret it so that when his report went back that the, he was saying that we must get a move on to the people in the Party saying that we need to get involved now, we need to be in all these areas, we need to be helping ø things develop and, and being _a_ part at the front.; </t>
         </is>
       </c>
     </row>
@@ -39176,7 +39176,7 @@
       </c>
       <c r="C2583" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's a card for this in n it?; </t>
+          <t xml:space="preserve"> That 's _a_ card for this in n it?; </t>
         </is>
       </c>
     </row>
@@ -39221,7 +39221,7 @@
       </c>
       <c r="C2586" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes erm, we 've actually linked with a firm of ø independent mortgage brokers erm so rather than being tied to a particular building society as most estate agents are erm what they will do is they 'll shop around and tell you which ø lenders are offering the best terms and particularly ø good schemes at any one time erm, it 's literally ø free information they simply ø phone you up and say get some idea of what your salary is and what your requirements are and then they 'll send through some information for you.; </t>
+          <t xml:space="preserve"> Yes erm, we 've actually linked with a firm of _ø_ independent mortgage brokers erm so rather than being tied to a particular building society as most estate agents are erm what they will do is they 'll shop around and tell you which ø lenders are offering the best terms and particularly ø good schemes at any one time erm, it 's literally ø free information they simply ø phone you up and say get some idea of what your salary is and what your requirements are and then they 'll send through some information for you.; </t>
         </is>
       </c>
     </row>
@@ -39266,7 +39266,7 @@
       </c>
       <c r="C2589" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He had an open mind and said there were ø pluses and ø minuses and for it, I think if it was pointed out in ø future years, that an extra mil ø one point four ø million pounds could be available for ø school budgets he would look at it perhaps a little differently.; </t>
+          <t xml:space="preserve"> He had an open mind and said there were ø pluses and ø minuses and for it, I think if it was pointed out in _ø_ future years, that an extra mil ø one point four ø million pounds could be available for ø school budgets he would look at it perhaps a little differently.; </t>
         </is>
       </c>
     </row>
@@ -39311,7 +39311,7 @@
       </c>
       <c r="C2592" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Got on ø one tube and that broke down from the end of she 's at Liverpool Street then she had to go ø different end to Oxford Street, but she ended up in Charing Cross then she got on another tube line at Charing Cross and then that broke down, so she said it took ø hours, then she gave a taxi, had to get a taxi back to Oxford Street and, and from Oxford Street ø back to Waterloo and it 's ø four pound and he gave her a change for a tenner instead, and she gave him a twenty pound note but, you know she 's absolutely haggard, so I said it 's just as well she can have a cup of ø tea before she goes, I just told her briefly about that so, erm, Carla 's a bit late ai n't she?; </t>
+          <t xml:space="preserve"> Got on ø one tube and that broke down from the end of she 's at Liverpool Street then she had to go ø different end to Oxford Street, but she ended up in Charing Cross then she got on another tube line at Charing Cross and then that broke down, so she said it took ø hours, then she gave a taxi, had to get a taxi back to Oxford Street and, and from Oxford Street ø back to Waterloo and it 's ø four pound and he gave her _a_ change for a tenner instead, and she gave him a twenty pound note but, you know she 's absolutely haggard, so I said it 's just as well she can have a cup of ø tea before she goes, I just told her briefly about that so, erm, Carla 's a bit late ai n't she?; </t>
         </is>
       </c>
     </row>
@@ -39356,7 +39356,7 @@
       </c>
       <c r="C2595" t="inlineStr">
         <is>
-          <t xml:space="preserve"> such important guest this evening she 's let him into the banquet and of ø course the guys are dying at this stage.; </t>
+          <t xml:space="preserve"> such important guest this evening she 's let him into _the_ banquet and of ø course the guys are dying at this stage.; </t>
         </is>
       </c>
     </row>
@@ -39401,7 +39401,7 @@
       </c>
       <c r="C2598" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I remember absolutely one ø hundred percent doing that, and I have to say that if I was faced with a similar situation again of a naked man, I really do n't know if I 'd bother to put his trousers on.; </t>
+          <t xml:space="preserve"> I remember absolutely one _ø_ hundred percent doing that, and I have to say that if I was faced with a similar situation again of a naked man, I really do n't know if I 'd bother to put his trousers on.; </t>
         </is>
       </c>
     </row>
@@ -39446,7 +39446,7 @@
       </c>
       <c r="C2601" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er this is alright we 've done it informally in the past, you know I 've talked to many clients some of which I handle some of which I do n't and always the question is er are we giving erm a service that we can improve on, if you look dealing with er are there any points you 'd like to raise with me, all these sort of ø questions but it 's all very unstructured er and sometimes it 's er er ø results in us having an action plan emerging, sometimes not.; </t>
+          <t xml:space="preserve"> Er this is alright we 've done it informally in the past, you know I 've talked to many clients some of which I handle some of which I do n't and always the question is er are we giving erm a service that we can improve on, if you look dealing with er are there any points you 'd like to raise with me, all these sort of ø questions but it 's all very unstructured er and sometimes it 's er er _ø_ results in us having an action plan emerging, sometimes not.; </t>
         </is>
       </c>
     </row>
@@ -39491,7 +39491,7 @@
       </c>
       <c r="C2604" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now at the end of the day the finds trays come here and all the finds are washed and dried, and there 's somebody called a finds assistant.; </t>
+          <t xml:space="preserve"> Now at the end of the day _the_ finds trays come here and all the finds are washed and dried, and there 's somebody called a finds assistant.; </t>
         </is>
       </c>
     </row>
@@ -39536,7 +39536,7 @@
       </c>
       <c r="C2607" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah with the dust Yeah.; </t>
+          <t xml:space="preserve"> Yeah with _the_ dust Yeah.; </t>
         </is>
       </c>
     </row>
@@ -39581,7 +39581,7 @@
       </c>
       <c r="C2610" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cos there 's some, they used to be carrying ø timber down the dock all ø one length and what already slung, already stacked for 'em and the way it cost, the way it go put the wires on me for sure now and there ai n't much to let now.; </t>
+          <t xml:space="preserve"> Cos there 's some, they used to be carrying ø timber down the dock all _ø_ one length and what already slung, already stacked for 'em and the way it cost, the way it go put the wires on me for sure now and there ai n't much to let now.; </t>
         </is>
       </c>
     </row>
@@ -39626,7 +39626,7 @@
       </c>
       <c r="C2613" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A recent survey carried out by ø Labour Research shows that out of two ø thousand workplaces studied, there was a marked decline in ø unionization.; </t>
+          <t xml:space="preserve"> _A_ recent survey carried out by ø Labour Research shows that out of two ø thousand workplaces studied, there was a marked decline in ø unionization.; </t>
         </is>
       </c>
     </row>
@@ -39671,7 +39671,7 @@
       </c>
       <c r="C2616" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Och aye the noo Geordies.; </t>
+          <t xml:space="preserve"> Och aye _the_ noo Geordies.; </t>
         </is>
       </c>
     </row>
@@ -39716,7 +39716,7 @@
       </c>
       <c r="C2619" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And the er, ø detail of that will come out when the proposals are put to the Policy and ø Resources Committee.; </t>
+          <t xml:space="preserve"> And the er, ø detail of that will come out when the proposals are put to _the_ Policy and ø Resources Committee.; </t>
         </is>
       </c>
     </row>
@@ -39761,7 +39761,7 @@
       </c>
       <c r="C2622" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, the same, yeah.; </t>
+          <t xml:space="preserve"> Yeah, _the_ same, yeah.; </t>
         </is>
       </c>
     </row>
@@ -39806,7 +39806,7 @@
       </c>
       <c r="C2625" t="inlineStr">
         <is>
-          <t xml:space="preserve">, do you know what we spent, listen, listen, ø mummy do this, we spent a Christmas in Hungary right, their Christmases right, ø Christmas Eve the snowplough is out on the road clearing the snow, it was that deep, it was up in Oh that 's nice.; </t>
+          <t xml:space="preserve">, do you know what we spent, listen, listen, ø mummy do this, we spent a Christmas in Hungary right, their Christmases right, ø Christmas Eve _the_ snowplough is out on the road clearing the snow, it was that deep, it was up in Oh that 's nice.; </t>
         </is>
       </c>
     </row>
@@ -39851,7 +39851,7 @@
       </c>
       <c r="C2628" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They just want to get the job done then?; </t>
+          <t xml:space="preserve"> They just want to get _the_ job done then?; </t>
         </is>
       </c>
     </row>
@@ -39896,7 +39896,7 @@
       </c>
       <c r="C2631" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But it was quite a nice night.; </t>
+          <t xml:space="preserve"> But it was quite _a_ nice night.; </t>
         </is>
       </c>
     </row>
@@ -39941,7 +39941,7 @@
       </c>
       <c r="C2634" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A memorable and a proud day.; </t>
+          <t xml:space="preserve"> _A_ memorable and a proud day.; </t>
         </is>
       </c>
     </row>
@@ -39986,7 +39986,7 @@
       </c>
       <c r="C2637" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well I was gon na say it did n't have erm have ø lines, they were on the side.; </t>
+          <t xml:space="preserve"> Well I was gon na say it did n't have erm have _ø_ lines, they were on the side.; </t>
         </is>
       </c>
     </row>
@@ -40031,7 +40031,7 @@
       </c>
       <c r="C2640" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and so this guy was selling it for forty, Vicky ordered her canoe there and he was quite a young man and so alright she said hi ø big boy how about letting me have it for thirty five if you 're willing to ha are you willing to haggle I mean my friend did buy a whole canoe he ø sort of Oh yes she did n't buy half a canoe.; </t>
+          <t xml:space="preserve"> and so this guy was selling it for forty, Vicky ordered her canoe there and he was quite a young man and so alright she said hi _ø_ big boy how about letting me have it for thirty five if you 're willing to ha are you willing to haggle I mean my friend did buy a whole canoe he ø sort of Oh yes she did n't buy half a canoe.; </t>
         </is>
       </c>
     </row>
@@ -40076,7 +40076,7 @@
       </c>
       <c r="C2643" t="inlineStr">
         <is>
-          <t xml:space="preserve"> mhm Of ø course, erm there 's a lot more ø individual responsibility is needed than that, but it 's too simplistic to say that that erm to smile upon these people who have ø problems would solve everything erm but erm to make it your own responsibility to to find out more and to find out the ways in which you can help I think is very important and is everybody's responsibility.; </t>
+          <t xml:space="preserve"> mhm Of ø course, erm there 's a lot more _ø_ individual responsibility is needed than that, but it 's too simplistic to say that that erm to smile upon these people who have ø problems would solve everything erm but erm to make it your own responsibility to to find out more and to find out the ways in which you can help I think is very important and is everybody's responsibility.; </t>
         </is>
       </c>
     </row>
@@ -40121,7 +40121,7 @@
       </c>
       <c r="C2646" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's for the Other people?; </t>
+          <t xml:space="preserve"> It 's for _the_ Other people?; </t>
         </is>
       </c>
     </row>
@@ -40166,7 +40166,7 @@
       </c>
       <c r="C2649" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Put the government on ø performance ø related pay?; </t>
+          <t xml:space="preserve"> Put the government on ø performance _ø_ related pay?; </t>
         </is>
       </c>
     </row>
@@ -40211,7 +40211,7 @@
       </c>
       <c r="C2652" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Just say you 'd like to see your solicitor and they 'll ask you who it is and you 'll say it 's, you 're not sure of the name.; </t>
+          <t xml:space="preserve"> Just say you 'd like to see your solicitor and they 'll ask you who it is and you 'll say it 's, you 're not sure of _the_ name.; </t>
         </is>
       </c>
     </row>
@@ -40256,7 +40256,7 @@
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Put a nought on the end then what does it read?; </t>
+          <t xml:space="preserve"> Put a nought on _the_ end then what does it read?; </t>
         </is>
       </c>
     </row>
@@ -40301,7 +40301,7 @@
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Probably cos it 's all the peanuts you had!; </t>
+          <t xml:space="preserve"> Probably cos it 's all _the_ peanuts you had!; </t>
         </is>
       </c>
     </row>
@@ -40346,7 +40346,7 @@
       </c>
       <c r="C2661" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But er, frequently the animals are used for the research and there 's no pain involved at that time and they are killed humanly before the research actually takes ø place.; </t>
+          <t xml:space="preserve"> But er, frequently _the_ animals are used for the research and there 's no pain involved at that time and they are killed humanly before the research actually takes ø place.; </t>
         </is>
       </c>
     </row>
@@ -40391,7 +40391,7 @@
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shirley give her give her a little bit of coaching on the angles and ø things Well I would n't know Terry.; </t>
+          <t xml:space="preserve"> Shirley give her give her a little bit of coaching on the angles and _ø_ things Well I would n't know Terry.; </t>
         </is>
       </c>
     </row>
@@ -40436,7 +40436,7 @@
       </c>
       <c r="C2667" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And then down the hill?; </t>
+          <t xml:space="preserve"> And then down _the_ hill?; </t>
         </is>
       </c>
     </row>
@@ -40481,7 +40481,7 @@
       </c>
       <c r="C2670" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So Florence licenses herself and Florence herself and no one licenses anyone in anyone.; </t>
+          <t xml:space="preserve"> So Florence licenses herself and Florence herself and _no_ one licenses anyone in anyone.; </t>
         </is>
       </c>
     </row>
@@ -40526,7 +40526,7 @@
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The joys And and James sometimes says I do n't want to hear that!; </t>
+          <t xml:space="preserve"> _The_ joys And and James sometimes says I do n't want to hear that!; </t>
         </is>
       </c>
     </row>
@@ -40571,7 +40571,7 @@
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He said, like coming to this well for your jug of ø water every day it 's ø alright while i, the jug, there 's some in the jug, but when you 've drunk it all the jug 's empty and it does n't do a thing for you!; </t>
+          <t xml:space="preserve"> He said, like coming to this well for your jug of ø water every day it 's ø alright while i, _the_ jug, there 's some in the jug, but when you 've drunk it all the jug 's empty and it does n't do a thing for you!; </t>
         </is>
       </c>
     </row>
@@ -40616,7 +40616,7 @@
       </c>
       <c r="C2679" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shrewsbury at ø home to ø first division Wimbledon took the lead through Shaw after thirty ø nine minutes, and Shrewsbury, now managed by John Bond, go through to the fifth round.; </t>
+          <t xml:space="preserve"> Shrewsbury at ø home to _ø_ first division Wimbledon took the lead through Shaw after thirty ø nine minutes, and Shrewsbury, now managed by John Bond, go through to the fifth round.; </t>
         </is>
       </c>
     </row>
@@ -40661,7 +40661,7 @@
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It is because he 'll be Yeah Looks to just led into Yeah, he is, he 's very easily led, Ryan, you know, and he 's very into, you know, getting on with the gang.; </t>
+          <t xml:space="preserve"> It is because he 'll be Yeah Looks to just led into Yeah, he is, he 's very easily led, Ryan, you know, and he 's very into, you know, getting on with _the_ gang.; </t>
         </is>
       </c>
     </row>
@@ -40706,7 +40706,7 @@
       </c>
       <c r="C2685" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I do see the similarity.; </t>
+          <t xml:space="preserve"> I do see _the_ similarity.; </t>
         </is>
       </c>
     </row>
@@ -40751,7 +40751,7 @@
       </c>
       <c r="C2688" t="inlineStr">
         <is>
-          <t xml:space="preserve"> if they 've got a job or something they 're frightened they 're not gon na do well and Where do you draw the line between you know, not ø sort erm encouraging and not Well I do it all look at it 's the way you say it.; </t>
+          <t xml:space="preserve"> if they 've got a job or something they 're frightened they 're not gon na do well and Where do you draw the line between you know, not _ø_ sort erm encouraging and not Well I do it all look at it 's the way you say it.; </t>
         </is>
       </c>
     </row>
@@ -40796,7 +40796,7 @@
       </c>
       <c r="C2691" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No you always do your rings from the inside of the actual ring.; </t>
+          <t xml:space="preserve"> No you always do your rings from _the_ inside of the actual ring.; </t>
         </is>
       </c>
     </row>
@@ -40841,7 +40841,7 @@
       </c>
       <c r="C2694" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes, it 's a bad attitude!; </t>
+          <t xml:space="preserve"> Yes, it 's _a_ bad attitude!; </t>
         </is>
       </c>
     </row>
@@ -40886,7 +40886,7 @@
       </c>
       <c r="C2697" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Or they 're a lot different.; </t>
+          <t xml:space="preserve"> Or they 're _a_ lot different.; </t>
         </is>
       </c>
     </row>
@@ -40931,7 +40931,7 @@
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The was nice.; </t>
+          <t xml:space="preserve"> _The_ was nice.; </t>
         </is>
       </c>
     </row>
@@ -40976,7 +40976,7 @@
       </c>
       <c r="C2703" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And the jukebox on.; </t>
+          <t xml:space="preserve"> And _the_ jukebox on.; </t>
         </is>
       </c>
     </row>
@@ -41021,7 +41021,7 @@
       </c>
       <c r="C2706" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, but who, who do you you know why Sitting in a suit in a nice office saying, wo!; </t>
+          <t xml:space="preserve"> Yeah, but who, who do you you know why Sitting in _a_ suit in a nice office saying, wo!; </t>
         </is>
       </c>
     </row>
@@ -41066,7 +41066,7 @@
       </c>
       <c r="C2709" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Used to ø bike back with them, ø pass down the piste and round the common and up and home again.; </t>
+          <t xml:space="preserve"> Used to ø bike back with them, ø pass down the piste and round _the_ common and up and home again.; </t>
         </is>
       </c>
     </row>
@@ -41111,7 +41111,7 @@
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This is for the week?; </t>
+          <t xml:space="preserve"> This is for _the_ week?; </t>
         </is>
       </c>
     </row>
@@ -41156,7 +41156,7 @@
       </c>
       <c r="C2715" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I could weep with ø frustration when I go around seeing the conditions some of our people work in, the pittance they have paid, ø young people hung around on ø street corners with no job and no real training.; </t>
+          <t xml:space="preserve"> I could weep with ø frustration when I go around seeing the conditions some of our people work in, the pittance they have paid, _ø_ young people hung around on ø street corners with no job and no real training.; </t>
         </is>
       </c>
     </row>
@@ -41201,7 +41201,7 @@
       </c>
       <c r="C2718" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I used to have to shove them up, they used to get knocked s, if they won, a few little ducks, you see?; </t>
+          <t xml:space="preserve"> I used to have to shove them up, they used to get knocked s, if they won, _a_ few little ducks, you see?; </t>
         </is>
       </c>
     </row>
@@ -41246,7 +41246,7 @@
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It 's a trout.; </t>
+          <t xml:space="preserve"> It 's _a_ trout.; </t>
         </is>
       </c>
     </row>
@@ -41291,7 +41291,7 @@
       </c>
       <c r="C2724" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You 've got ø faith or you 're calling God a liar!; </t>
+          <t xml:space="preserve"> You 've got ø faith or you 're calling God _a_ liar!; </t>
         </is>
       </c>
     </row>
@@ -41336,7 +41336,7 @@
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I 'm ge starting to get a bit upset about not getting ø letters back from ø people.; </t>
+          <t xml:space="preserve"> I 'm ge starting to get a bit upset about not getting _ø_ letters back from ø people.; </t>
         </is>
       </c>
     </row>
@@ -41381,7 +41381,7 @@
       </c>
       <c r="C2730" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø horse and ø landau a funeral and they 're all watching!; </t>
+          <t xml:space="preserve"> ø horse and _ø_ landau a funeral and they 're all watching!; </t>
         </is>
       </c>
     </row>
@@ -41426,7 +41426,7 @@
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t xml:space="preserve"> There 's ø three sets of ø doors at the at the entrance.; </t>
+          <t xml:space="preserve"> There 's ø three sets of _ø_ doors at the at the entrance.; </t>
         </is>
       </c>
     </row>
@@ -41471,7 +41471,7 @@
       </c>
       <c r="C2736" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We had a good laugh then Mm, used to keep your ø spare tyre in you see Oh I went with out with them like Yeah I did have one in the drawer though, I do n't know if it 's still there Oh you ought to have a big'un then keep your ø spare tyre in Do n't wear them now Aye it 's all you want, nobody else's oh she 's on again paint the house she 's spoiling it breaks all the conversation up, ø televisions, no good Be lost without mine I think I would n't get fed up, no see if an'all got fed up Well once through the week has he got some money?; </t>
+          <t xml:space="preserve"> We had a good laugh then Mm, used to keep your ø spare tyre in you see Oh I went with out with them like Yeah I did have one in the drawer though, I do n't know if it 's still there Oh you ought to have a big'un then keep your ø spare tyre in Do n't wear them now Aye it 's all you want, nobody else's oh she 's on again paint the house she 's spoiling it breaks all _the_ conversation up, ø televisions, no good Be lost without mine I think I would n't get fed up, no see if an'all got fed up Well once through the week has he got some money?; </t>
         </is>
       </c>
     </row>
@@ -41516,7 +41516,7 @@
       </c>
       <c r="C2739" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But he asked me if I 'd send them er er a full report of it after ø day after they 'd done it.; </t>
+          <t xml:space="preserve"> But he asked me if I 'd send them er er a full report of it after _ø_ day after they 'd done it.; </t>
         </is>
       </c>
     </row>
@@ -41561,7 +41561,7 @@
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now I remember being in ø one time, with both ends in, like I were talking about, and we have n't got a road out, we ø Matter of ø fact we were trying to break through to another district.; </t>
+          <t xml:space="preserve"> Now I remember being in ø one time, with both ends in, like I were talking about, and we have n't got a road out, we ø Matter of _ø_ fact we were trying to break through to another district.; </t>
         </is>
       </c>
     </row>
@@ -41606,7 +41606,7 @@
       </c>
       <c r="C2745" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He 's a fruit case really is n't he?; </t>
+          <t xml:space="preserve"> He 's _a_ fruit case really is n't he?; </t>
         </is>
       </c>
     </row>
@@ -41651,7 +41651,7 @@
       </c>
       <c r="C2748" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You will find some sort of ø agreement that erm well a nuclear war will take us very much to the worse, there 's no question about it— ø war nearly always does.; </t>
+          <t xml:space="preserve"> You will find some sort of ø agreement that erm well a nuclear war will take us very much to _the_ worse, there 's no question about it— ø war nearly always does.; </t>
         </is>
       </c>
     </row>
@@ -41696,7 +41696,7 @@
       </c>
       <c r="C2751" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Had n't got one upstairs, had n't a card, so I went out sa we 've been out this afternoon, and I get this card and I think, oh yes, now that 's pretty!; </t>
+          <t xml:space="preserve"> Had n't got one upstairs, had n't _a_ card, so I went out sa we 've been out this afternoon, and I get this card and I think, oh yes, now that 's pretty!; </t>
         </is>
       </c>
     </row>
@@ -41741,7 +41741,7 @@
       </c>
       <c r="C2754" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm what wh where were we where did I say find the gradient?; </t>
+          <t xml:space="preserve"> Erm what wh where were we where did I say find _the_ gradient?; </t>
         </is>
       </c>
     </row>
@@ -41786,7 +41786,7 @@
       </c>
       <c r="C2757" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cos you were saying for ø example with the fact that the the flats they erm ø people what they actually wanted to buy from here, erm differed from what Yeah.; </t>
+          <t xml:space="preserve"> Cos you were saying for _ø_ example with the fact that the the flats they erm ø people what they actually wanted to buy from here, erm differed from what Yeah.; </t>
         </is>
       </c>
     </row>
@@ -41831,7 +41831,7 @@
       </c>
       <c r="C2760" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, you 're at the right end!; </t>
+          <t xml:space="preserve"> Yeah, you 're at _the_ right end!; </t>
         </is>
       </c>
     </row>
@@ -41876,7 +41876,7 @@
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Here I am holding a model of a tetraneedle carbon in four ø different groups of ten and here is it 's ø mirror image.; </t>
+          <t xml:space="preserve"> Here I am holding a model of a tetraneedle carbon in four ø different groups of ten and here is it 's _ø_ mirror image.; </t>
         </is>
       </c>
     </row>
@@ -41921,7 +41921,7 @@
       </c>
       <c r="C2766" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cos ø males, what they do if they have an argument they 'll punch it out and then Punch, yeah.; </t>
+          <t xml:space="preserve"> Cos ø males, what they do if they have _an_ argument they 'll punch it out and then Punch, yeah.; </t>
         </is>
       </c>
     </row>
@@ -41966,7 +41966,7 @@
       </c>
       <c r="C2769" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And there 's all those things got washed along in the river, they got stuck on the fence.; </t>
+          <t xml:space="preserve"> And there 's all those things got washed along in the river, they got stuck on _the_ fence.; </t>
         </is>
       </c>
     </row>
@@ -42011,7 +42011,7 @@
       </c>
       <c r="C2772" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But you see the people they just drag it down, they do n't put it back.; </t>
+          <t xml:space="preserve"> But you see _the_ people they just drag it down, they do n't put it back.; </t>
         </is>
       </c>
     </row>
@@ -42056,7 +42056,7 @@
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Minus Yeah well the minus How do you multiply some Thanks.; </t>
+          <t xml:space="preserve"> _ø_ Minus Yeah well the minus How do you multiply some Thanks.; </t>
         </is>
       </c>
     </row>
@@ -42101,7 +42101,7 @@
       </c>
       <c r="C2778" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Manage the garden.; </t>
+          <t xml:space="preserve"> Manage _the_ garden.; </t>
         </is>
       </c>
     </row>
@@ -42146,7 +42146,7 @@
       </c>
       <c r="C2781" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The monster from the marsh.; </t>
+          <t xml:space="preserve"> _The_ monster from the marsh.; </t>
         </is>
       </c>
     </row>
@@ -42191,7 +42191,7 @@
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What I 'm looking for e effectively is a set of ø criteria which will promote ø best planning practise either at ø structure plan or ø local plan level, in ø order to judge the location of this settlement.; </t>
+          <t xml:space="preserve"> What I 'm looking for e effectively is a set of ø criteria which will promote ø best planning practise either at ø structure plan or _ø_ local plan level, in ø order to judge the location of this settlement.; </t>
         </is>
       </c>
     </row>
@@ -42236,7 +42236,7 @@
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I was calling the white bag.; </t>
+          <t xml:space="preserve"> I was calling _the_ white bag.; </t>
         </is>
       </c>
     </row>
@@ -42281,7 +42281,7 @@
       </c>
       <c r="C2790" t="inlineStr">
         <is>
-          <t xml:space="preserve"> for the next twelve months Yes.; </t>
+          <t xml:space="preserve"> for _the_ next twelve months Yes.; </t>
         </is>
       </c>
     </row>
@@ -42326,7 +42326,7 @@
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Did you try the jumper?; </t>
+          <t xml:space="preserve"> Did you try _the_ jumper?; </t>
         </is>
       </c>
     </row>
@@ -42371,7 +42371,7 @@
       </c>
       <c r="C2796" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I 'll tell you a story about a place I went Now so much more time has been released for us to be the church but at the same time we have nowhere to hide and nothing to blame!; </t>
+          <t xml:space="preserve"> I 'll tell you a story about a place I went Now so much more time has been released for us to be the church but at _the_ same time we have nowhere to hide and nothing to blame!; </t>
         </is>
       </c>
     </row>
@@ -42416,7 +42416,7 @@
       </c>
       <c r="C2799" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Let me write this down for you, ø ten divide by one is ten, because you are saying how many ones are in ten and the answer is ten, okay?; </t>
+          <t xml:space="preserve"> Let me write this down for you, _ø_ ten divide by one is ten, because you are saying how many ones are in ten and the answer is ten, okay?; </t>
         </is>
       </c>
     </row>
@@ -42461,7 +42461,7 @@
       </c>
       <c r="C2802" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They have n't got a brummie accent, no.; </t>
+          <t xml:space="preserve"> They have n't got _a_ brummie accent, no.; </t>
         </is>
       </c>
     </row>
@@ -42506,7 +42506,7 @@
       </c>
       <c r="C2805" t="inlineStr">
         <is>
-          <t xml:space="preserve"> But er I 'm not certain that the criterion two of ø edge two is in there anywhere.; </t>
+          <t xml:space="preserve"> But er I 'm not certain that the criterion two of _ø_ edge two is in there anywhere.; </t>
         </is>
       </c>
     </row>
@@ -42551,7 +42551,7 @@
       </c>
       <c r="C2808" t="inlineStr">
         <is>
-          <t xml:space="preserve"> remember what it was like during the nineteen twenty ø six strike?; </t>
+          <t xml:space="preserve"> remember what it was like during the nineteen twenty _ø_ six strike?; </t>
         </is>
       </c>
     </row>
@@ -42596,7 +42596,7 @@
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cos otherwise ø people 'll tell me that this is how this is the correlation coefficient.; </t>
+          <t xml:space="preserve"> Cos otherwise _ø_ people 'll tell me that this is how this is the correlation coefficient.; </t>
         </is>
       </c>
     </row>
@@ -42641,7 +42641,7 @@
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ø Breakfast is nothing like reading a comic.; </t>
+          <t xml:space="preserve"> _ø_ Breakfast is nothing like reading a comic.; </t>
         </is>
       </c>
     </row>
@@ -42686,7 +42686,7 @@
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t xml:space="preserve"> They just r r rammed their way and you had an man the they had a man they tell me I I 've never seen one But erm this was as far as I can make out er by the They had a man standing by you see with a a spanner and er gave it a quarter turn every time it hammered the the drill sort of hit the rock, went into the and hammered.; </t>
+          <t xml:space="preserve"> They just r r rammed their way and you had an man the they had a man they tell me I I 've never seen one But erm this was as far as I can make out er by the They had a man standing by you see with a _a_ spanner and er gave it a quarter turn every time it hammered the the drill sort of hit the rock, went into the and hammered.; </t>
         </is>
       </c>
     </row>
@@ -42731,7 +42731,7 @@
       </c>
       <c r="C2820" t="inlineStr">
         <is>
-          <t xml:space="preserve"> That 's a spare one.; </t>
+          <t xml:space="preserve"> That 's _a_ spare one.; </t>
         </is>
       </c>
     </row>
@@ -42776,7 +42776,7 @@
       </c>
       <c r="C2823" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Just do it while you Yes and I want to just visit a friend either end of July ø beginning of August and then in September it 's our ø five day study tour to Worcester, you know.; </t>
+          <t xml:space="preserve"> Just do it while you Yes and I want to just visit a friend either end of July _ø_ beginning of August and then in September it 's our ø five day study tour to Worcester, you know.; </t>
         </is>
       </c>
     </row>
@@ -42821,7 +42821,7 @@
       </c>
       <c r="C2826" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What 's that er And they, ø sort of a young sort of ø landlord, you know, and he ø sort of was into his ø real ales and he got ø guest beers in and all this sort of ø thing which got a better.; </t>
+          <t xml:space="preserve"> What 's that er And they, ø sort of a young sort of ø landlord, you know, and he _ø_ sort of was into his ø real ales and he got ø guest beers in and all this sort of ø thing which got a better.; </t>
         </is>
       </c>
     </row>
@@ -42866,7 +42866,7 @@
       </c>
       <c r="C2829" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well at the time you 're thinking, God that 's better than twenty or twenty ø five pound if you were unemployed, That 's right.; </t>
+          <t xml:space="preserve"> Well at _the_ time you 're thinking, God that 's better than twenty or twenty ø five pound if you were unemployed, That 's right.; </t>
         </is>
       </c>
     </row>
@@ -42911,7 +42911,7 @@
       </c>
       <c r="C2832" t="inlineStr">
         <is>
-          <t xml:space="preserve"> So I I think the new settlement remains justified even with the significantly lower figure for Greater York.; </t>
+          <t xml:space="preserve"> So I I think the new settlement remains justified even with _the_ significantly lower figure for Greater York.; </t>
         </is>
       </c>
     </row>
@@ -42956,7 +42956,7 @@
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and I was outside the door.; </t>
+          <t xml:space="preserve"> and I was outside _the_ door.; </t>
         </is>
       </c>
     </row>
@@ -43001,7 +43001,7 @@
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It has no full time consultants and now the G Ps are warning they may be forced to give up the hospital work because the Department of ø Health is planning to put them all on ø new contracts from ø next year.; </t>
+          <t xml:space="preserve"> It has no full time consultants and now _the_ G Ps are warning they may be forced to give up the hospital work because the Department of ø Health is planning to put them all on ø new contracts from ø next year.; </t>
         </is>
       </c>
     </row>
@@ -43046,7 +43046,7 @@
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Just put it right there, right in the middle so sing Fiona here 's your chance to be discovered!; </t>
+          <t xml:space="preserve"> Just put it right there, right in _the_ middle so sing Fiona here 's your chance to be discovered!; </t>
         </is>
       </c>
     </row>
@@ -43091,7 +43091,7 @@
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gone is the strong language of Mrs Thatcher's ø eighty-eight speech in Bruges, when she berated ø European rhetoric which did n't address the practical problems of ø European unity.; </t>
+          <t xml:space="preserve"> Gone is _the_ strong language of Mrs Thatcher's ø eighty-eight speech in Bruges, when she berated ø European rhetoric which did n't address the practical problems of ø European unity.; </t>
         </is>
       </c>
     </row>
@@ -43136,7 +43136,7 @@
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well that 's a point still have n't got any red letters Dad Perhaps stopped and you 're insured I 'm insured, it 's a cover note cover maybe Ah I phoned them up ø Dad want them to send me a cover note Dad What?; </t>
+          <t xml:space="preserve"> Well that 's a point still have n't got any red letters Dad Perhaps stopped and you 're insured I 'm insured, it 's a cover note cover maybe Ah I phoned them up ø Dad want them to send me _a_ cover note Dad What?; </t>
         </is>
       </c>
     </row>
@@ -43181,7 +43181,7 @@
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I I guessed the oranges.; </t>
+          <t xml:space="preserve"> I I guessed _the_ oranges.; </t>
         </is>
       </c>
     </row>
@@ -43226,7 +43226,7 @@
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It was the we used er to go into Kirkwall with mainly.; </t>
+          <t xml:space="preserve"> It was _the_ we used er to go into Kirkwall with mainly.; </t>
         </is>
       </c>
     </row>
@@ -43271,7 +43271,7 @@
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And then there was the second tier of the cake, something a little bit different, something a little bit more special for the seventy ø fifth year but still perhaps working on the tried and tested.; </t>
+          <t xml:space="preserve"> And then there was the second tier of the cake, something a little bit different, something a little bit more special for _the_ seventy ø fifth year but still perhaps working on the tried and tested.; </t>
         </is>
       </c>
     </row>
@@ -43316,7 +43316,7 @@
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ’ This brief explanation of ø Elstir's originality as an artist might I think be applied equally appropriately to Proust, the novelist.; </t>
+          <t xml:space="preserve"> ’ This brief explanation of ø Elstir's originality as _an_ artist might I think be applied equally appropriately to Proust, the novelist.; </t>
         </is>
       </c>
     </row>
@@ -43361,7 +43361,7 @@
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It gives them the opportunity of working on a real live project er which actually has an end point and is going to be used.; </t>
+          <t xml:space="preserve"> It gives them the opportunity of working on a real live project er which actually has _an_ end point and is going to be used.; </t>
         </is>
       </c>
     </row>
@@ -43406,7 +43406,7 @@
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Er you see you ø sort of lived in one li ø small environment where, er with us it was er a certain room.; </t>
+          <t xml:space="preserve"> Er you see you _ø_ sort of lived in one li ø small environment where, er with us it was er a certain room.; </t>
         </is>
       </c>
     </row>
@@ -43451,7 +43451,7 @@
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We undoubtedly ø respect the position of the of the adherents as you describe them, undoubtedly.; </t>
+          <t xml:space="preserve"> We undoubtedly ø respect the position of the of _the_ adherents as you describe them, undoubtedly.; </t>
         </is>
       </c>
     </row>
@@ -43496,7 +43496,7 @@
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And that 's about it from us tonight— ø time for a final visit to the Shrewsbury ø Flower Show— here 's Bob.; </t>
+          <t xml:space="preserve"> And that 's about it from us tonight— ø time for a final visit to the Shrewsbury _ø_ Flower Show— here 's Bob.; </t>
         </is>
       </c>
     </row>
@@ -43541,7 +43541,7 @@
       </c>
       <c r="C2874" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes, I want a square.; </t>
+          <t xml:space="preserve"> Yes, I want _a_ square.; </t>
         </is>
       </c>
     </row>
@@ -43586,7 +43586,7 @@
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What was erm how, how badly was the south by affected by the Japanese, I mean what were the peasants likely to have gone through in the last few years?; </t>
+          <t xml:space="preserve"> What was erm how, how badly was the south by affected by _the_ Japanese, I mean what were the peasants likely to have gone through in the last few years?; </t>
         </is>
       </c>
     </row>
@@ -43631,7 +43631,7 @@
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I saw in publishing a very nice example of that, not the word processing, but at John Wylies, who are a very big scientific publishers in Chichester, where they had a computer system which the editors— he 's the person who deals with the author, puts the book together— set about ordering the book; the orders and that information went into the computer, when the thing was printed it went into the warehouse and the computer then organised the storage of all of these things in the warehouse.; </t>
+          <t xml:space="preserve"> I saw in publishing a very nice example of that, not the word processing, but at John Wylies, who are a very big scientific publishers in Chichester, where they had a computer system which the editors— he 's the person who deals with the author, puts _the_ book together— set about ordering the book; the orders and that information went into the computer, when the thing was printed it went into the warehouse and the computer then organised the storage of all of these things in the warehouse.; </t>
         </is>
       </c>
     </row>
@@ -43676,7 +43676,7 @@
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Was your father a dredgerman then?; </t>
+          <t xml:space="preserve"> Was your father _a_ dredgerman then?; </t>
         </is>
       </c>
     </row>
@@ -43721,7 +43721,7 @@
       </c>
       <c r="C2886" t="inlineStr">
         <is>
-          <t xml:space="preserve"> To do all the things whether you feel like it or not, oh no, I usually take a back seat and then when it 's, I 'm.; </t>
+          <t xml:space="preserve"> To do all the things whether you feel like it or not, oh no, I usually take _a_ back seat and then when it 's, I 'm.; </t>
         </is>
       </c>
     </row>
@@ -43766,7 +43766,7 @@
       </c>
       <c r="C2889" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cos I, I were asking if they wanted a baked tatie and that and we stood waiting for them and you noticed on ø sack you had them did n't you?; </t>
+          <t xml:space="preserve"> Cos I, I were asking if they wanted _a_ baked tatie and that and we stood waiting for them and you noticed on ø sack you had them did n't you?; </t>
         </is>
       </c>
     </row>
@@ -43811,7 +43811,7 @@
       </c>
       <c r="C2892" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And no storm was gon na stop him.; </t>
+          <t xml:space="preserve"> And _no_ storm was gon na stop him.; </t>
         </is>
       </c>
     </row>
@@ -43856,7 +43856,7 @@
       </c>
       <c r="C2895" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes Two, where am I, two I 've got two I 'm gon na go Meow, meow I with the banner in the Banner coming through Come on Julia Got that, Professor Plumb in the study with a spanner know who it is I think I know who Oh anybody shown who Well I know that Six, one, two, three, four, five, six who turn?; </t>
+          <t xml:space="preserve"> Yes Two, where am I, two I 've got two I 'm gon na go Meow, meow I with the banner in the Banner coming through Come on Julia Got that, Professor Plumb in the study with _a_ spanner know who it is I think I know who Oh anybody shown who Well I know that Six, one, two, three, four, five, six who turn?; </t>
         </is>
       </c>
     </row>
@@ -43901,7 +43901,7 @@
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I mean there 's the sort of psychopathic, ø non-accidental injury that you 're never gon na be able to do anything about, and it 's best just to take the kids away and and and break the link completely.; </t>
+          <t xml:space="preserve"> I mean there 's the sort of psychopathic, _ø_ non-accidental injury that you 're never gon na be able to do anything about, and it 's best just to take the kids away and and and break the link completely.; </t>
         </is>
       </c>
     </row>
@@ -43946,7 +43946,7 @@
       </c>
       <c r="C2901" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erm with a thing like this, I mean what I usually say to ø people it depends on erm if you 've got a lot of ø numerical data, oh you might as well have this back for the time being so ø sweaty hands soaking into it or anything erm er then it does help, if you 're looking for P less than ø point O five, and are n't we all these days, erm you know er it helps if erm it helps if the groups that you 're comparing between there 's about ø sort of at least ø twenty people in each sort of ø thing, erm and the same goes for ø things like, ø things that you might want to do ø squares on or something like that erm so I mean if you were interested in comparing ø people who attended very regularly with ø people who only attended once in a while erm you know it would help if there were about ø sort of more than ø forty people altogether so that there was ø sort of, you know Mm.; </t>
+          <t xml:space="preserve"> Erm with a thing like this, I mean what I usually say to ø people it depends on erm if you 've got a lot of ø numerical data, oh you might as well have this back for _the_ time being so ø sweaty hands soaking into it or anything erm er then it does help, if you 're looking for P less than ø point O five, and are n't we all these days, erm you know er it helps if erm it helps if the groups that you 're comparing between there 's about ø sort of at least ø twenty people in each sort of ø thing, erm and the same goes for ø things like, ø things that you might want to do ø squares on or something like that erm so I mean if you were interested in comparing ø people who attended very regularly with ø people who only attended once in a while erm you know it would help if there were about ø sort of more than ø forty people altogether so that there was ø sort of, you know Mm.; </t>
         </is>
       </c>
     </row>
@@ -43991,7 +43991,7 @@
       </c>
       <c r="C2904" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I mean the barbecue 's here Ca n't no.; </t>
+          <t xml:space="preserve"> I mean _the_ barbecue 's here Ca n't no.; </t>
         </is>
       </c>
     </row>
@@ -44036,7 +44036,7 @@
       </c>
       <c r="C2907" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The are too few beds in the Health Service, whether we like it or whether we do n't and what they 're trying to do is force ø people to use the private sector.; </t>
+          <t xml:space="preserve"> The are too few beds in _the_ Health Service, whether we like it or whether we do n't and what they 're trying to do is force ø people to use the private sector.; </t>
         </is>
       </c>
     </row>
@@ -44081,7 +44081,7 @@
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t xml:space="preserve"> On ø food control, the level of ø food hygiene inspections at seven hundred and thirty we 've achieved by buying in ø consultants to do some work for us in our priority area, and we 're were able to do that with Derek Welk's retirement, leaving us with some unspent staff, and so we 've achieved a higher figure there than we expected we would do.; </t>
+          <t xml:space="preserve"> On ø food control, the level of _ø_ food hygiene inspections at seven hundred and thirty we 've achieved by buying in ø consultants to do some work for us in our priority area, and we 're were able to do that with Derek Welk's retirement, leaving us with some unspent staff, and so we 've achieved a higher figure there than we expected we would do.; </t>
         </is>
       </c>
     </row>
@@ -44126,7 +44126,7 @@
       </c>
       <c r="C2913" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He had a moustache, yes, but I 'm talking about really ø obvious things that we might forget.; </t>
+          <t xml:space="preserve"> He had _a_ moustache, yes, but I 'm talking about really ø obvious things that we might forget.; </t>
         </is>
       </c>
     </row>
@@ -44171,7 +44171,7 @@
       </c>
       <c r="C2916" t="inlineStr">
         <is>
-          <t xml:space="preserve"> and the tenth centre was attended by ø civic dignitaries.; </t>
+          <t xml:space="preserve"> and the tenth centre was attended by _ø_ civic dignitaries.; </t>
         </is>
       </c>
     </row>
@@ -44216,7 +44216,7 @@
       </c>
       <c r="C2919" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hold on a minute.; </t>
+          <t xml:space="preserve"> Hold on _a_ minute.; </t>
         </is>
       </c>
     </row>
@@ -44261,7 +44261,7 @@
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t xml:space="preserve"> so erm investing into ø industry which I do n't know much about, and I, I am suspicious that invest into ø industry anyway erm so it 's gon na have, to work it 'll have to be quite a long term policy, well I imagine it would n't be a short-term policy.; </t>
+          <t xml:space="preserve"> so erm investing into ø industry which I do n't know much about, and I, I am suspicious that invest into ø industry anyway erm so it 's gon na have, to work it 'll have to be quite a long term policy, well I imagine it would n't be _a_ short-term policy.; </t>
         </is>
       </c>
     </row>
@@ -44306,7 +44306,7 @@
       </c>
       <c r="C2925" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Can you e please explain to me how a site's exclusion from the greenbelt in itself breaches a development control policy?; </t>
+          <t xml:space="preserve"> Can you e please explain to me how a site's exclusion from _the_ greenbelt in itself breaches a development control policy?; </t>
         </is>
       </c>
     </row>
@@ -44351,7 +44351,7 @@
       </c>
       <c r="C2928" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, it 's just right Good cos we were a bit concerned, ø mother and I, that erm perhaps it might er, being such a large area, that you may it might be a bit cold you know It do it does get really cold during the night but most of the time it 's quite warm Oh good We 've got ø one boy he ø sleep talks, yeah.; </t>
+          <t xml:space="preserve"> Yeah, it 's just right Good cos we were a bit concerned, ø mother and I, that erm perhaps it might er, being such a large area, that you may it might be a bit cold you know It do it does get really cold during the night but most of _the_ time it 's quite warm Oh good We 've got ø one boy he ø sleep talks, yeah.; </t>
         </is>
       </c>
     </row>
@@ -44396,7 +44396,7 @@
       </c>
       <c r="C2931" t="inlineStr">
         <is>
-          <t xml:space="preserve"> My Lord, first of all can I just ask whether you could tell the jury something about the training of ø firearms officers?; </t>
+          <t xml:space="preserve"> My Lord, first of all can I just ask whether you could tell the jury something about the training of _ø_ firearms officers?; </t>
         </is>
       </c>
     </row>
@@ -44441,7 +44441,7 @@
       </c>
       <c r="C2934" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The interest on this, is that he also left a second disk.; </t>
+          <t xml:space="preserve"> The interest on this, is that he also left _a_ second disk.; </t>
         </is>
       </c>
     </row>
@@ -44486,7 +44486,7 @@
       </c>
       <c r="C2937" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I have to pay ø tax on that lot mind, but I mean it 's something you know like it 's still costing me ø fifty pounds Yeah erm but still that 's a bit better than two hundred Yeah Oh erm And Paul is them ø thing wasted I mean, I do n't know, ha got ø danger damage in the back of his head I think at ø times he 's so laid back, he 's doing, he 's doing erm the C ø grade for ø maths now, that 's what he 's gon na apply to, to go for Where, what?; </t>
+          <t xml:space="preserve"> I have to pay ø tax on that lot mind, but I mean it 's something you know like it 's still costing me ø fifty pounds Yeah erm but still that 's _a_ bit better than two hundred Yeah Oh erm And Paul is them ø thing wasted I mean, I do n't know, ha got ø danger damage in the back of his head I think at ø times he 's so laid back, he 's doing, he 's doing erm the C ø grade for ø maths now, that 's what he 's gon na apply to, to go for Where, what?; </t>
         </is>
       </c>
     </row>
@@ -44531,7 +44531,7 @@
       </c>
       <c r="C2940" t="inlineStr">
         <is>
-          <t xml:space="preserve"> At the close of ø business the Footsie ø 100 index was up ø 14.5 points at 2117.9 while Wall Street opened stronger up ø 7.89 points at 2664.64.; </t>
+          <t xml:space="preserve"> At the close of ø business the Footsie ø 100 index was up ø 14.5 points at 2117.9 while Wall Street opened stronger up _ø_ 7.89 points at 2664.64.; </t>
         </is>
       </c>
     </row>
@@ -44576,7 +44576,7 @@
       </c>
       <c r="C2943" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nice to be in the speed limit.; </t>
+          <t xml:space="preserve"> Nice to be in _the_ speed limit.; </t>
         </is>
       </c>
     </row>
@@ -44621,7 +44621,7 @@
       </c>
       <c r="C2946" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yeah, I like it a lot.; </t>
+          <t xml:space="preserve"> Yeah, I like it _a_ lot.; </t>
         </is>
       </c>
     </row>
@@ -44666,7 +44666,7 @@
       </c>
       <c r="C2949" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Even even er well with the er ø extra extra houses that you might say, the flats the extra dwellings.; </t>
+          <t xml:space="preserve"> Even even er well with _the_ er ø extra extra houses that you might say, the flats the extra dwellings.; </t>
         </is>
       </c>
     </row>
@@ -44711,7 +44711,7 @@
       </c>
       <c r="C2952" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I think that ø old people, or ø people who are retired, rather than ø old people, have an enormous amount of ø wisdom about their community, they have certainly ø stories to tell, and traditionally I think often in ø older traditional communities, they, the retired people, the people who 've ceased ø work, have been if you like, the guardians of the wisdom and the guardians of the stories.; </t>
+          <t xml:space="preserve"> I think that ø old people, or ø people who are retired, rather than ø old people, have an enormous amount of _ø_ wisdom about their community, they have certainly ø stories to tell, and traditionally I think often in ø older traditional communities, they, the retired people, the people who 've ceased ø work, have been if you like, the guardians of the wisdom and the guardians of the stories.; </t>
         </is>
       </c>
     </row>
@@ -44756,7 +44756,7 @@
       </c>
       <c r="C2955" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It would take him a long time then would n't it?; </t>
+          <t xml:space="preserve"> It would take him _a_ long time then would n't it?; </t>
         </is>
       </c>
     </row>
@@ -44801,7 +44801,7 @@
       </c>
       <c r="C2958" t="inlineStr">
         <is>
-          <t xml:space="preserve"> What did I say erm She 's ai n't on the mantel piece.; </t>
+          <t xml:space="preserve"> What did I say erm She 's ai n't on _the_ mantel piece.; </t>
         </is>
       </c>
     </row>
@@ -44846,7 +44846,7 @@
       </c>
       <c r="C2961" t="inlineStr">
         <is>
-          <t xml:space="preserve"> No seriously, Mr said he got nineteen out of twen, out of a hundred.; </t>
+          <t xml:space="preserve"> No seriously, Mr said he got nineteen out of twen, out of _a_ hundred.; </t>
         </is>
       </c>
     </row>
@@ -44891,7 +44891,7 @@
       </c>
       <c r="C2964" t="inlineStr">
         <is>
-          <t xml:space="preserve"> And the last two.; </t>
+          <t xml:space="preserve"> And _the_ last two.; </t>
         </is>
       </c>
     </row>
@@ -44936,7 +44936,7 @@
       </c>
       <c r="C2967" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I mean is this real or is it a red herring, which?; </t>
+          <t xml:space="preserve"> I mean is this real or is it _a_ red herring, which?; </t>
         </is>
       </c>
     </row>
@@ -44981,7 +44981,7 @@
       </c>
       <c r="C2970" t="inlineStr">
         <is>
-          <t xml:space="preserve"> no no are the residents in yet?; </t>
+          <t xml:space="preserve"> no no are _the_ residents in yet?; </t>
         </is>
       </c>
     </row>
@@ -45026,7 +45026,7 @@
       </c>
       <c r="C2973" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Secretary of ø State, I 'm sure would would obviously have to take on ø board what was embodied in the final structure plan.; </t>
+          <t xml:space="preserve"> The Secretary of ø State, I 'm sure would would obviously have to take on ø board what was embodied in _the_ final structure plan.; </t>
         </is>
       </c>
     </row>
@@ -45071,7 +45071,7 @@
       </c>
       <c r="C2976" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I think this is one of the chairman because there was so many horrendous forecasts in the summer and ø autumn about the S S A that when it was announced you know we thought it was ø goods news and of ø course it was n't, erm so this is why they 're trying to be prudent and we have kept in our proposals to the erm, has already mentioned that er, thank ø god, the er ø democratic growth has been covered this year and so on, erm, plenty of ø other things that we would like to see erm to comply with the government's own legislation erm but they where with all.; </t>
+          <t xml:space="preserve"> I think this is one of the chairman because there was so many horrendous forecasts in the summer and ø autumn about the S S A that when it was announced you know we thought it was ø goods news and of ø course it was n't, erm so this is why they 're trying to be prudent and we have kept in our proposals to the erm, has already mentioned that er, thank _ø_ god, the er ø democratic growth has been covered this year and so on, erm, plenty of ø other things that we would like to see erm to comply with the government's own legislation erm but they where with all.; </t>
         </is>
       </c>
     </row>
@@ -45116,7 +45116,7 @@
       </c>
       <c r="C2979" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A big building, ø hotel he said.; </t>
+          <t xml:space="preserve"> A big building, _ø_ hotel he said.; </t>
         </is>
       </c>
     </row>
@@ -45161,7 +45161,7 @@
       </c>
       <c r="C2982" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yes, er, I thought the council afraid does n't understand I must object.; </t>
+          <t xml:space="preserve"> Yes, er, I thought _the_ council afraid does n't understand I must object.; </t>
         </is>
       </c>
     </row>
@@ -45206,7 +45206,7 @@
       </c>
       <c r="C2985" t="inlineStr">
         <is>
-          <t xml:space="preserve"> He, well he go, he goes into ø people's houses does n't he, with this, you know, this hidden camera well you should of seen the size of this bloke!; </t>
+          <t xml:space="preserve"> He, well he go, he goes into _ø_ people's houses does n't he, with this, you know, this hidden camera well you should of seen the size of this bloke!; </t>
         </is>
       </c>
     </row>
@@ -45251,7 +45251,7 @@
       </c>
       <c r="C2988" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now in a sense, it has n't changed it 's ø form one ø little bit, it is still a pound it is still ø currency, it still has ø purchasing power, the only problem is, it 's just out of your reach, and you ca n't get at it.; </t>
+          <t xml:space="preserve"> Now in a sense, it has n't changed it 's ø form one ø little bit, it is still _a_ pound it is still ø currency, it still has ø purchasing power, the only problem is, it 's just out of your reach, and you ca n't get at it.; </t>
         </is>
       </c>
     </row>
@@ -45296,7 +45296,7 @@
       </c>
       <c r="C2991" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Even ø youths grow tired and weary and ø young men stumble and ø fall but those who hope in the Lord will renew their strength, they will soar on ø wings like ø eagles, they will run and not grow weary, they will walk and not be faint.; </t>
+          <t xml:space="preserve"> Even ø youths grow tired and weary and ø young men stumble and ø fall but those who hope in the Lord will renew their strength, they will soar on ø wings like _ø_ eagles, they will run and not grow weary, they will walk and not be faint.; </t>
         </is>
       </c>
     </row>
@@ -45341,7 +45341,7 @@
       </c>
       <c r="C2994" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Now, supposing that I want A to do something for B, like in's case, A to give up a food item for B. Okay.; </t>
+          <t xml:space="preserve"> Now, supposing that I want A to do something for B, like in's case, A to give up _a_ food item for B. Okay.; </t>
         </is>
       </c>
     </row>
@@ -45386,7 +45386,7 @@
       </c>
       <c r="C2997" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thursday Thursday the twenty seventh.; </t>
+          <t xml:space="preserve"> Thursday Thursday _the_ twenty seventh.; </t>
         </is>
       </c>
     </row>
